--- a/Archivos_imp/test.xlsx
+++ b/Archivos_imp/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HISTORIA DE USUARIO" sheetId="1" state="visible" r:id="rId1"/>
@@ -1290,14 +1290,14 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2033,13 +2033,13 @@
   </sheetPr>
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col width="35.77734375" customWidth="1" style="212" min="1" max="1"/>
+    <col width="46.6640625" customWidth="1" style="212" min="1" max="1"/>
     <col width="53.88671875" customWidth="1" style="212" min="2" max="2"/>
     <col width="77.21875" customWidth="1" style="212" min="3" max="3"/>
     <col width="79.109375" customWidth="1" style="212" min="4" max="4"/>
@@ -2178,90 +2178,33 @@
       </c>
       <c r="B7" s="152" t="inlineStr">
         <is>
-          <t>Visualizar los correos internos agrupados  por TAGS</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario con el perfil “Cliente” se encuentra en el Controlador principal del cliente &gt; Envíos físicos &gt;   “Correo Interno”,</t>
+          <t>Visualizar las entradas agrupadas por estado</t>
         </is>
       </c>
       <c r="D7" s="152" t="inlineStr">
         <is>
+          <t>Dado que el usuario se encuentra en el Controlador principal del BackOffice &gt; Módulo Cartería Inteligente &gt; Envíos físicos &gt; “Entradas - BackOffice”</t>
+        </is>
+      </c>
+      <c r="E7" s="152" t="inlineStr">
+        <is>
           <t>Entonces el sistema:
-Mostrará un listado de “Correos internos”  agrupados en un TAG según su estado actual.
-Se mostrarán sólo los TAGs que contengan al menos un registro.
-El usuario podrá hacer clic en cualquier TAG y el sistema mostrará el listado de envíos que correspondan con el TAG seleccionado. Los tags se definen en la Tabla Estados y Tags Correo Interno - Cliente
-El usuario con perfil “Cliente” no podrá visualizar los envíos en estado “Anulado”.
-Se mostrará el conteo de envíos para cada estado, a excepción de la opción “Todos”
-En la Ruta de “Miga de pan” se mostrará el “TAG” donde se encuentra ubicado el usuario.
-En la tabla que despliega los envíos, diferenciar los estados por color.</t>
-        </is>
-      </c>
-      <c r="E7" s="152" t="inlineStr">
-        <is>
-          <t>Estados/TAGs que visualizarán los usuarios (Registrador CI /Remitente/Destinatario) en la interfaz  del “cliente destinatario”:
-Todos
-Pte. Recoger
-En tránsito
-En custodia
-En distribución
-Entregado
-Incidencia
-Los TAGs se definen según el estado del envío así:
-Columnas a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO: Muestra el “Identificador del envío”.
-Información secundaria: 
-Código QR del envío.
-Tipo de envío:  Muestra el “Tipo de envío”.
-Información secundaria:
-“Creado”: Fecha-hora de creación del envío.
-Remitente: 
-Si el remitente es un “usuario” se muestra  el nombre + apellidos del usuario 
-Información secundaria:
-Se muestra el departamento asociado al usuario al momento de crear el envío.
-Si el remitente es un “departamento” se muestra directamente el nombre del departamento. 
-Información secundaria:
-No se muestra información secundaria.
-Formato de Recogida: Muestra el formato de recogida del envío.
-Ubicación Recogida:  Muestra la información de la ubicación del punto de entrega del remitente para la recogida. se deben mostrar los siguientes datos:
-PTOENTREGA.NOMBRE
-Información secundaria:
-PTOENTREGA.CODIGO
-EDIFICIO.NOMBRE
-PTOENTREGA.PLANTA
-PTOENTREGA.UBICACION
-EDIFICIO.POBLACION
-2024-07-16 se adiciona condiciones para la ubicación del remitente
-Para el punto de entrega (ubicación recogida) del remitente se debe tener en cuenta el estado actual del envío:
-Si el estado actual del envío se encuentra configurado dentro de los estados de envío que requieren que se guarde el punto de entrega del "Remitente" en las recogidas (correo interno, salidas) al momento de la asignación del estado  [Recepcionado] se debe mostrar el “punto de entrega” que se almacenó en la “Trazabilidad de estados”  que corresponda a dicho estado.  
-Si el estado actual del envío NO se encuentra configurado dentro de los estados que requieren que se guarde el punto de entrega del "Remitente" se debe mostrar el “punto de entrega” actual del Remitente.
-Nota: estos estados de envío que se configuren como que requieren almacenar el "punto de entrega" deben ser dinámicos, es decir que en cualquier momento deben poder adicionarse/quitarse estados que requieran almacenar este dato.
-Destinatario:  
-Si el destinatario es un “usuario” se muestra  el nombre + apellidos del usuario.
-Información secundaria:
-Se muestra el departamento asociado al usuario al momento de crear el envío.
-Si el destinatario es un “departamento” se muestra directamente el nombre del departamento. 
-Información secundaria:
-No se muestra información secundaria.
-Formato de Entrega: Muestra el formato de entrega del envío.
-Ubicación Entrega:  Muestra la información de la ubicación del punto de entrega del destinatario para la entrega. se deben mostrar los siguientes datos:
-PTOENTREGA.NOMBRE
-Información secundaria:
-PTOENTREGA.CODIGO
-EDIFICIO.NOMBRE
-PTOENTREGA.PLANTA
-PTOENTREGA.UBICACION
-EDIFICIO.POBLACION
-2024-07-16 se adiciona condiciones para la ubicación del destinatario
-Para el punto de entrega (ubicación entrega) del destinatario se debe tener en cuenta el estado actual del envío:
-Si el estado actual del envío se encuentra configurado dentro de los estados de envío que requieren que se guarde el punto de entrega del "Destinatario" en las entregas (entrada, correo interno) al momento de la asignación del estado  [Extraviado, Entregado, Anulado, Archivo Definitivo, Devolución] se debe mostrar el “punto de entrega” que se almacenó en la “Trazabilidad de estados”  que corresponda a dicho estado.  
-Si el estado actual del envío NO se encuentra configurado dentro de los estados que requieren que se guarde el punto de entrega del "Destinatario" se debe mostrar el “punto de entrega” actual del destinatario.
-Nota: estos estados de envío que se configuren como que requieren almacenar el "punto de entrega" deben ser dinámicos, es decir que en cualquier momento deben poder adicionarse/quitarse estados que requieran almacenar este dato.
-Estado:   Muestra el “Estado” actual del envío.
-Información secundaria:
-Fecha y hora en la que se asignó el estado del envío.
-Acciones individuales específicas: Muestra las acciones individuales específicas que podrá realizar el usuario para un envío dependiendo de su estado actual (estas acciones se especifican para cada estado en los siguientes criterios de aceptación).</t>
+Mostrará un listado de “Entradas - BackOffice”  agrupadas mediante un TAG teniendo en cuenta el estado actual del envío. Ver (Tags/Estados entradas)
+Se mostrarán sólo los TAGS que contengan al menos un registro.
+El usuario podrá hacer clic en cualquier estado y el sistema mostrará el listado de envíos que correspondan con el estado seleccionado.
+Para cada TAG se mostrará el conteo de envíos, a excepción de la opción “Todos”.
+En la Ruta de “Miga de pan” se mostrará el TAG donde se encuentra ubicado el usuario.
+En la tabla que despliega los envíos, diferenciar los estados por color.
+Cada envío que se muestre en el listado debe tener opción de selección.
+Dependiendo del estado seleccionado  se mostrarán las acciones disponibles a realizar por el BackOffice. (Ver Acciones envíos de salida).
+La acción “Finalizar ronda” No es una acción que se ejecuta desde la pantalla principal del BackOffice en GIO, es una acción que se dispone y ejecuta desde el dispositivo usado en el proceso de Rondas (recogida y entrega).
+En la “Barra dinámica superior” se debe habilitar la acción Global “Leer Código QR”, que permite leer el QR de uno o más envíos y mostrar información relevante del envío. Se activa la  HU-133	Consulta de envíos por Código QR
+La acción “Leer Código QR” es global y siempre estará activa, independiente del tipo de servicio seleccionado (entrada, salida, correo interno) e independiente del estado seleccionado.</t>
         </is>
       </c>
     </row>
@@ -2271,10 +2214,26 @@
           <t>02</t>
         </is>
       </c>
-      <c r="B8" s="152" t="n"/>
-      <c r="C8" s="152" t="n"/>
-      <c r="D8" s="152" t="n"/>
-      <c r="E8" s="152" t="n"/>
+      <c r="B8" s="152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" s="152" t="inlineStr">
+        <is>
+          <t>Configurar columnas dinamicas</t>
+        </is>
+      </c>
+      <c r="D8" s="152" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la Pantalla “Entradas - BackOffice” sobre cualquier estados y desea personalizar las columnas del listado al presionar sobre el botón “Columnas”,</t>
+        </is>
+      </c>
+      <c r="E8" s="152" t="inlineStr">
+        <is>
+          <t>Los campos (columnas) que se muestran en el listado serán dinámicos, es decir, el usuario podrá configurar las columnas que desea ver o ocultar en el listado. Se activa HU-204 Configurar Columnas Dinámicas en Listados.</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="14.4" customHeight="1" s="212">
       <c r="A9" s="147" t="inlineStr">
@@ -2282,10 +2241,34 @@
           <t>03</t>
         </is>
       </c>
-      <c r="B9" s="152" t="n"/>
-      <c r="C9" s="152" t="n"/>
-      <c r="D9" s="152" t="n"/>
-      <c r="E9" s="152" t="n"/>
+      <c r="B9" s="152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" s="152" t="inlineStr">
+        <is>
+          <t>Visualizar “Todos” los registros de entradas</t>
+        </is>
+      </c>
+      <c r="D9" s="152" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt;  Todos</t>
+        </is>
+      </c>
+      <c r="E9" s="152" t="inlineStr">
+        <is>
+          <t>El sistema mostrará un listado que incluirá todas las entradas.
+En esta opción no se contempla el conteo de envíos. 
+Los envíos en estado “Entregado” que han cumplido el tiempo configurado para archivo  se verán en “Todos”, según lo definido en la HU-130	Configuración de preferencias de Archivo  (Back Office).
+En la tabla que despliega los envíos, diferenciar los estados por color.
+Los envíos en estado “Anulado” podrán ser vistos por el “BackOffice” de cartería en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-130	Configuración de preferencias de Archivo  (Back Office).
+En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado actual del envío.
+Los envíos en estado “Extraviado” podrán ser vistos por el “BackOffice” en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+Los envíos en estado “Devolución” podrán ser vistos por el “BackOffice” en la sección “Todos”, estos no se verán en un estado aparte en el listado.</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="14.4" customHeight="1" s="212">
       <c r="A10" s="147" t="inlineStr">
@@ -2293,10 +2276,33 @@
           <t>04</t>
         </is>
       </c>
-      <c r="B10" s="152" t="n"/>
-      <c r="C10" s="152" t="n"/>
-      <c r="D10" s="152" t="n"/>
-      <c r="E10" s="152" t="n"/>
+      <c r="B10" s="152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C10" s="152" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas en estado “Recepcionado”</t>
+        </is>
+      </c>
+      <c r="D10" s="152" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Recepcionado</t>
+        </is>
+      </c>
+      <c r="E10" s="152" t="inlineStr">
+        <is>
+          <t>El sistema deberá desplegar un listado donde mostrará las entradas con estado “Recepcionado” con sus respectivos detalles. Aunque este estado es instantáneo, se incluye porque, en algunos casos, una entrada puede presentar errores en su proceso de recepción, impidiendo que continúe con el flujo.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: RECEPCIONADO mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, RECEPCIONADO una vez el envío se ha incorporado en el operativo de destino.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="14.4" customHeight="1" s="212">
       <c r="A11" s="147" t="inlineStr">
@@ -2304,10 +2310,44 @@
           <t>05</t>
         </is>
       </c>
-      <c r="B11" s="152" t="n"/>
-      <c r="C11" s="152" t="n"/>
-      <c r="D11" s="152" t="n"/>
-      <c r="E11" s="152" t="n"/>
+      <c r="B11" s="152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C11" s="152" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas “En custodia”</t>
+        </is>
+      </c>
+      <c r="D11" s="152" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    En custodia</t>
+        </is>
+      </c>
+      <c r="E11" s="152" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "En custodia", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: EN CUSTODIA mientras el envío no se ha reexpedido.
+Operativo de Destino: EN CUSTODIA una vez el envío se ha incorporado en el operativo de destino.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Anular envío
+Se activa HU-103	Anular envío (Acción)  (Back Office)
+Entrega en Cartería
+Se activa HU-108 Entrega en Cartería - Envíos físicos (Entradas)
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="14.4" customHeight="1" s="212">
       <c r="A12" s="147" t="inlineStr">
@@ -2315,10 +2355,52 @@
           <t>06</t>
         </is>
       </c>
-      <c r="B12" s="152" t="n"/>
-      <c r="C12" s="152" t="n"/>
-      <c r="D12" s="152" t="n"/>
-      <c r="E12" s="152" t="n"/>
+      <c r="B12" s="152" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C12" s="152" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas  “Pte. Distribución”</t>
+        </is>
+      </c>
+      <c r="D12" s="152" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Pte. Distribución</t>
+        </is>
+      </c>
+      <c r="E12" s="152" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Distribución", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Los envíos con método de entrega “En mano”, en “Pto. Entrega” y en estado "Pte. Distribución" de un usuario destinatario que esté "Fuera de oficina" se deberán mostrar en un nuevo TAG "Fuera de oficina" para que el usuario no  visualice el envío junto  con los que sí se tienen que distribuir.  Los envíos con esta característica no se deben mostrar en el tag Pte. Distribución. 
+Nota: La propiedad “Fuera de Oficina” se define en las HU (HU-045 Establecer punto de entrega físico) y (HU-070 Configuración de la solución de Cartería Usuario Cliente )
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. DISTRIBUCIÓN mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. DISTRIBUCIÓN una vez el envío se ha incorporado en el operativo de destino.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Anular envío
+Se activa HU-103	Anular envío (Acción)  (Back Office)
+Entrega en Cartería
+Se activa HU-108 Entrega en Cartería - Envíos físicos (Entradas)
+Acciones Generales SIN selección de envíos
+Antes de la ejecución de la acción no es necesario que el usuario seleccione envíos.
+Acciones que se mostrarán en la Barra dinámica superior:
+Iniciar Ronda
+Permite  al BackOffice iniciar la ronda para realizar la entrega de envíos.
+Se Activa laHU-152 Iniciar Ronda de Recogida - Recogida en mano &amp; En Punto de Entrega
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="14.4" customHeight="1" s="212">
       <c r="A13" s="147" t="inlineStr">
@@ -2326,10 +2408,40 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B13" s="148" t="n"/>
-      <c r="C13" s="148" t="n"/>
-      <c r="D13" s="150" t="n"/>
-      <c r="E13" s="150" t="n"/>
+      <c r="B13" s="148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C13" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas  “En distribución”</t>
+        </is>
+      </c>
+      <c r="D13" s="150" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    En distribución</t>
+        </is>
+      </c>
+      <c r="E13" s="150" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Retorno circuito físico", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: EN DISTRIBUCIÓN mientras el envío no se ha reexpedido.
+Operativo de Destino: EN DISTRIBUCIÓN una vez el envío se ha incorporado en el operativo de destino.
+Acciones Generales en  Tablet
+Acción que se ejecuta en la tablet 
+Finalizar Ronda
+Permite  al BackOffice finalizar la ronda.
+Se Activa la HU-117 Finalizar ronda 
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="14.4" customHeight="1" s="212">
       <c r="A14" s="147" t="inlineStr">
@@ -2337,10 +2449,37 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B14" s="148" t="n"/>
-      <c r="C14" s="149" t="n"/>
-      <c r="D14" s="32" t="n"/>
-      <c r="E14" s="32" t="n"/>
+      <c r="B14" s="148" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C14" s="149" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas en estado “Entregado”</t>
+        </is>
+      </c>
+      <c r="D14" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Entregado</t>
+        </is>
+      </c>
+      <c r="E14" s="32" t="inlineStr">
+        <is>
+          <t>1. El usuario podrá visualizar estas entradas en el TAG "Entregado", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: ENTREGADO mientras el envío no se ha reexpedido.
+Operativo de Destino: ENTREGADO una vez el envío se ha incorporado en el operativo de destino.
+2. En esta sección el sistema debe mostrar las entradas entregadas que aún no han sido archivadas, de acuerdo con la configuración de Archivo establecida para el usuario en la HU-130 Configuración de preferencias de Archivo  (Back Office).
+Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-130 Configuración de preferencias de Archivo  (Back Office).
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office).</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="14.4" customHeight="1" s="212">
       <c r="A15" s="147" t="inlineStr">
@@ -2348,10 +2487,33 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B15" s="126" t="n"/>
-      <c r="C15" s="149" t="n"/>
-      <c r="D15" s="32" t="n"/>
-      <c r="E15" s="32" t="n"/>
+      <c r="B15" s="126" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C15" s="149" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas  en estado “Digitalizado”</t>
+        </is>
+      </c>
+      <c r="D15" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Digitalizado (Estado virtual)</t>
+        </is>
+      </c>
+      <c r="E15" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Digitalizado", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: DIGITALIZADO mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, DIGITALIZADO una vez el envío se ha incorporado en el operativo de destino.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="14.4" customHeight="1" s="212">
       <c r="A16" s="147" t="inlineStr">
@@ -2359,10 +2521,44 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B16" s="148" t="n"/>
-      <c r="C16" s="149" t="n"/>
-      <c r="D16" s="32" t="n"/>
-      <c r="E16" s="32" t="n"/>
+      <c r="B16" s="148" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C16" s="149" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Archivo temporal”</t>
+        </is>
+      </c>
+      <c r="D16" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Archivo temporal</t>
+        </is>
+      </c>
+      <c r="E16" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Archivo temporal", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: ARCHIVO TEMPORAL mientras el envío no se ha reexpedido.
+Operativo de Destino: No aplica.
+Acciones Generales SIN selección de envíos
+Antes de la ejecución de la acción no es necesario que el usuario seleccione envíos.
+Acciones que se mostrarán en la Barra dinámica superior:
+Gestión de archivadores
+Se activa HU-141 Gestionar Archivadores  (Back Office)
+Incorporar archivo definitivo
+2024-08-14 **Se activa HU-151 Proceso de Archivo Definitivo
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="14.4" customHeight="1" s="212">
       <c r="A17" s="147" t="inlineStr">
@@ -2370,10 +2566,42 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B17" s="148" t="n"/>
-      <c r="C17" s="149" t="n"/>
-      <c r="D17" s="32" t="n"/>
-      <c r="E17" s="32" t="n"/>
+      <c r="B17" s="148" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C17" s="149" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Pte. Recuperación archivo temporal”</t>
+        </is>
+      </c>
+      <c r="D17" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt;  para los envíos en estado   Pte. Recuperación archivo temporal</t>
+        </is>
+      </c>
+      <c r="E17" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Recuperación archivo temporal", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. RECUPERACIÓN ARCH. TEMP mientras el envío no se ha reexpedido
+Operativo de Destino: No aplica.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Extraer archivo temporal
+2024-08-14 *Se Activa la HU-150 Recuperar Envíos Físicos por el BackOffice.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="14.4" customHeight="1" s="212">
       <c r="A18" s="147" t="inlineStr">
@@ -2381,10 +2609,46 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B18" s="126" t="n"/>
-      <c r="C18" s="149" t="n"/>
-      <c r="D18" s="32" t="n"/>
-      <c r="E18" s="32" t="n"/>
+      <c r="B18" s="126" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C18" s="149" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Pte. Entrega archivo definitivo”</t>
+        </is>
+      </c>
+      <c r="D18" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Pte. Entrega archivo definitivo</t>
+        </is>
+      </c>
+      <c r="E18" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Entrega archivo definitivo", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. ENTREGA ARCH. DEFINITIVO mientras el envío no se ha reexpedido.
+Operativo de Destino: No aplica.
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Anular envío
+Se activa HU-103	Anular envío (Acción)  (Back Office)
+Acciones Generales SIN selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Extraer archivo definitivo
+Se activa la HU-151	 Proceso de Archivo Definitivo
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="14.4" customHeight="1" s="212">
       <c r="A19" s="147" t="inlineStr">
@@ -2392,10 +2656,35 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B19" s="148" t="n"/>
-      <c r="C19" s="148" t="n"/>
-      <c r="D19" s="32" t="n"/>
-      <c r="E19" s="32" t="n"/>
+      <c r="B19" s="148" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C19" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Archivo definitivo”</t>
+        </is>
+      </c>
+      <c r="D19" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Archivo definitivo</t>
+        </is>
+      </c>
+      <c r="E19" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Archivo definitivo", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: ARCHIVO DEFINITIVO mientras el envío no se ha reexpedido.
+Operativo de Destino: No aplica.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="147" t="inlineStr">
@@ -2403,10 +2692,39 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B20" s="148" t="n"/>
-      <c r="C20" s="148" t="n"/>
-      <c r="D20" s="32" t="n"/>
-      <c r="E20" s="32" t="n"/>
+      <c r="B20" s="148" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C20" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las “Incidencias”</t>
+        </is>
+      </c>
+      <c r="D20" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Incidencias,</t>
+        </is>
+      </c>
+      <c r="E20" s="32" t="inlineStr">
+        <is>
+          <t>El sistema deberá desplegar un listado donde mostrará las entradas que presentan una incidencia “Abierta”, es decir, los envíos que están en estado “Incidencia”.
+A diferencia de los demás estados cuando se encuentre sobre este deberá aparecer una nueva acción “Cerrar Incidencia”.
+En este estado NO deberá aparecer la acción “Crear Incidencia”.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: INCIDENCIA.
+Operativo de Destino: El operativo destino NO lo podrá ver solo hasta que no se haya incorporado el Reexpedido, cuando se incorpore lo podrá visualizar en INCIDENCIA.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Cerrar incidencia
+Se Activa la HU-132 Cerrar Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="147" t="inlineStr">
@@ -2414,10 +2732,30 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B21" s="148" t="n"/>
-      <c r="C21" s="148" t="n"/>
-      <c r="D21" s="32" t="n"/>
-      <c r="E21" s="32" t="n"/>
+      <c r="B21" s="148" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C21" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en estado “Anulado”</t>
+        </is>
+      </c>
+      <c r="D21" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Anulado</t>
+        </is>
+      </c>
+      <c r="E21" s="32" t="inlineStr">
+        <is>
+          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: TODOS 
+Operativo de Destino: TODOS 
+2. Los envíos en estado “Anulado” SOLO podrán ser vistos por el “BackOffice” de cartería (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="147" t="inlineStr">
@@ -2425,10 +2763,30 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B22" s="148" t="n"/>
-      <c r="C22" s="32" t="n"/>
-      <c r="D22" s="32" t="n"/>
-      <c r="E22" s="32" t="n"/>
+      <c r="B22" s="148" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C22" s="32" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en estado “Extraviado”</t>
+        </is>
+      </c>
+      <c r="D22" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Extraviado</t>
+        </is>
+      </c>
+      <c r="E22" s="32" t="inlineStr">
+        <is>
+          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: TODOS 
+Operativo de Destino: TODOS 
+2. Los envíos en estado “Extraviado” SOLO podrán ser vistos por el “BackOffice” de cartería  (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="147" t="inlineStr">
@@ -2436,10 +2794,30 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B23" s="148" t="n"/>
-      <c r="C23" s="126" t="n"/>
-      <c r="D23" s="32" t="n"/>
-      <c r="E23" s="32" t="n"/>
+      <c r="B23" s="148" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C23" s="126" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en estado “Devolución”</t>
+        </is>
+      </c>
+      <c r="D23" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Devolución</t>
+        </is>
+      </c>
+      <c r="E23" s="32" t="inlineStr">
+        <is>
+          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: TODOS 
+Operativo de Destino: TODOS 
+2. Los envíos en estado “Devolución” SOLO podrán ser vistos por el “BackOffice” de cartería  (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="147" t="inlineStr">
@@ -2447,10 +2825,40 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B24" s="148" t="n"/>
-      <c r="C24" s="32" t="n"/>
-      <c r="D24" s="32" t="n"/>
-      <c r="E24" s="32" t="n"/>
+      <c r="B24" s="148" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C24" s="32" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Pte. Recibir”</t>
+        </is>
+      </c>
+      <c r="D24" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Pte. Recibir</t>
+        </is>
+      </c>
+      <c r="E24" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Recibir", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. REEXPEDIR mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Incorporar Reexpedido
+Se activa HU-119 Incorporar Reexpedido (Entradas) (Back Office)
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="147" t="inlineStr">
@@ -2458,10 +2866,44 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B25" s="148" t="n"/>
-      <c r="C25" s="32" t="n"/>
-      <c r="D25" s="32" t="n"/>
-      <c r="E25" s="32" t="n"/>
+      <c r="B25" s="148" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C25" s="32" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Pte. Reexpedir”</t>
+        </is>
+      </c>
+      <c r="D25" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Pte. Reexpedir</t>
+        </is>
+      </c>
+      <c r="E25" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Reexpedir", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. REEXPEDIR mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Anular envío
+Se activa HU-103	Anular envío (Acción)  (Back Office)
+Confirmar  Reexpedido
+Se activa HU-134	Confirmar Reexpedido 
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="147" t="inlineStr">
@@ -2469,10 +2911,42 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B26" s="148" t="n"/>
-      <c r="C26" s="32" t="n"/>
-      <c r="D26" s="32" t="n"/>
-      <c r="E26" s="32" t="n"/>
+      <c r="B26" s="148" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C26" s="32" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Reexpedido”</t>
+        </is>
+      </c>
+      <c r="D26" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Reexpedido</t>
+        </is>
+      </c>
+      <c r="E26" s="32" t="inlineStr">
+        <is>
+          <t>El sistema deberá desplegar un listado con las entradas que ha “Reexpedido” el operador de la cartería origen, con sus respectivos detalles. 
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: REEXPEDIDO una vez el envío se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, RECEPCIONADO una vez el envío se ha incorporado en el operativo de destino.
+Notas: Una vez que el envío ha sido reexpedido por el operador de origen, pasará a estar en estado "Recepcionado" por el operador de destino, y el envío deberá seguir el “flujo de entradas” establecido según la configuración inicial. Es importante considerar que, cuando se registró la entrada y el envío se digitalizó, en este nuevo flujo este paso deberá omitirse para evitar redundancias. Esto asegura que el proceso sea más eficiente y evita la duplicación de registros, permitiendo un seguimiento más claro y preciso de cada envío. Además, se debe garantizar que cualquier omisión de pasos no afecte la integridad de los datos ni la trazabilidad del envío a lo largo de todo su recorrido.
+Es posible que el destinatario cambie el punto de entrega después de la reexpedición del operador de origen. En tal caso, es posible que el operador de destino inicial ya no sea el correcto cuando llegue el reexpedido, por lo que se debería volver a reexpedir al nuevo operador de destino.
+Adicionalmente, se deben considerar las siguientes situaciones:
+Cuando un usuario cambia su punto de entrega a uno gestionado por otro operador, ya sea porque el edificio cambia de operador, el punto de entrega cambia de edificio, el usuario cambia su punto de entrega o el administrador del cliente cambia el punto de entrega del usuario, se deben establecer todos los envíos con estado "Pte. de distribución" y "Recoger en cartería" a "Pte. Reexpedir".
+Al cerrar una ronda, se debe comprobar para todos los envíos no entregados si el destinatario tiene un punto de entrega gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
+Cuando se reincorpora una entrada al circuito físico después de digitalizarse, también se debe comprobar si el destinatario tiene un punto de entrega gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
+Cuando se incorpora un envío reexpedido desde otro operador, se debe verificar si el punto de entrega actual del destinatario está gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="147" t="inlineStr">
@@ -2480,10 +2954,26 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B27" s="148" t="n"/>
-      <c r="C27" s="32" t="n"/>
-      <c r="D27" s="32" t="n"/>
-      <c r="E27" s="32" t="n"/>
+      <c r="B27" s="148" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C27" s="32" t="inlineStr">
+        <is>
+          <t>Ver detalle del envío</t>
+        </is>
+      </c>
+      <c r="D27" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” , visualizando el Listado de envíos de cualquier estado, cuando haga clic en un envío en específico,</t>
+        </is>
+      </c>
+      <c r="E27" s="32" t="inlineStr">
+        <is>
+          <t>El sistema mostrará información con el detalle del envío seleccionado. Se Activa la HU-005 Ver el detalle del registro de entrada seleccionado</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16.2" customHeight="1" s="212">
       <c r="A28" s="147" t="inlineStr">
@@ -2491,10 +2981,26 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B28" s="126" t="n"/>
-      <c r="C28" s="32" t="n"/>
-      <c r="D28" s="32" t="n"/>
-      <c r="E28" s="32" t="n"/>
+      <c r="B28" s="126" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C28" s="32" t="inlineStr">
+        <is>
+          <t>Editar información del envío</t>
+        </is>
+      </c>
+      <c r="D28" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” , visualizando el Listado de envíos de cualquier estado y desee editar la información del registro seleccionado,</t>
+        </is>
+      </c>
+      <c r="E28" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16.2" customHeight="1" s="212">
       <c r="A29" s="147" t="inlineStr">
@@ -2502,10 +3008,26 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B29" s="148" t="n"/>
-      <c r="C29" s="32" t="n"/>
-      <c r="D29" s="32" t="n"/>
-      <c r="E29" s="32" t="n"/>
+      <c r="B29" s="148" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C29" s="32" t="inlineStr">
+        <is>
+          <t>Acción  “Crear Incidencia”</t>
+        </is>
+      </c>
+      <c r="D29" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado (excepto Incidencia), cuando haga clic en la acción  “Crear Incidencia”</t>
+        </is>
+      </c>
+      <c r="E29" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-011 Crear Incidencia</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16.2" customHeight="1" s="212">
       <c r="A30" s="147" t="inlineStr">
@@ -2513,10 +3035,26 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B30" s="148" t="n"/>
-      <c r="C30" s="32" t="n"/>
-      <c r="D30" s="32" t="n"/>
-      <c r="E30" s="32" t="n"/>
+      <c r="B30" s="148" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C30" s="32" t="inlineStr">
+        <is>
+          <t>Acción  “Enviar Mensaje”</t>
+        </is>
+      </c>
+      <c r="D30" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado, cuando haga clic en la acción “Enviar Mensaje”</t>
+        </is>
+      </c>
+      <c r="E30" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-102 Enviar Mensaje (Acción)</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="16.2" customHeight="1" s="212">
       <c r="A31" s="147" t="inlineStr">
@@ -2524,10 +3062,26 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B31" s="148" t="n"/>
-      <c r="C31" s="32" t="n"/>
-      <c r="D31" s="32" t="n"/>
-      <c r="E31" s="32" t="n"/>
+      <c r="B31" s="148" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C31" s="32" t="inlineStr">
+        <is>
+          <t>Acción  “Anular envío”</t>
+        </is>
+      </c>
+      <c r="D31" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado, cuando haga clic en la acción “Anular envío”</t>
+        </is>
+      </c>
+      <c r="E31" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-103 Anular envío (Acción)</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="16.2" customHeight="1" s="212">
       <c r="A32" s="147" t="inlineStr">
@@ -2535,10 +3089,26 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B32" s="148" t="n"/>
-      <c r="C32" s="32" t="n"/>
-      <c r="D32" s="32" t="n"/>
-      <c r="E32" s="32" t="n"/>
+      <c r="B32" s="148" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C32" s="32" t="inlineStr">
+        <is>
+          <t>Acción  “Recuperación envío físico”</t>
+        </is>
+      </c>
+      <c r="D32" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos del estado “Archivo temporal”, cuando haga clic en la acción  “Recuperar envío físico”</t>
+        </is>
+      </c>
+      <c r="E32" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-150 Recuperar Envíos Físicos por el Usuario de BackOffice</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="16.2" customHeight="1" s="212">
       <c r="A33" s="147" t="inlineStr">
@@ -2546,10 +3116,26 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B33" s="148" t="n"/>
-      <c r="C33" s="148" t="n"/>
-      <c r="D33" s="148" t="n"/>
-      <c r="E33" s="32" t="n"/>
+      <c r="B33" s="148" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C33" s="148" t="inlineStr">
+        <is>
+          <t>Acción  “Cerrar Incidencia”</t>
+        </is>
+      </c>
+      <c r="D33" s="148" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos en estado “Incidencia”, cuando haga clic en la acción “Cerrar Incidencia”</t>
+        </is>
+      </c>
+      <c r="E33" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la  HU-132 Cerrar Incidencia</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16.2" customHeight="1" s="212">
       <c r="A34" s="147" t="inlineStr">
@@ -2557,10 +3143,29 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B34" s="148" t="n"/>
-      <c r="C34" s="32" t="n"/>
-      <c r="D34" s="32" t="n"/>
-      <c r="E34" s="150" t="n"/>
+      <c r="B34" s="148" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C34" s="32" t="inlineStr">
+        <is>
+          <t>Selección de uno o varios registros</t>
+        </is>
+      </c>
+      <c r="D34" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado,
+Cuando requiere seleccionar uno o varios registros para realizar una acción de la “Barra de botones dinámica” sobre el (los) registro(s) seleccionado(s),</t>
+        </is>
+      </c>
+      <c r="E34" s="150" t="inlineStr">
+        <is>
+          <t>El sistema debe mostrar un checklist en cada envío, cada vez que el usuario seleccione un registro en la parte superior de la tabla le mostrará un contador de registros. Ej. “3 registros seleccionados”.
+2024-09-13: Se adiciona lo siguiente para tener en cuenta:
+El sistema debe permitir seleccionar varios registros entre las diferentes páginas del listado, sin perder la selección anterior o posterior.</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16.2" customHeight="1" s="212">
       <c r="A35" s="147" t="inlineStr">
@@ -2568,10 +3173,27 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B35" s="148" t="n"/>
-      <c r="C35" s="32" t="n"/>
-      <c r="D35" s="32" t="n"/>
-      <c r="E35" s="32" t="n"/>
+      <c r="B35" s="148" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C35" s="32" t="inlineStr">
+        <is>
+          <t>Seleccionar Todos los registros</t>
+        </is>
+      </c>
+      <c r="D35" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado,
+Cuando requiere seleccionar todos los registros y da clic sobre el checklist “Seleccionar todo” para  realizar una acción de la “Barra de botones dinámica”,</t>
+        </is>
+      </c>
+      <c r="E35" s="32" t="inlineStr">
+        <is>
+          <t>El sistema debe seleccionar todos los registros de la página donde se encuentra, mostrando el número de registros seleccionados.</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16.2" customHeight="1" s="212">
       <c r="A36" s="147" t="inlineStr">
@@ -2579,10 +3201,32 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B36" s="148" t="n"/>
-      <c r="C36" s="32" t="n"/>
-      <c r="D36" s="32" t="n"/>
-      <c r="E36" s="32" t="n"/>
+      <c r="B36" s="148" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C36" s="32" t="inlineStr">
+        <is>
+          <t>Activar/Desactivar Celdas</t>
+        </is>
+      </c>
+      <c r="D36" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y desea visualizar más a detalle los registros de entrada,</t>
+        </is>
+      </c>
+      <c r="E36" s="32" t="inlineStr">
+        <is>
+          <t>El sistema permitirá al usuario:
+Activar celdas:
+Al activar esta opción  el sistema expandirá la vista de la tabla para mostrar información secundaria de cada registro de entrada que se está visualizando.
+No se requiere selección de registros específicos, la expansión aplicará a todos los registros visibles en la tabla.
+Desactivar celdas
+Activar la sección "Desactivar Celdas" para regresar a la vista inicial de la tabla. Al presionar sobre esta opción, el sistema ocultará la información secundaria y mostrará nuevamente la vista compacta de la tabla.
+El usuario continuará viendo la misma sección de la tabla que estaba visualizando antes de desactivar la expansión.</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16.2" customHeight="1" s="212">
       <c r="A37" s="147" t="inlineStr">
@@ -2590,10 +3234,26 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B37" s="148" t="n"/>
-      <c r="C37" s="32" t="n"/>
-      <c r="D37" s="32" t="n"/>
-      <c r="E37" s="32" t="n"/>
+      <c r="B37" s="148" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C37" s="32" t="inlineStr">
+        <is>
+          <t>Información secundaria</t>
+        </is>
+      </c>
+      <c r="D37" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”y desea visualizar la información secundaria de un envío en específico, al pasar el cursor sobre  dicho envío,</t>
+        </is>
+      </c>
+      <c r="E37" s="32" t="inlineStr">
+        <is>
+          <t>El sistema deberá expandir la vista del registro y automáticamente mostrar la información secundaria del envío.</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16.2" customHeight="1" s="212">
       <c r="A38" s="147" t="inlineStr">
@@ -2601,10 +3261,27 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B38" s="148" t="n"/>
-      <c r="C38" s="32" t="n"/>
-      <c r="D38" s="32" t="n"/>
-      <c r="E38" s="32" t="n"/>
+      <c r="B38" s="148" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C38" s="32" t="inlineStr">
+        <is>
+          <t>Filtros tabla</t>
+        </is>
+      </c>
+      <c r="D38" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” en cualquiera de los estados y presiona sobre Icono filtro (),</t>
+        </is>
+      </c>
+      <c r="E38" s="32" t="inlineStr">
+        <is>
+          <t>Si la sección filtrado está deshabilitada el sistema debe habilitar la sección de filtrado en la tabla. 
+Si la sección filtrado está habilitada el sistema debe deshabilitar la sección de filtrado en la tabla.</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16.2" customHeight="1" s="212">
       <c r="A39" s="147" t="inlineStr">
@@ -2612,10 +3289,29 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B39" s="148" t="n"/>
-      <c r="C39" s="32" t="n"/>
-      <c r="D39" s="32" t="n"/>
-      <c r="E39" s="32" t="n"/>
+      <c r="B39" s="148" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C39" s="32" t="inlineStr">
+        <is>
+          <t>Filtros</t>
+        </is>
+      </c>
+      <c r="D39" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y diligencie alguno de los filtros del panel de filtrado,</t>
+        </is>
+      </c>
+      <c r="E39" s="32" t="inlineStr">
+        <is>
+          <t>Estos deben ser un campo de entrada de texto.
+El sistema solo debe permitir escribir caracteres alfanuméricos.
+Por defecto los campos deben estar vacíos.
+Los filtros de texto por defecto deben ser del tipo "Contains" y ser indistintas las mayúsculas y las minúsculas (Case Insensitive) y a los "acentos"  (a=á=ä=à=â) (Accent Insensitive).</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16.2" customHeight="1" s="212">
       <c r="A40" s="147" t="inlineStr">
@@ -2623,10 +3319,26 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B40" s="148" t="n"/>
-      <c r="C40" s="32" t="n"/>
-      <c r="D40" s="151" t="n"/>
-      <c r="E40" s="148" t="n"/>
+      <c r="B40" s="148" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C40" s="32" t="inlineStr">
+        <is>
+          <t>Filtro Estado</t>
+        </is>
+      </c>
+      <c r="D40" s="151" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar,  y desee ver los registros por estado,</t>
+        </is>
+      </c>
+      <c r="E40" s="148" t="inlineStr">
+        <is>
+          <t>Por defecto el filtro estará establecido de acuerdo al estado que el usuario ha seleccionado y el usuario NO podrá seleccionar ningún otro estado para filtrar.</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16.2" customHeight="1" s="212">
       <c r="A41" s="147" t="inlineStr">
@@ -2634,10 +3346,27 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B41" s="148" t="n"/>
-      <c r="C41" s="32" t="n"/>
-      <c r="D41" s="151" t="n"/>
-      <c r="E41" s="148" t="n"/>
+      <c r="B41" s="148" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C41" s="32" t="inlineStr">
+        <is>
+          <t>Aplicar filtros</t>
+        </is>
+      </c>
+      <c r="D41" s="151" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar, al  dar clic en el botón “Aplicar”,</t>
+        </is>
+      </c>
+      <c r="E41" s="148" t="inlineStr">
+        <is>
+          <t>El sistema debe mostrar en la tabla los registros.
+Al no encontrar registros debe aparecer el mensaje “No existen registros” en la tabla.</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="16.2" customHeight="1" s="212">
       <c r="A42" s="147" t="inlineStr">
@@ -2645,10 +3374,27 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B42" s="148" t="n"/>
-      <c r="C42" s="148" t="n"/>
-      <c r="D42" s="151" t="n"/>
-      <c r="E42" s="148" t="n"/>
+      <c r="B42" s="148" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C42" s="148" t="inlineStr">
+        <is>
+          <t>Limpiar filtros</t>
+        </is>
+      </c>
+      <c r="D42" s="151" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar, al  dar clic en el botón “Borrar” o deshabilita la sección de filtrado,</t>
+        </is>
+      </c>
+      <c r="E42" s="148" t="inlineStr">
+        <is>
+          <t>El sistema debe regresar todos los filtros a su estado por defecto.
+En la tabla deben aparecer todos los registros.</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="16.2" customHeight="1" s="212">
       <c r="A43" s="147" t="inlineStr">
@@ -2656,10 +3402,26 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B43" s="126" t="n"/>
-      <c r="C43" s="32" t="n"/>
-      <c r="D43" s="32" t="n"/>
-      <c r="E43" s="32" t="n"/>
+      <c r="B43" s="126" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C43" s="32" t="inlineStr">
+        <is>
+          <t>Exportar información</t>
+        </is>
+      </c>
+      <c r="D43" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y desea exportar la información visualizada, cuando hace clic en la opción “Acciones de datos” &gt; “Exportar”</t>
+        </is>
+      </c>
+      <c r="E43" s="32" t="inlineStr">
+        <is>
+          <t>El sistema permitirá exportar la información del listado teniendo en cuenta los filtros que se hayan aplicado. Se activa HU-056 Exportación de datos</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16.2" customHeight="1" s="212">
       <c r="A44" s="147" t="inlineStr">
@@ -2667,10 +3429,26 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B44" s="126" t="n"/>
-      <c r="C44" s="32" t="n"/>
-      <c r="D44" s="32" t="n"/>
-      <c r="E44" s="32" t="n"/>
+      <c r="B44" s="126" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C44" s="32" t="inlineStr">
+        <is>
+          <t>Paginado y Desplazamiento en Listados</t>
+        </is>
+      </c>
+      <c r="D44" s="32" t="inlineStr">
+        <is>
+          <t>Dado que se busca mejorar la visualización de listados en cada estado, cuando el usuario acceda a cualquier lista de estados,</t>
+        </is>
+      </c>
+      <c r="E44" s="32" t="inlineStr">
+        <is>
+          <t>Si la totalidad de los registros no alcanzan a mostrarse en pantalla, la información se mostrará paginada y con barras de desplazamiento. Se activa HU-098  (Paginado de tablas).</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="16.2" customHeight="1" s="212">
       <c r="A45" s="147" t="inlineStr">
@@ -17149,8 +17927,8 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="BD11:BD12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="BV11:BV12"/>
     <mergeCell ref="BG11:BG12"/>
     <mergeCell ref="BE11:BE12"/>
@@ -17178,7 +17956,7 @@
   </sheetPr>
   <dimension ref="A1:AT731"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -17217,8 +17995,8 @@
     <col width="24.33203125" customWidth="1" style="224" min="40" max="40"/>
     <col width="11.44140625" customWidth="1" style="5" min="41" max="41"/>
     <col width="19.21875" customWidth="1" style="5" min="42" max="42"/>
-    <col width="11.44140625" customWidth="1" style="5" min="43" max="46"/>
-    <col width="11.44140625" customWidth="1" style="5" min="47" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="5" min="43" max="47"/>
+    <col width="11.44140625" customWidth="1" style="5" min="48" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="212">
@@ -17509,16 +18287,35 @@
     <row r="7" hidden="1" ht="52.5" customHeight="1" s="212">
       <c r="B7" s="196" t="inlineStr">
         <is>
-          <t>NÚMERO DE PROYECTO O TIQUETE - DESCRIPCIÓN</t>
-        </is>
-      </c>
-      <c r="C7" s="196" t="n"/>
+          <t>Seleccionar “Acción” “Mensaje a cartería”</t>
+        </is>
+      </c>
+      <c r="C7" s="196" t="inlineStr">
+        <is>
+          <t>Dado que el usuario desea  "Enviar un Mensaje a cartería" sobre un envío (entrada, salida, correo interno o envío digital), 
+Cuando el Usuario se encuentra en el el “Listado de envíos” de un estado en específico, (Listado de envíos)
+ó
+Cuando el Usuario se encuentra en la pantalla de “Detalle del envío” de entrada, salida, correo interno o envío digital,  (Detalle del envío)
+Cuando haga clic en la opción "Acción" de un envío en específico,</t>
+        </is>
+      </c>
       <c r="D7" s="198" t="inlineStr">
         <is>
-          <t>TMC HU-001 Controlador Pantalla Principal Usuario Cliente</t>
-        </is>
-      </c>
-      <c r="E7" s="198" t="n"/>
+          <t>1. El sistema mostrará una lista que permitirá al usuario seleccionar la “Acción” 
+●        Mensaje a cartería
+Se Activa la HU-009 Enviar Mensaje a Cartería (Acción)</t>
+        </is>
+      </c>
+      <c r="E7" s="198" t="inlineStr">
+        <is>
+          <t>Lista desplegable Acción:
+Mensaje a cartería
+Nombre del modal: 
+“Dinos como te podemos ayudar”
+Botón: enviar
+Icono: “X”</t>
+        </is>
+      </c>
       <c r="F7" s="227" t="n"/>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="6" t="n"/>
@@ -26035,8 +26832,8 @@
     <col width="106.21875" customWidth="1" style="50" min="10" max="10"/>
     <col width="6.21875" bestFit="1" customWidth="1" style="50" min="11" max="11"/>
     <col width="17.5546875" customWidth="1" style="50" min="12" max="12"/>
-    <col width="11.44140625" customWidth="1" style="50" min="13" max="16"/>
-    <col width="11.44140625" customWidth="1" style="50" min="17" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="50" min="13" max="17"/>
+    <col width="11.44140625" customWidth="1" style="50" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="44">
@@ -30490,8 +31287,8 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C7:G7"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="E3:F3"/>
@@ -30518,8 +31315,8 @@
     <col width="43.33203125" customWidth="1" style="269" min="2" max="2"/>
     <col width="98.33203125" customWidth="1" style="269" min="3" max="3"/>
     <col width="27" customWidth="1" style="269" min="4" max="4"/>
-    <col width="11.44140625" customWidth="1" style="269" min="5" max="8"/>
-    <col width="11.44140625" customWidth="1" style="269" min="9" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="269" min="5" max="9"/>
+    <col width="11.44140625" customWidth="1" style="269" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -30541,7 +31338,7 @@
       <c r="D3" s="208" t="n"/>
     </row>
     <row r="4" ht="14.4" customHeight="1" s="212">
-      <c r="B4" s="273" t="inlineStr">
+      <c r="B4" s="272" t="inlineStr">
         <is>
           <t>INSTRUCCIONES DE DILIGENCIAMIENTO DE LOS CASOS DE PRUEBA</t>
         </is>
@@ -30836,7 +31633,7 @@
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="212">
-      <c r="A24" s="272" t="inlineStr">
+      <c r="A24" s="274" t="inlineStr">
         <is>
           <t>Notas Importantes:</t>
         </is>
@@ -30861,7 +31658,7 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" s="212">
       <c r="A26" s="204" t="n"/>
-      <c r="B26" s="274" t="inlineStr">
+      <c r="B26" s="273" t="inlineStr">
         <is>
           <t>Es importante que por cada modificación del documento entre los diferentes actores se cree una nueva versión del documento y diligenciar la hoja de CONTROL DE VERSIONES</t>
         </is>
@@ -30871,7 +31668,7 @@
     </row>
     <row r="27" ht="13.5" customHeight="1" s="212">
       <c r="A27" s="204" t="n"/>
-      <c r="B27" s="274" t="inlineStr">
+      <c r="B27" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">Los datos que deben ser diligenciados en la pestaña 'DICCIONARIO', deben corresponder al código fuente del software que se va a testear. </t>
         </is>
@@ -30921,11 +31718,11 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A8:A13"/>
@@ -30957,8 +31754,8 @@
     <col width="15.5546875" customWidth="1" style="269" min="4" max="4"/>
     <col width="24.5546875" bestFit="1" customWidth="1" style="269" min="5" max="5"/>
     <col width="8.6640625" customWidth="1" style="269" min="6" max="6"/>
-    <col width="11.44140625" customWidth="1" style="269" min="7" max="10"/>
-    <col width="11.44140625" customWidth="1" style="269" min="11" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="269" min="7" max="11"/>
+    <col width="11.44140625" customWidth="1" style="269" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Archivos_imp/test.xlsx
+++ b/Archivos_imp/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HISTORIA DE USUARIO" sheetId="1" state="visible" r:id="rId1"/>
@@ -1290,14 +1290,14 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2034,7 +2034,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2178,209 +2178,206 @@
       </c>
       <c r="B7" s="152" t="inlineStr">
         <is>
-          <t>Visualizar los correos internos agrupados  por TAGS</t>
+          <t>Registrar Correo interno</t>
         </is>
       </c>
       <c r="C7" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario con el perfil “Cliente” se encuentra en el Controlador principal del cliente &gt; Envíos físicos &gt;   “Correo Interno”,</t>
+          <t>Dado que el usuario se encuentra en la pantalla principal del sistema, cuando hace clic en la Opción para crear un “Correo Interno” (Ver Pantalla principal),</t>
         </is>
       </c>
       <c r="D7" s="152" t="inlineStr">
         <is>
-          <t>Entonces el sistema:
-Mostrará un listado de “Correos internos”  agrupados en un TAG según su estado actual.
-Se mostrarán sólo los TAGs que contengan al menos un registro.
-El usuario podrá hacer clic en cualquier TAG y el sistema mostrará el listado de envíos que correspondan con el TAG seleccionado. Los tags se definen en la Tabla Estados y Tags Correo Interno - Cliente
-El usuario con perfil “Cliente” no podrá visualizar los envíos en estado “Anulado”.
-Se mostrará el conteo de envíos para cada estado, a excepción de la opción “Todos”
-En la Ruta de “Miga de pan” se mostrará el “TAG” donde se encuentra ubicado el usuario.
-En la tabla que despliega los envíos, diferenciar los estados por color.</t>
+          <t>1. El sistema deberá mostrar una nueva pantalla “Nuevo envío de correo interno” donde se podrá visualizar los campos requeridos para registrar un correo interno  (Correo Interno).
+2. Si el rol del usuario es “Back Office”, en la pantalla de “Nuevo envío de correo interno” se mostrará el campo adicional “Recogido”, el cual es un campo de selección para que el operador pueda marcar si el envío ya se encuentra en Cartería, lo que significa que NO hay que recogerlo.
+3.  Si el rol del usuario es “Cliente”,  en la pantalla de  “Nuevo envío de correo interno” No se mostrará el campo adicional “Recogido”.
+4. El “tipo de envío” para un Envío de correo interno siempre es “Correo interno”.
+5. Al documento físico el operador le puede  asignar un “Código QR” físicamente, el código QR se captura al hacer el registro del correo interno.</t>
         </is>
       </c>
       <c r="E7" s="152" t="inlineStr">
         <is>
-          <t>Estados/TAGs que visualizarán los usuarios (Registrador CI /Remitente/Destinatario) en la interfaz  del “cliente destinatario”:
-Todos
-Pte. Recoger
-En tránsito
-En custodia
-En distribución
-Entregado
-Incidencia
-Los TAGs se definen según el estado del envío así:
-Columnas a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO: Muestra el “Identificador del envío”.
-Información secundaria: 
-Código QR del envío.
-Tipo de envío:  Muestra el “Tipo de envío”.
-Información secundaria:
-“Creado”: Fecha-hora de creación del envío.
-Remitente: 
-Si el remitente es un “usuario” se muestra  el nombre + apellidos del usuario 
-Información secundaria:
-Se muestra el departamento asociado al usuario al momento de crear el envío.
-Si el remitente es un “departamento” se muestra directamente el nombre del departamento. 
-Información secundaria:
-No se muestra información secundaria.
-Formato de Recogida: Muestra el formato de recogida del envío.
-Ubicación Recogida:  Muestra la información de la ubicación del punto de entrega del remitente para la recogida. se deben mostrar los siguientes datos:
+          <t>Campos para el registro del envío:
+Datos de recogida
+Remitente
+Departamento (solo consulta)
+Formato de recogida 
+Ubicación: (solo consulta)
+Mostrar datos del punto de entrega del remitente para la recogida):
 PTOENTREGA.NOMBRE
-Información secundaria:
+PTOENTREGA.CODIGO
+EDIFICIO.NOMBRE
+PTOENTREGA.PLANTA
+PTOENTREGA.UBICACIÓN
+EDIFICIO.POBLACIÓN
+Ejemplo remitente tipo Usuario:
+Remitente: Sergi González [Dpto]
+Formato Recogida: En Bandeja
+Ubicación: [Datos del punto de entrega del Remitente] 
+Datos del destinatario
+Destinatario 
+Departamento (solo consulta)
+Formato de entrega  (solo consulta)
+Ubicación: (solo consulta)
+Mostrar datos del punto de entrega del destinatario:
+PTOENTREGA.NOMBRE
 PTOENTREGA.CODIGO
 EDIFICIO.NOMBRE
 PTOENTREGA.PLANTA
 PTOENTREGA.UBICACION
 EDIFICIO.POBLACION
-2024-07-16 se adiciona condiciones para la ubicación del remitente
-Para el punto de entrega (ubicación recogida) del remitente se debe tener en cuenta el estado actual del envío:
-Si el estado actual del envío se encuentra configurado dentro de los estados de envío que requieren que se guarde el punto de entrega del "Remitente" en las recogidas (correo interno, salidas) al momento de la asignación del estado  [Recepcionado] se debe mostrar el “punto de entrega” que se almacenó en la “Trazabilidad de estados”  que corresponda a dicho estado.  
-Si el estado actual del envío NO se encuentra configurado dentro de los estados que requieren que se guarde el punto de entrega del "Remitente" se debe mostrar el “punto de entrega” actual del Remitente.
-Nota: estos estados de envío que se configuren como que requieren almacenar el "punto de entrega" deben ser dinámicos, es decir que en cualquier momento deben poder adicionarse/quitarse estados que requieran almacenar este dato.
-Destinatario:  
-Si el destinatario es un “usuario” se muestra  el nombre + apellidos del usuario.
-Información secundaria:
-Se muestra el departamento asociado al usuario al momento de crear el envío.
-Si el destinatario es un “departamento” se muestra directamente el nombre del departamento. 
-Información secundaria:
-No se muestra información secundaria.
-Formato de Entrega: Muestra el formato de entrega del envío.
-Ubicación Entrega:  Muestra la información de la ubicación del punto de entrega del destinatario para la entrega. se deben mostrar los siguientes datos:
+Ejemplo Destinatario tipo Usuario:
+Destinatario: Tomas Borras [Dpto]
+Formato Entrega: En Bandeja
+Ubicación: [Datos del punto de entrega del Destinatario]
+Otros campos
+Código QR
+Recogido (Checkbox). Aplica para el Back Office
+Observaciones
+Botones:
+Cancelar 
+Crear envío</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" s="212">
+      <c r="A8" s="147" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B8" s="152" t="inlineStr">
+        <is>
+          <t>Guardar envío &gt; Asignación de estado inicial del envío según check de “Recogido”</t>
+        </is>
+      </c>
+      <c r="C8" s="152" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la interfaz de registro de “Correo Interno”,  cuando el diligencie los campos y presione el botón “Crear envío” o  "Crear y Agregar Otro",</t>
+        </is>
+      </c>
+      <c r="D8" s="152" t="inlineStr">
+        <is>
+          <t>1. Si el campo “Recogido” NO está marcado,  significa  que el envío debe recogerse por cartería (“En mano” o “En punto de entrega”) o que el remitente lo debe depositar en cartería (“En cartería”), en este caso se asigna el estado del envío a “Pte. de recoger”  (Ver Flujo Estados Correo Interno).
+2. En caso contrario, si el campo “Recogido” está marcado,  significa  que el envío ya se encuentra en cartería. Entonces, el sistema almacena el estado inicial del envío correspondiente a “Recepcionado”, y automáticamente se continúa el flujo dependiendo de la “Regla de envío” configurada para el tipo de ítem y el destinatario del envío (departamento / departamento del usuario)</t>
+        </is>
+      </c>
+      <c r="E8" s="152" t="inlineStr">
+        <is>
+          <t>Botón Crear envío</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1" s="212">
+      <c r="A9" s="147" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B9" s="152" t="inlineStr">
+        <is>
+          <t>Guardar envío &gt; Se define el “Estado del envío” dependiendo del destinatario (departamento/departamento del usuario)  y el Tipo de envío.</t>
+        </is>
+      </c>
+      <c r="C9" s="152" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la interfaz de registro de “Correo Interno”,  cuando el diligencie los campos y presione el botón “Crear envío” o  "Crear y Agregar Otro",</t>
+        </is>
+      </c>
+      <c r="D9" s="152" t="inlineStr">
+        <is>
+          <t>Si el campo “Recogido” NO está marcado (el envío no debe recogerse por cartería) y dependiendo del Tipo de envío y el destinatario (departamento / departamento del usuario) elegidos al crear el correo interno, el sistema obtendrá la “Regla del Envío” correspondiente a correo interno (HU-080 Configuración de Reglas de ítem)  donde el sistema automáticamente valida:
+Si  el destinatario es de otro operativo (edificio de otra cartería ), entonces: 
+El envío pasa a estado de “Pte. Reexpedir" y sigue el flujo de correo interno (Ver Flujo Estados Correo Interno)
+Si el destinatario no es de otro operativo, entonces:
+Se definirá el flujo a llevar a cabo para la entrega del envío, de acuerdo al flujo que aplique se asignará el nuevo estado del envío  (Ver Flujo Estados Correo Interno).
+Si el destinatario es un “Usuario” se tiene en cuenta el “punto de entrega” definido por el propio usuario.
+Si el destinatario es un “Departamento” será el “punto de entrega” definido para ese departamento.</t>
+        </is>
+      </c>
+      <c r="E9" s="152" t="inlineStr">
+        <is>
+          <t>Botón Crear envío</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="14.4" customHeight="1" s="212">
+      <c r="A10" s="147" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B10" s="152" t="inlineStr">
+        <is>
+          <t>Guardar envío &gt; 
+Aceptar proceso de crear correo interno</t>
+        </is>
+      </c>
+      <c r="C10" s="152" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la interfaz de registro de “Correo Interno”,  cuando el diligencie los campos y presione el botón “Crear envío” o  "Crear y Agregar Otro",</t>
+        </is>
+      </c>
+      <c r="D10" s="152" t="inlineStr">
+        <is>
+          <t>El sistema debe asegurar que:
+Se cumpla con todas las validaciones de la tabla “Detalle de Campos”.
+No se viola la integridad de la información.
+En caso que:
+Se cumpla con todas las validaciones, el sistema debe permitir guardar la información en la Base de Datos.
+A. El sistema debe guardar los siguientes campos de forma automática:
+Identificador GIO: Este campo debe ser único, autoincremental  y no se debe repetir para otro registro dentro del mismo Partner.
+Fecha y hora de creación: fecha y hora de creación del envío. Se debe almacenar/mostrar la correspondiente a la población del operativo que tiene asignado el envío cuando se realiza la acción concreta. Se debe tener en cuenta que en varios países se cambia la hora según sea horario de verano o invierno.
+Método de generación: Medio por el cuál se registra el envío (Manual)
+Estado del envío: Se guarda automáticamente dependiendo del flujo del diagrama de correo interno (Ver Flujo Estados Correo Interno).
+Id del Perfil del usuario: Id del Perfil del usuario que registra el envío.
+Id del Nombre de Usuario (username): Id del Nombre de usuario que registra el envío. Se guardará el ID interno del usuario, no el username ya que este puede variar.
+Punto de entrega: Punto de entrega del destinatario, al momento del registro del  envío. se deben guardar los siguientes datos:
 PTOENTREGA.NOMBRE
-Información secundaria:
 PTOENTREGA.CODIGO
 EDIFICIO.NOMBRE
 PTOENTREGA.PLANTA
-PTOENTREGA.UBICACION
+PTOENTREGA.UBICACIÓN
 EDIFICIO.POBLACION
-2024-07-16 se adiciona condiciones para la ubicación del destinatario
-Para el punto de entrega (ubicación entrega) del destinatario se debe tener en cuenta el estado actual del envío:
-Si el estado actual del envío se encuentra configurado dentro de los estados de envío que requieren que se guarde el punto de entrega del "Destinatario" en las entregas (entrada, correo interno) al momento de la asignación del estado  [Extraviado, Entregado, Anulado, Archivo Definitivo, Devolución] se debe mostrar el “punto de entrega” que se almacenó en la “Trazabilidad de estados”  que corresponda a dicho estado.  
-Si el estado actual del envío NO se encuentra configurado dentro de los estados que requieren que se guarde el punto de entrega del "Destinatario" se debe mostrar el “punto de entrega” actual del destinatario.
+Nota: El punto de entrega para la recogida será el que tenga el usuario en el momento en que se realice la Ronda de recogida(no impacta la presente HU).
+Formato de entrega: Se debe guardar el formato de entrega, ya que la regla del envío puede cambiar o eliminarse.
+Formato de recogida:Se debe guardar el formato de recogida, ya que la regla del envío puede cambiar o eliminarse.
+Id del departamento: 
+Id del departamento del remitente.
+ Id del departamento del destinatario.
+Id del Operativo: 
+Si es un envío registrado por el BackOffice: operativo al que pertenece el Back Office, hace referencia al Operativo desde el que se ha realizado la acción. Esto implica que un Back Office que tenga más de un operativo asignado deberá elegir en qué operativo va a operar al momento de iniciar sesión en el sistema.
+Si es un envío registrado por el Cliente:  Operativo que gestiona el edificio al que corresponde el punto de entrega del usuario remitente del correo interno.
+Id de la regla del envío (antes llamada regla de ítem) debe guardar toda la información de la regla de envío seleccionada, estos campos se almacenan en caso tal que la regla de envío cambie o se elimine.
+Acción según el botón seleccionado:
+Si el usuario oprime el botón "Crear Envio", el sistema informa al usuario que el "Envío se ha registrado correctamente con el ID XXXXXXXX" y dirige al usuario a la Pantalla principal del cliente o backoffice dependiendo del perfil del usuario logueado.
+Si el usuario oprime el botón "Crear y Agregar Otro", el sistema informa al usuario que el "Envío se ha registrado correctamente con el ID XXXXXXXX" y se "limpia" el formulario para permitirle al usuario registrar un nuevo Envío de correo interno, esto con el fin de que se puedan registrar varios Envíos de forma consecutiva.
+B. Trazabilidad
+El sistema automáticamente almacena la trazabilidad de los estados asignados al envío, se guarda información como:
+Fecha y hora (de la asignación del estado del envío). Se debe almacenar y mostrar la fecha/hora correspondiente a la población del operativo que tiene asignado el envío cuando se ha realizado la acción concreta. También hay que tener en cuenta que por ejemplo en muchos países se cambia la hora según sea horario de verano o invierno.
+    Nota: Lo anterior aplica a todos los eventos realizados con los envíos que supongan un cambio de estado, iniciar una ronda, etc.
+Nombre del estado asignado al envío.
+Usuario que realiza la acción que ocasiona la asignación del estado.
+Id del Perfil del usuario: Id del Perfil del usuario que registra el envío.
+Operativo:
+Si es un envío registrado por el BackOffice: operativo al que pertenece el Back Office, hace referencia al Operativo desde el que se ha realizado la acción. Esto implica que un Back Office que tenga más de un operativo asignado deberá elegir en qué operativo va a operar al momento de iniciar sesión en el sistema.
+Si es un envío registrado por el Cliente:  Operativo que gestiona el edificio al que corresponde el punto de entrega del usuario remitente del correo interno.
+2024-07-16
+2. Verificar si la trazabilidad  del estado requiere almacenar Punto de entrega
+Verificar si al almacenar la trazabilidad del estado se requiere almacenar el "Punto de entrega" teniendo en cuenta lo siguiente:
+ESTADOS_TRAZABILIDAD_PUNTO_ENTREGA_ENTREGAS: Estados de envío que requieren que se guarde el punto de entrega del "Destinatario" en las entregas (entrada, correo interno) al momento de la asignación del estado al envío.
+[Extraviado, Entregado, Anulado, Archivo Definitivo, Devolución]
+ESTADOS_TRAZABILIDAD_PUNTO_ENTREGA_RECOGIDAS: Estados que requieren que se guarde el "Punto de entrega" del "Remitente" en las recogidas (correo interno, salidas) al momento de la asignación del estado.
+[Recepcionado]
 Nota: estos estados de envío que se configuren como que requieren almacenar el "punto de entrega" deben ser dinámicos, es decir que en cualquier momento deben poder adicionarse/quitarse estados que requieran almacenar este dato.
-Estado:   Muestra el “Estado” actual del envío.
-Información secundaria:
-Fecha y hora en la que se asignó el estado del envío.
-Acciones individuales específicas: Muestra las acciones individuales específicas que podrá realizar el usuario para un envío dependiendo de su estado actual (estas acciones se especifican para cada estado en los siguientes criterios de aceptación).</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" s="212">
-      <c r="A8" s="147" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B8" s="152" t="inlineStr">
-        <is>
-          <t>Configurar columnas dinamicas</t>
-        </is>
-      </c>
-      <c r="C8" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno” de cualquier estado y desea personalizar las columnas del listado,</t>
-        </is>
-      </c>
-      <c r="D8" s="152" t="inlineStr">
-        <is>
-          <t>Los campos (columnas) que se muestran en el listado serán dinámicos, es decir, el usuario podrá configurar las columnas que desea ver o ocultar en el listado. Se activa HU-204 Configurar Columnas Dinámicas en Listados.</t>
-        </is>
-      </c>
-      <c r="E8" s="152" t="inlineStr">
-        <is>
-          <t>Botón:
-Columnas</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" s="212">
-      <c r="A9" s="147" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B9" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar “Todos” los registros de Correo interno</t>
-        </is>
-      </c>
-      <c r="C9" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno” del estado &gt; Todos,</t>
-        </is>
-      </c>
-      <c r="D9" s="152" t="inlineStr">
-        <is>
-          <t>El sistema mostrará un listado que incluirá todos los correos internos.
-En esta opción no se contempla el conteo de envíos. 
-Los envíos en estado “Entregado” que han cumplido el tiempo configurado para archivo  se verán en “Todos”, según lo definido en la HU-049 Configuración de preferencias de Archivo  (Cliente).
-En la tabla que despliega los envíos, diferenciar los estados por color.
-Los envíos en estado “Anulado” podrán ser vistos solo por el “BackOffice”, estos no se verán por el “Cliente".
-Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-049 Configuración de preferencias de Archivo  (Cliente)
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado actual del envío.
-Los envíos en estado “Extraviado” podrán ser vistos por el “Cliente” en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-Los envíos en estado “Devolución” podrán ser vistos por el “Cliente” en la sección “Todos”, estos no se verán en un estado aparte en el listado.</t>
-        </is>
-      </c>
-      <c r="E9" s="152" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (Todos los estados a excepción del estado “Anulado” )
-Acciones individuales específicas: Muestra el listado de acciones que podrá realizar el usuario dependiendo del estado del envío, por ejemplo:
-Mensaje a cartería
-Crear Incidencia (aplica para el estado diferente a incidencia) (estas acciones se especifican para cada estado en los siguientes criterios de aceptación).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" s="212">
-      <c r="A10" s="147" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B10" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar los correos internos que se encuentran en estado “Pte. Recoger”</t>
-        </is>
-      </c>
-      <c r="C10" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno” &gt; para los envíos en estado Pte. Recoger,</t>
-        </is>
-      </c>
-      <c r="D10" s="152" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará los correos internos que están en estado “Pte. Recoger” por parte de Cartería.
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “Pte. Recoger” las etiquetas o tag que verá el usuario son:
-Registrador CI: Pte. de recoger
-Remitente: Pte. de recoger
-Destinatario: Pte. de recoger</t>
+3. La trazabilidad de los estados del envío se muestra en la sección de trazabilidad del envío (HU-024 Ver Trazabilidad del Correo Interno)
+No se cumpla con al menos una validación, el sistema no debe permitir guardar la información en la Base de Datos.
+Nota: En la tabla (Estados /TAG Correo Interno) se explican los “Tags” o “Estados” de cómo se visualizará el envío en los listados tanto para los usuarios (Back Office y Cliente) origen y destino.</t>
         </is>
       </c>
       <c r="E10" s="152" t="inlineStr">
         <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (Pte. Recoger)
-Acciones individuales específicas:
-Mensaje a cartería
-Crear Incidencia</t>
+          <t>Botón “Crear envío”</t>
         </is>
       </c>
     </row>
@@ -2392,39 +2389,22 @@
       </c>
       <c r="B11" s="152" t="inlineStr">
         <is>
-          <t>Visualizar los correos internos en estado “Recepcionado”</t>
+          <t>Cancelar el proceso de registrar un correo interno</t>
         </is>
       </c>
       <c r="C11" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno” &gt; para los envíos en estado Recepcionado,</t>
+          <t>Dado que el usuario está creando un “Correo interno” (Correo Interno) y el usuario desea cerrar el modal, cuando le da clic en el botón “Cancelar”,</t>
         </is>
       </c>
       <c r="D11" s="152" t="inlineStr">
         <is>
-          <t>El sistema deberá desplegar un listado donde mostrará los correos internos en estado “Recepcionado” con sus respectivos detalles. 
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “Recepcionado” las etiquetas o tag que verá el usuario son:
-Registrador CI: En tránsito
-Remitente: En tránsito
-Destinatario: En tránsito</t>
+          <t>Al salir de un formulario en creación con cambios pendientes el sistema debe preguntar al usuario si desea salir sin guardar o permanecer en la página “¿Desea salir sin guardar los cambios?” [Aceptar] Salir sin guardar [Cancelar] Permanecer en el formulario.</t>
         </is>
       </c>
       <c r="E11" s="152" t="inlineStr">
         <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (Recepcionado)
-Acciones individuales específicas:
-Mensaje a cartería
-Crear Incidencia</t>
+          <t>Botón: Cancelar.</t>
         </is>
       </c>
     </row>
@@ -2436,41 +2416,20 @@
       </c>
       <c r="B12" s="152" t="inlineStr">
         <is>
-          <t>Visualizar los correos internos en estado “En custodia”</t>
+          <t>Cliente de cartería inmobiliaria</t>
         </is>
       </c>
       <c r="C12" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno”&gt; para los envíos en estado En custodia,</t>
+          <t>Dado que el “Usuario” está asociado a una cuenta cliente de tipo “Cartería inmobiliaria”,</t>
         </is>
       </c>
       <c r="D12" s="152" t="inlineStr">
         <is>
-          <t>El sistema deberá desplegar un listado donde mostrará los correos internos en estado  “En custodia” con sus respectivos detalles.
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “En custodia” las etiquetas o tag que verá el usuario son:
-Registrador CI: En custodia
-Remitente: En custodia
-Destinatario: En custodia</t>
-        </is>
-      </c>
-      <c r="E12" s="152" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (En Custodia)
-Acciones individuales específicas:
-Mensaje a cartería
-Crear Incidencia</t>
-        </is>
-      </c>
+          <t>En el sistema la funcionalidad de “Registrar correo interno” no debe estar  disponible para “Usuarios” que pertenecen a cuentas de tipo “Cartería inmobiliaria”.</t>
+        </is>
+      </c>
+      <c r="E12" s="152" t="n"/>
     </row>
     <row r="13" ht="14.4" customHeight="1" s="212">
       <c r="A13" s="147" t="inlineStr">
@@ -2478,43 +2437,10 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B13" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar los correos internos en estado “Pte. Distribución”</t>
-        </is>
-      </c>
-      <c r="C13" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno” &gt; para los envíos en estado Pte. Distribución,</t>
-        </is>
-      </c>
-      <c r="D13" s="150" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará los correos internos en estado  “Pte. Distribución” con sus respectivos detalles.
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “Pte. Distribución” las etiquetas o tag que verá el usuario son:
-Registrador CI: En tránsito
-Remitente: En tránsito
-Destinatario: En tránsito</t>
-        </is>
-      </c>
-      <c r="E13" s="150" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (Pte. de distribución)
-Acciones individuales específicas:
-Mensaje a cartería
-Crear Incidencia</t>
-        </is>
-      </c>
+      <c r="B13" s="148" t="n"/>
+      <c r="C13" s="148" t="n"/>
+      <c r="D13" s="150" t="n"/>
+      <c r="E13" s="150" t="n"/>
     </row>
     <row r="14" ht="14.4" customHeight="1" s="212">
       <c r="A14" s="147" t="inlineStr">
@@ -2522,43 +2448,10 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B14" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar los correos internos en estado “En distribución”</t>
-        </is>
-      </c>
-      <c r="C14" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno”&gt; para los envíos en estado  En distribución,</t>
-        </is>
-      </c>
-      <c r="D14" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará los correos internos en estado  “En distribución” con sus respectivos detalles.
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “En  Distribución” las etiquetas o tag que verá el usuario son:
-Registrador CI: En distribución
-Remitente: En distribución
-Destinatario: En distribución</t>
-        </is>
-      </c>
-      <c r="E14" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (En Distribución)
-Acciones individuales específicas:
-Mensaje a cartería
-Crear Incidencia</t>
-        </is>
-      </c>
+      <c r="B14" s="148" t="n"/>
+      <c r="C14" s="149" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
     </row>
     <row r="15" ht="14.4" customHeight="1" s="212">
       <c r="A15" s="147" t="inlineStr">
@@ -2566,45 +2459,10 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B15" s="126" t="inlineStr">
-        <is>
-          <t>Visualizar los correos internos en estado “Entregado”</t>
-        </is>
-      </c>
-      <c r="C15" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno” &gt; para los envíos en estado Entregado,</t>
-        </is>
-      </c>
-      <c r="D15" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado que mostrará los correos internos en estado “Entregado” con sus respectivos detalles. 
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “Entregado” las etiquetas o tag que verá el usuario son:
-Registrador CI: Entregado
-Remitente: Entregado
-Destinatario: Entregado
-En esta sección el sistema debe mostrar los correos internos en estado entregado que aún no han sido archivadas, de acuerdo con la configuración de Archivo establecida en la HU-049 Configuración de preferencias de Archivo  (Cliente).
-Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-049 Configuración de preferencias de Archivo  (Cliente).</t>
-        </is>
-      </c>
-      <c r="E15" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (Entregado)
-Acciones individuales específicas:
-Mensaje a cartería
-Crear Incidencia</t>
-        </is>
-      </c>
+      <c r="B15" s="126" t="n"/>
+      <c r="C15" s="149" t="n"/>
+      <c r="D15" s="32" t="n"/>
+      <c r="E15" s="32" t="n"/>
     </row>
     <row r="16" ht="14.4" customHeight="1" s="212">
       <c r="A16" s="147" t="inlineStr">
@@ -2612,43 +2470,10 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B16" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar los correos internos en estado “Pte. Reexpedir”</t>
-        </is>
-      </c>
-      <c r="C16" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno” &gt; para los envíos en estado Pte. Reexpedir,</t>
-        </is>
-      </c>
-      <c r="D16" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará los correos internos que están en estado “Pte. Reexpedir”.
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “Pte. Reexpedir” las etiquetas o tag que verá el usuario son:
-Registrador CI: En tránsito
-Remitente: En tránsito
-Destinatario: En tránsito</t>
-        </is>
-      </c>
-      <c r="E16" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (Pte. Reexpedir)
-Acciones individuales específicas:
-Mensaje a cartería
-Crear Incidencia</t>
-        </is>
-      </c>
+      <c r="B16" s="148" t="n"/>
+      <c r="C16" s="149" t="n"/>
+      <c r="D16" s="32" t="n"/>
+      <c r="E16" s="32" t="n"/>
     </row>
     <row r="17" ht="14.4" customHeight="1" s="212">
       <c r="A17" s="147" t="inlineStr">
@@ -2656,43 +2481,10 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B17" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar los correos internos en estado “Reexpedido”</t>
-        </is>
-      </c>
-      <c r="C17" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno”&gt; para los envíos en estado  Reexpedido,</t>
-        </is>
-      </c>
-      <c r="D17" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará los correos internos que están en estado “Reexpedido”.
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “Reexpedido” las etiquetas o tag que verá el usuario son:
-Registrador CI: En tránsito
-Remitente: En tránsito
-Destinatario: En tránsito</t>
-        </is>
-      </c>
-      <c r="E17" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (Reexpedido)
-Acciones individuales específicas:
-Mensaje a cartería
-Crear incidencia</t>
-        </is>
-      </c>
+      <c r="B17" s="148" t="n"/>
+      <c r="C17" s="149" t="n"/>
+      <c r="D17" s="32" t="n"/>
+      <c r="E17" s="32" t="n"/>
     </row>
     <row r="18" ht="14.4" customHeight="1" s="212">
       <c r="A18" s="147" t="inlineStr">
@@ -2700,43 +2492,10 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B18" s="126" t="inlineStr">
-        <is>
-          <t>Visualizar los correos internos en estado “Incidencia”</t>
-        </is>
-      </c>
-      <c r="C18" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra visualizando el listado de envíos de “Correo Interno” &gt; para los envíos en estado Incidencia,</t>
-        </is>
-      </c>
-      <c r="D18" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará los correos internos están en estado “Incidencia”.
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado real del envío.
-Dado que el estado del envío está en “Incidencia” las etiquetas o tag que verá el usuario son:
-Registrador CI: Incidencia
-Remitente: Incidencia
-Destinatario: Incidencia
-Para los envíos en estado “Incidencia” no se habilita la acción “Crear incidencia”.</t>
-        </is>
-      </c>
-      <c r="E18" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado (Estado actual de la última incidencia del envío)
-Acciones individuales específicas:
-Mensaje a cartería</t>
-        </is>
-      </c>
+      <c r="B18" s="126" t="n"/>
+      <c r="C18" s="149" t="n"/>
+      <c r="D18" s="32" t="n"/>
+      <c r="E18" s="32" t="n"/>
     </row>
     <row r="19" ht="14.4" customHeight="1" s="212">
       <c r="A19" s="147" t="inlineStr">
@@ -2744,21 +2503,9 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B19" s="148" t="inlineStr">
-        <is>
-          <t>Correos Internos que se encuentran en estado “Anulado”</t>
-        </is>
-      </c>
-      <c r="C19" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario "Cliente" se encuentra en la Pantalla  “Correo Interno” &gt; para los envíos en estado  Anulado,</t>
-        </is>
-      </c>
-      <c r="D19" s="32" t="inlineStr">
-        <is>
-          <t>Los correos internos con estado "Anulado" no se visualizarán en la interfaz del “Cliente”, estos envíos podrán ser vistos SOLO por el “Back Office” de cartería en el TAG “Todos”.</t>
-        </is>
-      </c>
+      <c r="B19" s="148" t="n"/>
+      <c r="C19" s="148" t="n"/>
+      <c r="D19" s="32" t="n"/>
       <c r="E19" s="32" t="n"/>
     </row>
     <row r="20">
@@ -2767,24 +2514,9 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B20" s="148" t="inlineStr">
-        <is>
-          <t>Correos Internos que se encuentran en estado “Extraviado”</t>
-        </is>
-      </c>
-      <c r="C20" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario "Cliente" se encuentra en la Pantalla  “Correo Interno” y desea ver los envíos con estado  “Extraviado”,</t>
-        </is>
-      </c>
-      <c r="D20" s="32" t="inlineStr">
-        <is>
-          <t>Los correos internos con estado "Extraviado" podrán ser vistos en la interfaz de “Cliente” de cartería en el TAG “Todos”, así:
-Registrador CI: Todos
-Remitente: Todos
-Destinatario: Todos</t>
-        </is>
-      </c>
+      <c r="B20" s="148" t="n"/>
+      <c r="C20" s="148" t="n"/>
+      <c r="D20" s="32" t="n"/>
       <c r="E20" s="32" t="n"/>
     </row>
     <row r="21">
@@ -2793,24 +2525,9 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B21" s="148" t="inlineStr">
-        <is>
-          <t>Correos Internos que se encuentran en estado “Devolución”</t>
-        </is>
-      </c>
-      <c r="C21" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario "Cliente" se encuentra en la Pantalla  “Correo Interno” y desea ver los envíos con estado “Devolución”,</t>
-        </is>
-      </c>
-      <c r="D21" s="32" t="inlineStr">
-        <is>
-          <t>Los correos internos con estado "Devolución" podrán ser vistos en la interfaz de “Cliente” de cartería en el TAG “Todos”, así:
-Registrador CI: Todos
-Remitente: Todos
-Destinatario: Todos</t>
-        </is>
-      </c>
+      <c r="B21" s="148" t="n"/>
+      <c r="C21" s="148" t="n"/>
+      <c r="D21" s="32" t="n"/>
       <c r="E21" s="32" t="n"/>
     </row>
     <row r="22">
@@ -2819,21 +2536,9 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B22" s="148" t="inlineStr">
-        <is>
-          <t>Ver detalle del envío</t>
-        </is>
-      </c>
-      <c r="C22" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno”, visualizando el listado de envíos de cualquier estado, cuando haga clic en un envío en específico,</t>
-        </is>
-      </c>
-      <c r="D22" s="32" t="inlineStr">
-        <is>
-          <t>El sistema mostrará información con el detalle del envío seleccionado. Se Activa la HU-023 Ver Detalle del Correo Interno Seleccionado</t>
-        </is>
-      </c>
+      <c r="B22" s="148" t="n"/>
+      <c r="C22" s="32" t="n"/>
+      <c r="D22" s="32" t="n"/>
       <c r="E22" s="32" t="n"/>
     </row>
     <row r="23">
@@ -2842,27 +2547,10 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B23" s="148" t="inlineStr">
-        <is>
-          <t>Acción “Mensaje a Cartería”</t>
-        </is>
-      </c>
-      <c r="C23" s="126" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno”, visualizando el listado de envíos de cualquier tag/estado, cuando haga clic en la acción “Mensaje a cartería” de un registro,</t>
-        </is>
-      </c>
-      <c r="D23" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-009 Enviar Mensaje a Cartería (Acción)</t>
-        </is>
-      </c>
-      <c r="E23" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Mensaje a cartería</t>
-        </is>
-      </c>
+      <c r="B23" s="148" t="n"/>
+      <c r="C23" s="126" t="n"/>
+      <c r="D23" s="32" t="n"/>
+      <c r="E23" s="32" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="147" t="inlineStr">
@@ -2870,27 +2558,10 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B24" s="148" t="inlineStr">
-        <is>
-          <t>Acción “Crear incidencia”</t>
-        </is>
-      </c>
-      <c r="C24" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno”, visualizando el Listado de envíos de cualquier tag/estado (excepto incidencias), cuando presione sobre la acción “Crear incidencia”,</t>
-        </is>
-      </c>
-      <c r="D24" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-011 Crear Incidencia</t>
-        </is>
-      </c>
-      <c r="E24" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Crear Incidencia</t>
-        </is>
-      </c>
+      <c r="B24" s="148" t="n"/>
+      <c r="C24" s="32" t="n"/>
+      <c r="D24" s="32" t="n"/>
+      <c r="E24" s="32" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="147" t="inlineStr">
@@ -2898,33 +2569,10 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B25" s="148" t="inlineStr">
-        <is>
-          <t>Activar/Desactivar Celdas</t>
-        </is>
-      </c>
-      <c r="C25" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno” en cualquiera de los estados y desea visualizar más a detalle los registros de correo interno,</t>
-        </is>
-      </c>
-      <c r="D25" s="32" t="inlineStr">
-        <is>
-          <t>El sistema permitirá al usuario:
-Activar celdas:
-Al activar esta opción  el sistema expandirá la vista de la tabla para mostrar información secundaria de cada registro de correo interno que se está visualizando.
-No se requiere selección de registros específicos, la expansión aplicará a todos los registros visibles en la tabla.
-Desactivar celdas
-Activar la sección "Desactivar Celdas" para regresar a la vista inicial de la tabla. Al presionar sobre esta opción, el sistema ocultará la información secundaria y mostrará nuevamente la vista compacta de la tabla.
-El usuario continuará viendo la misma sección de la tabla que estaba visualizando antes de desactivar la expansión.</t>
-        </is>
-      </c>
-      <c r="E25" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Activar Celdas</t>
-        </is>
-      </c>
+      <c r="B25" s="148" t="n"/>
+      <c r="C25" s="32" t="n"/>
+      <c r="D25" s="32" t="n"/>
+      <c r="E25" s="32" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="147" t="inlineStr">
@@ -2932,21 +2580,9 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B26" s="148" t="inlineStr">
-        <is>
-          <t>Ver información secundaria</t>
-        </is>
-      </c>
-      <c r="C26" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno” y desea visualizar la información secundaria de un envío en específico, al pasar el cursor sobre  dicho envío,</t>
-        </is>
-      </c>
-      <c r="D26" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá expandir la vista del registro y automáticamente mostrar la información secundaria del envío.</t>
-        </is>
-      </c>
+      <c r="B26" s="148" t="n"/>
+      <c r="C26" s="32" t="n"/>
+      <c r="D26" s="32" t="n"/>
       <c r="E26" s="32" t="n"/>
     </row>
     <row r="27">
@@ -2955,42 +2591,10 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B27" s="148" t="inlineStr">
-        <is>
-          <t>Filtros tabla</t>
-        </is>
-      </c>
-      <c r="C27" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno” en cualquiera de los estados y presiona sobre Icono filtro (),</t>
-        </is>
-      </c>
-      <c r="D27" s="32" t="inlineStr">
-        <is>
-          <t>Si la sección filtrado está deshabilitada el sistema debe habilitar la sección de filtrado en la tabla. 
-Si la sección filtrado está habilitada el sistema debe deshabilitar la sección de filtrado en la tabla.</t>
-        </is>
-      </c>
-      <c r="E27" s="32" t="inlineStr">
-        <is>
-          <t>Botón
-Filtro
-Tener en cuenta que esto solo será visible cuando la sección de filtrado esté habilitada.
-Filtros:
-ID GIO
-Tipo de envío
-Remitente
-Formato de recogida
-Ubicación recogida
-Destinatario
-Formato de Entrega
-Ubicación Entrega
-Estado
-Botones:
-Borrar
-Aplicar</t>
-        </is>
-      </c>
+      <c r="B27" s="148" t="n"/>
+      <c r="C27" s="32" t="n"/>
+      <c r="D27" s="32" t="n"/>
+      <c r="E27" s="32" t="n"/>
     </row>
     <row r="28" ht="16.2" customHeight="1" s="212">
       <c r="A28" s="147" t="inlineStr">
@@ -2998,24 +2602,9 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B28" s="126" t="inlineStr">
-        <is>
-          <t>Filtros</t>
-        </is>
-      </c>
-      <c r="C28" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno” y diligencie alguno de los filtros del panel de filtrado,</t>
-        </is>
-      </c>
-      <c r="D28" s="32" t="inlineStr">
-        <is>
-          <t>Estos deben ser un campo de entrada de texto.
-El sistema solo debe permitir escribir caracteres alfanuméricos.
-Por defecto los campos deben estar vacíos.
-Los filtros de texto por defecto deben ser del tipo "Contains" y ser indistintas las mayúsculas y las minúsculas (Case Insensitive) y a los "acentos"  (a=á=ä=à=â) (Accent Insensitive).</t>
-        </is>
-      </c>
+      <c r="B28" s="126" t="n"/>
+      <c r="C28" s="32" t="n"/>
+      <c r="D28" s="32" t="n"/>
       <c r="E28" s="32" t="n"/>
     </row>
     <row r="29" ht="16.2" customHeight="1" s="212">
@@ -3024,21 +2613,9 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B29" s="148" t="inlineStr">
-        <is>
-          <t>Filtro en campo “Estado”</t>
-        </is>
-      </c>
-      <c r="C29" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno” y ha habilitado el panel de filtrar,  y desee ver los registros por estado,</t>
-        </is>
-      </c>
-      <c r="D29" s="32" t="inlineStr">
-        <is>
-          <t>Por defecto el filtro estará establecido de acuerdo al estado que el usuario ha seleccionado para la visualización del listado y el usuario NO podrá seleccionar ningún otro estado para filtrar.</t>
-        </is>
-      </c>
+      <c r="B29" s="148" t="n"/>
+      <c r="C29" s="32" t="n"/>
+      <c r="D29" s="32" t="n"/>
       <c r="E29" s="32" t="n"/>
     </row>
     <row r="30" ht="16.2" customHeight="1" s="212">
@@ -3047,28 +2624,10 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B30" s="148" t="inlineStr">
-        <is>
-          <t>Aplicar filtros</t>
-        </is>
-      </c>
-      <c r="C30" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno”  y ha habilitado el panel de filtrar, al  dar clic en el botón “Aplicar”,</t>
-        </is>
-      </c>
-      <c r="D30" s="32" t="inlineStr">
-        <is>
-          <t>El sistema debe mostrar en la tabla los registros.
-Al no encontrar registros debe aparecer el mensaje “No existen registros” en la tabla.</t>
-        </is>
-      </c>
-      <c r="E30" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Aplicar</t>
-        </is>
-      </c>
+      <c r="B30" s="148" t="n"/>
+      <c r="C30" s="32" t="n"/>
+      <c r="D30" s="32" t="n"/>
+      <c r="E30" s="32" t="n"/>
     </row>
     <row r="31" ht="16.2" customHeight="1" s="212">
       <c r="A31" s="147" t="inlineStr">
@@ -3076,28 +2635,10 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B31" s="148" t="inlineStr">
-        <is>
-          <t>Limpiar filtros</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno” y ha habilitado el panel de filtrar, al  dar clic en el botón “Borrar” o deshabilita la sección de filtrado,</t>
-        </is>
-      </c>
-      <c r="D31" s="32" t="inlineStr">
-        <is>
-          <t>El sistema debe regresar todos los filtros a su estado por defecto.
-En la tabla deben aparecer todos los registros.</t>
-        </is>
-      </c>
-      <c r="E31" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Borrar</t>
-        </is>
-      </c>
+      <c r="B31" s="148" t="n"/>
+      <c r="C31" s="32" t="n"/>
+      <c r="D31" s="32" t="n"/>
+      <c r="E31" s="32" t="n"/>
     </row>
     <row r="32" ht="16.2" customHeight="1" s="212">
       <c r="A32" s="147" t="inlineStr">
@@ -3105,31 +2646,10 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B32" s="148" t="inlineStr">
-        <is>
-          <t>Nuevo envío</t>
-        </is>
-      </c>
-      <c r="C32" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno” y desea registrar un nuevo envío, al presionar sobre el botón “Nuevo envío”,</t>
-        </is>
-      </c>
-      <c r="D32" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá mostrar un menú desplegable con las siguientes opciones:
-Nueva Salida
-Se activa HU-015	Registrar salida
-Nuevo correo interno
-Se Activa HU-020 Registrar Correo Interno</t>
-        </is>
-      </c>
-      <c r="E32" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Nuevo envío</t>
-        </is>
-      </c>
+      <c r="B32" s="148" t="n"/>
+      <c r="C32" s="32" t="n"/>
+      <c r="D32" s="32" t="n"/>
+      <c r="E32" s="32" t="n"/>
     </row>
     <row r="33" ht="16.2" customHeight="1" s="212">
       <c r="A33" s="147" t="inlineStr">
@@ -3137,27 +2657,10 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B33" s="148" t="inlineStr">
-        <is>
-          <t>Exportar información</t>
-        </is>
-      </c>
-      <c r="C33" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno” y desea exportar la información visualizada, cuando hace clic en la opción “Acciones de datos” &gt; “Exportar”</t>
-        </is>
-      </c>
-      <c r="D33" s="148" t="inlineStr">
-        <is>
-          <t>El sistema permitirá exportar la información del listado teniendo en cuenta los filtros que se hayan aplicado. Se activa HU-056 Exportación de datos</t>
-        </is>
-      </c>
-      <c r="E33" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Exportar</t>
-        </is>
-      </c>
+      <c r="B33" s="148" t="n"/>
+      <c r="C33" s="148" t="n"/>
+      <c r="D33" s="148" t="n"/>
+      <c r="E33" s="32" t="n"/>
     </row>
     <row r="34" ht="16.2" customHeight="1" s="212">
       <c r="A34" s="147" t="inlineStr">
@@ -3165,22 +2668,9 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B34" s="148" t="inlineStr">
-        <is>
-          <t>Paginado y Desplazamiento en Listados</t>
-        </is>
-      </c>
-      <c r="C34" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Envíos Físicos &gt; Correo Interno”  se busca mejorar la visualización de listados en cada estado, cuando el usuario acceda a cualquier lista de estados,</t>
-        </is>
-      </c>
-      <c r="D34" s="32" t="inlineStr">
-        <is>
-          <t>Si la totalidad de los registros no alcanzan a mostrarse en pantalla, la información se mostrará paginada y con barras de desplazamiento. 
-Se activa HU-098  (Paginado de tablas).</t>
-        </is>
-      </c>
+      <c r="B34" s="148" t="n"/>
+      <c r="C34" s="32" t="n"/>
+      <c r="D34" s="32" t="n"/>
       <c r="E34" s="150" t="n"/>
     </row>
     <row r="35" ht="16.2" customHeight="1" s="212">
@@ -16740,7 +16230,7 @@
       <c r="CV127" s="122" t="n"/>
       <c r="CW127" s="122" t="n"/>
     </row>
-    <row r="128">
+    <row r="128" ht="57.6" customHeight="1" s="212">
       <c r="A128" s="99" t="inlineStr">
         <is>
           <t>TITULOS DE LOS PASOS</t>
@@ -17770,8 +17260,8 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="BD11:BD12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="BV11:BV12"/>
     <mergeCell ref="BG11:BG12"/>
     <mergeCell ref="BE11:BE12"/>
@@ -17799,7 +17289,7 @@
   </sheetPr>
   <dimension ref="A1:AT731"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -17838,8 +17328,8 @@
     <col width="24.33203125" customWidth="1" style="224" min="40" max="40"/>
     <col width="11.44140625" customWidth="1" style="5" min="41" max="41"/>
     <col width="19.21875" customWidth="1" style="5" min="42" max="42"/>
-    <col width="11.44140625" customWidth="1" style="5" min="43" max="46"/>
-    <col width="11.44140625" customWidth="1" style="5" min="47" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="5" min="43" max="49"/>
+    <col width="11.44140625" customWidth="1" style="5" min="50" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="212">
@@ -26656,8 +26146,8 @@
     <col width="106.21875" customWidth="1" style="50" min="10" max="10"/>
     <col width="6.21875" bestFit="1" customWidth="1" style="50" min="11" max="11"/>
     <col width="17.5546875" customWidth="1" style="50" min="12" max="12"/>
-    <col width="11.44140625" customWidth="1" style="50" min="13" max="16"/>
-    <col width="11.44140625" customWidth="1" style="50" min="17" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="50" min="13" max="19"/>
+    <col width="11.44140625" customWidth="1" style="50" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="44">
@@ -31111,8 +30601,8 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C7:G7"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="E3:F3"/>
@@ -31139,8 +30629,8 @@
     <col width="43.33203125" customWidth="1" style="269" min="2" max="2"/>
     <col width="98.33203125" customWidth="1" style="269" min="3" max="3"/>
     <col width="27" customWidth="1" style="269" min="4" max="4"/>
-    <col width="11.44140625" customWidth="1" style="269" min="5" max="8"/>
-    <col width="11.44140625" customWidth="1" style="269" min="9" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="269" min="5" max="11"/>
+    <col width="11.44140625" customWidth="1" style="269" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31162,7 +30652,7 @@
       <c r="D3" s="208" t="n"/>
     </row>
     <row r="4" ht="14.4" customHeight="1" s="212">
-      <c r="B4" s="273" t="inlineStr">
+      <c r="B4" s="272" t="inlineStr">
         <is>
           <t>INSTRUCCIONES DE DILIGENCIAMIENTO DE LOS CASOS DE PRUEBA</t>
         </is>
@@ -31457,7 +30947,7 @@
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="212">
-      <c r="A24" s="272" t="inlineStr">
+      <c r="A24" s="274" t="inlineStr">
         <is>
           <t>Notas Importantes:</t>
         </is>
@@ -31482,7 +30972,7 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" s="212">
       <c r="A26" s="204" t="n"/>
-      <c r="B26" s="274" t="inlineStr">
+      <c r="B26" s="273" t="inlineStr">
         <is>
           <t>Es importante que por cada modificación del documento entre los diferentes actores se cree una nueva versión del documento y diligenciar la hoja de CONTROL DE VERSIONES</t>
         </is>
@@ -31492,7 +30982,7 @@
     </row>
     <row r="27" ht="13.5" customHeight="1" s="212">
       <c r="A27" s="204" t="n"/>
-      <c r="B27" s="274" t="inlineStr">
+      <c r="B27" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">Los datos que deben ser diligenciados en la pestaña 'DICCIONARIO', deben corresponder al código fuente del software que se va a testear. </t>
         </is>
@@ -31542,11 +31032,11 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A8:A13"/>
@@ -31578,8 +31068,8 @@
     <col width="15.5546875" customWidth="1" style="269" min="4" max="4"/>
     <col width="24.5546875" bestFit="1" customWidth="1" style="269" min="5" max="5"/>
     <col width="8.6640625" customWidth="1" style="269" min="6" max="6"/>
-    <col width="11.44140625" customWidth="1" style="269" min="7" max="10"/>
-    <col width="11.44140625" customWidth="1" style="269" min="11" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="269" min="7" max="13"/>
+    <col width="11.44140625" customWidth="1" style="269" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Archivos_imp/test.xlsx
+++ b/Archivos_imp/test.xlsx
@@ -2034,7 +2034,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2178,65 +2178,65 @@
       </c>
       <c r="B7" s="152" t="inlineStr">
         <is>
-          <t>Registrar Correo interno</t>
+          <t>Visualizar las entradas agrupadas por estado</t>
         </is>
       </c>
       <c r="C7" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario se encuentra en la pantalla principal del sistema, cuando hace clic en la Opción para crear un “Correo Interno” (Ver Pantalla principal),</t>
+          <t>Dado que el usuario se encuentra en el Controlador principal del BackOffice &gt; Módulo Cartería Inteligente &gt; Envíos físicos &gt; “Entradas - BackOffice”</t>
         </is>
       </c>
       <c r="D7" s="152" t="inlineStr">
         <is>
-          <t>1. El sistema deberá mostrar una nueva pantalla “Nuevo envío de correo interno” donde se podrá visualizar los campos requeridos para registrar un correo interno  (Correo Interno).
-2. Si el rol del usuario es “Back Office”, en la pantalla de “Nuevo envío de correo interno” se mostrará el campo adicional “Recogido”, el cual es un campo de selección para que el operador pueda marcar si el envío ya se encuentra en Cartería, lo que significa que NO hay que recogerlo.
-3.  Si el rol del usuario es “Cliente”,  en la pantalla de  “Nuevo envío de correo interno” No se mostrará el campo adicional “Recogido”.
-4. El “tipo de envío” para un Envío de correo interno siempre es “Correo interno”.
-5. Al documento físico el operador le puede  asignar un “Código QR” físicamente, el código QR se captura al hacer el registro del correo interno.</t>
+          <t>Entonces el sistema:
+Mostrará un listado de “Entradas - BackOffice”  agrupadas mediante un TAG teniendo en cuenta el estado actual del envío. Ver (Tags/Estados entradas)
+Se mostrarán sólo los TAGS que contengan al menos un registro.
+El usuario podrá hacer clic en cualquier estado y el sistema mostrará el listado de envíos que correspondan con el estado seleccionado.
+Para cada TAG se mostrará el conteo de envíos, a excepción de la opción “Todos”.
+En la Ruta de “Miga de pan” se mostrará el TAG donde se encuentra ubicado el usuario.
+En la tabla que despliega los envíos, diferenciar los estados por color.
+Cada envío que se muestre en el listado debe tener opción de selección.
+Dependiendo del estado seleccionado  se mostrarán las acciones disponibles a realizar por el BackOffice. (Ver Acciones envíos de salida).
+La acción “Finalizar ronda” No es una acción que se ejecuta desde la pantalla principal del BackOffice en GIO, es una acción que se dispone y ejecuta desde el dispositivo usado en el proceso de Rondas (recogida y entrega).
+En la “Barra dinámica superior” se debe habilitar la acción Global “Leer Código QR”, que permite leer el QR de uno o más envíos y mostrar información relevante del envío. Se activa la  HU-133	Consulta de envíos por Código QR
+La acción “Leer Código QR” es global y siempre estará activa, independiente del tipo de servicio seleccionado (entrada, salida, correo interno) e independiente del estado seleccionado.</t>
         </is>
       </c>
       <c r="E7" s="152" t="inlineStr">
         <is>
-          <t>Campos para el registro del envío:
-Datos de recogida
-Remitente
-Departamento (solo consulta)
-Formato de recogida 
-Ubicación: (solo consulta)
-Mostrar datos del punto de entrega del remitente para la recogida):
+          <t>Los TAGs que se visualizará en el menú lateral izquierdo se definen según el estado del envío, así:
+Columnas a mostrar por defecto en cada listado (si el usuario no ha personalizado los campos a mostrar):
+ID GIO: Muestra el “Identificador del envío”.
+Información secundaria: 
+Código QR del envío.
+Tipo de envío:  Muestra el “Tipo de envío”.
+Información secundaria:
+“Creado”: Fecha-hora de creación del envío.
+Remitente: Muestra la información del campo “Remitente” de la entrada.
+Información secundaria: 
+Persona
+Ubicación
+Destinatario:   Cuando el destinatario es un “usuario” muestra  el “Nombre + apellidos” o cuando el destinatario es un “departamento” muestra el “Nombre del Departamento”.
+Información secundaria:
+Nombre del Departamento: cuando el destinatario es un “usuario”, de lo contrario no muestra información.
+Formato de entrega: Muestra el formato de entrega del envío.
+Ubicación: Muestra la información de la ubicación del punto de entrega del destinatario configurado para la entrega. Se deben mostrar los siguientes datos:
 PTOENTREGA.NOMBRE
-PTOENTREGA.CODIGO
-EDIFICIO.NOMBRE
-PTOENTREGA.PLANTA
-PTOENTREGA.UBICACIÓN
-EDIFICIO.POBLACIÓN
-Ejemplo remitente tipo Usuario:
-Remitente: Sergi González [Dpto]
-Formato Recogida: En Bandeja
-Ubicación: [Datos del punto de entrega del Remitente] 
-Datos del destinatario
-Destinatario 
-Departamento (solo consulta)
-Formato de entrega  (solo consulta)
-Ubicación: (solo consulta)
-Mostrar datos del punto de entrega del destinatario:
-PTOENTREGA.NOMBRE
+Información secundaria:
 PTOENTREGA.CODIGO
 EDIFICIO.NOMBRE
 PTOENTREGA.PLANTA
 PTOENTREGA.UBICACION
 EDIFICIO.POBLACION
-Ejemplo Destinatario tipo Usuario:
-Destinatario: Tomas Borras [Dpto]
-Formato Entrega: En Bandeja
-Ubicación: [Datos del punto de entrega del Destinatario]
-Otros campos
-Código QR
-Recogido (Checkbox). Aplica para el Back Office
-Observaciones
-Botones:
-Cancelar 
-Crear envío</t>
+2024-07-16 se adiciona condiciones para la ubicación del destinatario
+Para el punto de entrega (ubicación) del destinatario se debe tener en cuenta el estado actual del envío:
+Si el estado actual del envío se encuentra configurado dentro de los estados de envío que requieren que se guarde el punto de entrega del "Destinatario" en las entregas (entrada, correo interno) al momento de la asignación del estado  [Extraviado, Entregado, Anulado, Archivo Definitivo, Devolución] se debe mostrar el “punto de entrega” que se almacenó en la “Trazabilidad de estados”  que corresponda a dicho estado.  
+Si el estado actual del envío NO se encuentra configurado dentro de los estados que requieren que se guarde el punto de entrega del "Destinatario" se debe mostrar el “punto de entrega” actual del destinatario.
+Nota: estos estados de envío que se configuren como que requieren almacenar el "punto de entrega" deben ser dinámicos, es decir que en cualquier momento deben poder adicionarse/quitarse estados que requieran almacenar este dato. Los estados a tener en cuenta son los configurados para el módulo de cartería inteligente.
+Estado: Muestra el “Estado” actual del envío.
+En información secundaria muestra:
+Fecha y hora en la que se asignó el estado del envío.
+Acción: Muestra las acciones individuales que podrá realizar el usuario dependiendo del estado del envío.</t>
         </is>
       </c>
     </row>
@@ -2248,23 +2248,23 @@
       </c>
       <c r="B8" s="152" t="inlineStr">
         <is>
-          <t>Guardar envío &gt; Asignación de estado inicial del envío según check de “Recogido”</t>
+          <t>Configurar columnas dinamicas</t>
         </is>
       </c>
       <c r="C8" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario se encuentra en la interfaz de registro de “Correo Interno”,  cuando el diligencie los campos y presione el botón “Crear envío” o  "Crear y Agregar Otro",</t>
+          <t>Dado que el usuario se encuentra en la Pantalla “Entradas - BackOffice” sobre cualquier estados y desea personalizar las columnas del listado al presionar sobre el botón “Columnas”,</t>
         </is>
       </c>
       <c r="D8" s="152" t="inlineStr">
         <is>
-          <t>1. Si el campo “Recogido” NO está marcado,  significa  que el envío debe recogerse por cartería (“En mano” o “En punto de entrega”) o que el remitente lo debe depositar en cartería (“En cartería”), en este caso se asigna el estado del envío a “Pte. de recoger”  (Ver Flujo Estados Correo Interno).
-2. En caso contrario, si el campo “Recogido” está marcado,  significa  que el envío ya se encuentra en cartería. Entonces, el sistema almacena el estado inicial del envío correspondiente a “Recepcionado”, y automáticamente se continúa el flujo dependiendo de la “Regla de envío” configurada para el tipo de ítem y el destinatario del envío (departamento / departamento del usuario)</t>
+          <t>Los campos (columnas) que se muestran en el listado serán dinámicos, es decir, el usuario podrá configurar las columnas que desea ver o ocultar en el listado. Se activa HU-204 Configurar Columnas Dinámicas en Listados.</t>
         </is>
       </c>
       <c r="E8" s="152" t="inlineStr">
         <is>
-          <t>Botón Crear envío</t>
+          <t>Botón:
+Columnas</t>
         </is>
       </c>
     </row>
@@ -2276,28 +2276,37 @@
       </c>
       <c r="B9" s="152" t="inlineStr">
         <is>
-          <t>Guardar envío &gt; Se define el “Estado del envío” dependiendo del destinatario (departamento/departamento del usuario)  y el Tipo de envío.</t>
+          <t>Visualizar “Todos” los registros de entradas</t>
         </is>
       </c>
       <c r="C9" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario se encuentra en la interfaz de registro de “Correo Interno”,  cuando el diligencie los campos y presione el botón “Crear envío” o  "Crear y Agregar Otro",</t>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt;  Todos</t>
         </is>
       </c>
       <c r="D9" s="152" t="inlineStr">
         <is>
-          <t>Si el campo “Recogido” NO está marcado (el envío no debe recogerse por cartería) y dependiendo del Tipo de envío y el destinatario (departamento / departamento del usuario) elegidos al crear el correo interno, el sistema obtendrá la “Regla del Envío” correspondiente a correo interno (HU-080 Configuración de Reglas de ítem)  donde el sistema automáticamente valida:
-Si  el destinatario es de otro operativo (edificio de otra cartería ), entonces: 
-El envío pasa a estado de “Pte. Reexpedir" y sigue el flujo de correo interno (Ver Flujo Estados Correo Interno)
-Si el destinatario no es de otro operativo, entonces:
-Se definirá el flujo a llevar a cabo para la entrega del envío, de acuerdo al flujo que aplique se asignará el nuevo estado del envío  (Ver Flujo Estados Correo Interno).
-Si el destinatario es un “Usuario” se tiene en cuenta el “punto de entrega” definido por el propio usuario.
-Si el destinatario es un “Departamento” será el “punto de entrega” definido para ese departamento.</t>
+          <t>El sistema mostrará un listado que incluirá todas las entradas.
+En esta opción no se contempla el conteo de envíos. 
+Los envíos en estado “Entregado” que han cumplido el tiempo configurado para archivo  se verán en “Todos”, según lo definido en la HU-130	Configuración de preferencias de Archivo  (Back Office).
+En la tabla que despliega los envíos, diferenciar los estados por color.
+Los envíos en estado “Anulado” podrán ser vistos por el “BackOffice” de cartería en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-130	Configuración de preferencias de Archivo  (Back Office).
+En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado actual del envío.
+Los envíos en estado “Extraviado” podrán ser vistos por el “BackOffice” en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+Los envíos en estado “Devolución” podrán ser vistos por el “BackOffice” en la sección “Todos”, estos no se verán en un estado aparte en el listado.</t>
         </is>
       </c>
       <c r="E9" s="152" t="inlineStr">
         <is>
-          <t>Botón Crear envío</t>
+          <t>ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Todos los estados disponibles)
+Acciones individuales específicas</t>
         </is>
       </c>
     </row>
@@ -2309,75 +2318,37 @@
       </c>
       <c r="B10" s="152" t="inlineStr">
         <is>
-          <t>Guardar envío &gt; 
-Aceptar proceso de crear correo interno</t>
+          <t>Visualizar las entradas en estado “Recepcionado”</t>
         </is>
       </c>
       <c r="C10" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario se encuentra en la interfaz de registro de “Correo Interno”,  cuando el diligencie los campos y presione el botón “Crear envío” o  "Crear y Agregar Otro",</t>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Recepcionado</t>
         </is>
       </c>
       <c r="D10" s="152" t="inlineStr">
         <is>
-          <t>El sistema debe asegurar que:
-Se cumpla con todas las validaciones de la tabla “Detalle de Campos”.
-No se viola la integridad de la información.
-En caso que:
-Se cumpla con todas las validaciones, el sistema debe permitir guardar la información en la Base de Datos.
-A. El sistema debe guardar los siguientes campos de forma automática:
-Identificador GIO: Este campo debe ser único, autoincremental  y no se debe repetir para otro registro dentro del mismo Partner.
-Fecha y hora de creación: fecha y hora de creación del envío. Se debe almacenar/mostrar la correspondiente a la población del operativo que tiene asignado el envío cuando se realiza la acción concreta. Se debe tener en cuenta que en varios países se cambia la hora según sea horario de verano o invierno.
-Método de generación: Medio por el cuál se registra el envío (Manual)
-Estado del envío: Se guarda automáticamente dependiendo del flujo del diagrama de correo interno (Ver Flujo Estados Correo Interno).
-Id del Perfil del usuario: Id del Perfil del usuario que registra el envío.
-Id del Nombre de Usuario (username): Id del Nombre de usuario que registra el envío. Se guardará el ID interno del usuario, no el username ya que este puede variar.
-Punto de entrega: Punto de entrega del destinatario, al momento del registro del  envío. se deben guardar los siguientes datos:
-PTOENTREGA.NOMBRE
-PTOENTREGA.CODIGO
-EDIFICIO.NOMBRE
-PTOENTREGA.PLANTA
-PTOENTREGA.UBICACIÓN
-EDIFICIO.POBLACION
-Nota: El punto de entrega para la recogida será el que tenga el usuario en el momento en que se realice la Ronda de recogida(no impacta la presente HU).
-Formato de entrega: Se debe guardar el formato de entrega, ya que la regla del envío puede cambiar o eliminarse.
-Formato de recogida:Se debe guardar el formato de recogida, ya que la regla del envío puede cambiar o eliminarse.
-Id del departamento: 
-Id del departamento del remitente.
- Id del departamento del destinatario.
-Id del Operativo: 
-Si es un envío registrado por el BackOffice: operativo al que pertenece el Back Office, hace referencia al Operativo desde el que se ha realizado la acción. Esto implica que un Back Office que tenga más de un operativo asignado deberá elegir en qué operativo va a operar al momento de iniciar sesión en el sistema.
-Si es un envío registrado por el Cliente:  Operativo que gestiona el edificio al que corresponde el punto de entrega del usuario remitente del correo interno.
-Id de la regla del envío (antes llamada regla de ítem) debe guardar toda la información de la regla de envío seleccionada, estos campos se almacenan en caso tal que la regla de envío cambie o se elimine.
-Acción según el botón seleccionado:
-Si el usuario oprime el botón "Crear Envio", el sistema informa al usuario que el "Envío se ha registrado correctamente con el ID XXXXXXXX" y dirige al usuario a la Pantalla principal del cliente o backoffice dependiendo del perfil del usuario logueado.
-Si el usuario oprime el botón "Crear y Agregar Otro", el sistema informa al usuario que el "Envío se ha registrado correctamente con el ID XXXXXXXX" y se "limpia" el formulario para permitirle al usuario registrar un nuevo Envío de correo interno, esto con el fin de que se puedan registrar varios Envíos de forma consecutiva.
-B. Trazabilidad
-El sistema automáticamente almacena la trazabilidad de los estados asignados al envío, se guarda información como:
-Fecha y hora (de la asignación del estado del envío). Se debe almacenar y mostrar la fecha/hora correspondiente a la población del operativo que tiene asignado el envío cuando se ha realizado la acción concreta. También hay que tener en cuenta que por ejemplo en muchos países se cambia la hora según sea horario de verano o invierno.
-    Nota: Lo anterior aplica a todos los eventos realizados con los envíos que supongan un cambio de estado, iniciar una ronda, etc.
-Nombre del estado asignado al envío.
-Usuario que realiza la acción que ocasiona la asignación del estado.
-Id del Perfil del usuario: Id del Perfil del usuario que registra el envío.
-Operativo:
-Si es un envío registrado por el BackOffice: operativo al que pertenece el Back Office, hace referencia al Operativo desde el que se ha realizado la acción. Esto implica que un Back Office que tenga más de un operativo asignado deberá elegir en qué operativo va a operar al momento de iniciar sesión en el sistema.
-Si es un envío registrado por el Cliente:  Operativo que gestiona el edificio al que corresponde el punto de entrega del usuario remitente del correo interno.
-2024-07-16
-2. Verificar si la trazabilidad  del estado requiere almacenar Punto de entrega
-Verificar si al almacenar la trazabilidad del estado se requiere almacenar el "Punto de entrega" teniendo en cuenta lo siguiente:
-ESTADOS_TRAZABILIDAD_PUNTO_ENTREGA_ENTREGAS: Estados de envío que requieren que se guarde el punto de entrega del "Destinatario" en las entregas (entrada, correo interno) al momento de la asignación del estado al envío.
-[Extraviado, Entregado, Anulado, Archivo Definitivo, Devolución]
-ESTADOS_TRAZABILIDAD_PUNTO_ENTREGA_RECOGIDAS: Estados que requieren que se guarde el "Punto de entrega" del "Remitente" en las recogidas (correo interno, salidas) al momento de la asignación del estado.
-[Recepcionado]
-Nota: estos estados de envío que se configuren como que requieren almacenar el "punto de entrega" deben ser dinámicos, es decir que en cualquier momento deben poder adicionarse/quitarse estados que requieran almacenar este dato.
-3. La trazabilidad de los estados del envío se muestra en la sección de trazabilidad del envío (HU-024 Ver Trazabilidad del Correo Interno)
-No se cumpla con al menos una validación, el sistema no debe permitir guardar la información en la Base de Datos.
-Nota: En la tabla (Estados /TAG Correo Interno) se explican los “Tags” o “Estados” de cómo se visualizará el envío en los listados tanto para los usuarios (Back Office y Cliente) origen y destino.</t>
+          <t>El sistema deberá desplegar un listado donde mostrará las entradas con estado “Recepcionado” con sus respectivos detalles. Aunque este estado es instantáneo, se incluye porque, en algunos casos, una entrada puede presentar errores en su proceso de recepción, impidiendo que continúe con el flujo.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: RECEPCIONADO mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, RECEPCIONADO una vez el envío se ha incorporado en el operativo de destino.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
         </is>
       </c>
       <c r="E10" s="152" t="inlineStr">
         <is>
-          <t>Botón “Crear envío”</t>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Recepcionado)
+Acciones individuales específicas</t>
         </is>
       </c>
     </row>
@@ -2389,22 +2360,48 @@
       </c>
       <c r="B11" s="152" t="inlineStr">
         <is>
-          <t>Cancelar el proceso de registrar un correo interno</t>
+          <t>Visualizar las entradas “En custodia”</t>
         </is>
       </c>
       <c r="C11" s="152" t="inlineStr">
         <is>
-          <t>Dado que el usuario está creando un “Correo interno” (Correo Interno) y el usuario desea cerrar el modal, cuando le da clic en el botón “Cancelar”,</t>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    En custodia</t>
         </is>
       </c>
       <c r="D11" s="152" t="inlineStr">
         <is>
-          <t>Al salir de un formulario en creación con cambios pendientes el sistema debe preguntar al usuario si desea salir sin guardar o permanecer en la página “¿Desea salir sin guardar los cambios?” [Aceptar] Salir sin guardar [Cancelar] Permanecer en el formulario.</t>
+          <t>El usuario podrá visualizar estas entradas en el TAG "En custodia", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: EN CUSTODIA mientras el envío no se ha reexpedido.
+Operativo de Destino: EN CUSTODIA una vez el envío se ha incorporado en el operativo de destino.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Anular envío
+Se activa HU-103	Anular envío (Acción)  (Back Office)
+Entrega en Cartería
+Se activa HU-108 Entrega en Cartería - Envíos físicos (Entradas)
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
         </is>
       </c>
       <c r="E11" s="152" t="inlineStr">
         <is>
-          <t>Botón: Cancelar.</t>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (En custodia)
+Acciones individuales específicas</t>
         </is>
       </c>
     </row>
@@ -2416,20 +2413,57 @@
       </c>
       <c r="B12" s="152" t="inlineStr">
         <is>
-          <t>Cliente de cartería inmobiliaria</t>
+          <t>Visualizar las entradas  “Pte. Distribución”</t>
         </is>
       </c>
       <c r="C12" s="152" t="inlineStr">
         <is>
-          <t>Dado que el “Usuario” está asociado a una cuenta cliente de tipo “Cartería inmobiliaria”,</t>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Pte. Distribución</t>
         </is>
       </c>
       <c r="D12" s="152" t="inlineStr">
         <is>
-          <t>En el sistema la funcionalidad de “Registrar correo interno” no debe estar  disponible para “Usuarios” que pertenecen a cuentas de tipo “Cartería inmobiliaria”.</t>
-        </is>
-      </c>
-      <c r="E12" s="152" t="n"/>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Distribución", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Los envíos con método de entrega “En mano”, en “Pto. Entrega” y en estado "Pte. Distribución" de un usuario destinatario que esté "Fuera de oficina" se deberán mostrar en un nuevo TAG "Fuera de oficina" para que el usuario no  visualice el envío junto  con los que sí se tienen que distribuir.  Los envíos con esta característica no se deben mostrar en el tag Pte. Distribución. 
+Nota: La propiedad “Fuera de Oficina” se define en las HU (HU-045 Establecer punto de entrega físico) y (HU-070 Configuración de la solución de Cartería Usuario Cliente )
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. DISTRIBUCIÓN mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. DISTRIBUCIÓN una vez el envío se ha incorporado en el operativo de destino.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Anular envío
+Se activa HU-103	Anular envío (Acción)  (Back Office)
+Entrega en Cartería
+Se activa HU-108 Entrega en Cartería - Envíos físicos (Entradas)
+Acciones Generales SIN selección de envíos
+Antes de la ejecución de la acción no es necesario que el usuario seleccione envíos.
+Acciones que se mostrarán en la Barra dinámica superior:
+Iniciar Ronda
+Permite  al BackOffice iniciar la ronda para realizar la entrega de envíos.
+Se Activa laHU-152 Iniciar Ronda de Recogida - Recogida en mano &amp; En Punto de Entrega
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
+      <c r="E12" s="152" t="inlineStr">
+        <is>
+          <t>ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Pte. Distribución)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="14.4" customHeight="1" s="212">
       <c r="A13" s="147" t="inlineStr">
@@ -2437,10 +2471,48 @@
           <t>07</t>
         </is>
       </c>
-      <c r="B13" s="148" t="n"/>
-      <c r="C13" s="148" t="n"/>
-      <c r="D13" s="150" t="n"/>
-      <c r="E13" s="150" t="n"/>
+      <c r="B13" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas  “En distribución”</t>
+        </is>
+      </c>
+      <c r="C13" s="148" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    En distribución</t>
+        </is>
+      </c>
+      <c r="D13" s="150" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Retorno circuito físico", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: EN DISTRIBUCIÓN mientras el envío no se ha reexpedido.
+Operativo de Destino: EN DISTRIBUCIÓN una vez el envío se ha incorporado en el operativo de destino.
+Acciones Generales en  Tablet
+Acción que se ejecuta en la tablet 
+Finalizar Ronda
+Permite  al BackOffice finalizar la ronda.
+Se Activa la HU-117 Finalizar ronda 
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
+        </is>
+      </c>
+      <c r="E13" s="150" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (En distribución)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="14.4" customHeight="1" s="212">
       <c r="A14" s="147" t="inlineStr">
@@ -2448,10 +2520,45 @@
           <t>08</t>
         </is>
       </c>
-      <c r="B14" s="148" t="n"/>
-      <c r="C14" s="149" t="n"/>
-      <c r="D14" s="32" t="n"/>
-      <c r="E14" s="32" t="n"/>
+      <c r="B14" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas en estado “Entregado”</t>
+        </is>
+      </c>
+      <c r="C14" s="149" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Entregado</t>
+        </is>
+      </c>
+      <c r="D14" s="32" t="inlineStr">
+        <is>
+          <t>1. El usuario podrá visualizar estas entradas en el TAG "Entregado", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: ENTREGADO mientras el envío no se ha reexpedido.
+Operativo de Destino: ENTREGADO una vez el envío se ha incorporado en el operativo de destino.
+2. En esta sección el sistema debe mostrar las entradas entregadas que aún no han sido archivadas, de acuerdo con la configuración de Archivo establecida para el usuario en la HU-130 Configuración de preferencias de Archivo  (Back Office).
+Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-130 Configuración de preferencias de Archivo  (Back Office).
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office).</t>
+        </is>
+      </c>
+      <c r="E14" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Entregado)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="14.4" customHeight="1" s="212">
       <c r="A15" s="147" t="inlineStr">
@@ -2459,10 +2566,41 @@
           <t>09</t>
         </is>
       </c>
-      <c r="B15" s="126" t="n"/>
-      <c r="C15" s="149" t="n"/>
-      <c r="D15" s="32" t="n"/>
-      <c r="E15" s="32" t="n"/>
+      <c r="B15" s="126" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas  en estado “Digitalizado”</t>
+        </is>
+      </c>
+      <c r="C15" s="149" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Digitalizado (Estado virtual)</t>
+        </is>
+      </c>
+      <c r="D15" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Digitalizado", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: DIGITALIZADO mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, DIGITALIZADO una vez el envío se ha incorporado en el operativo de destino.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
+      <c r="E15" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Digitalizado)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="14.4" customHeight="1" s="212">
       <c r="A16" s="147" t="inlineStr">
@@ -2470,10 +2608,52 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B16" s="148" t="n"/>
-      <c r="C16" s="149" t="n"/>
-      <c r="D16" s="32" t="n"/>
-      <c r="E16" s="32" t="n"/>
+      <c r="B16" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Archivo temporal”</t>
+        </is>
+      </c>
+      <c r="C16" s="149" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Archivo temporal</t>
+        </is>
+      </c>
+      <c r="D16" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Archivo temporal", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: ARCHIVO TEMPORAL mientras el envío no se ha reexpedido.
+Operativo de Destino: No aplica.
+Acciones Generales SIN selección de envíos
+Antes de la ejecución de la acción no es necesario que el usuario seleccione envíos.
+Acciones que se mostrarán en la Barra dinámica superior:
+Gestión de archivadores
+Se activa HU-141 Gestionar Archivadores  (Back Office)
+Incorporar archivo definitivo
+2024-08-14 **Se activa HU-151 Proceso de Archivo Definitivo
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
+      <c r="E16" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Archivo temporal)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="14.4" customHeight="1" s="212">
       <c r="A17" s="147" t="inlineStr">
@@ -2481,10 +2661,50 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B17" s="148" t="n"/>
-      <c r="C17" s="149" t="n"/>
-      <c r="D17" s="32" t="n"/>
-      <c r="E17" s="32" t="n"/>
+      <c r="B17" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Pte. Recuperación archivo temporal”</t>
+        </is>
+      </c>
+      <c r="C17" s="149" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt;  para los envíos en estado   Pte. Recuperación archivo temporal</t>
+        </is>
+      </c>
+      <c r="D17" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Recuperación archivo temporal", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. RECUPERACIÓN ARCH. TEMP mientras el envío no se ha reexpedido
+Operativo de Destino: No aplica.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Extraer archivo temporal
+2024-08-14 *Se Activa la HU-150 Recuperar Envíos Físicos por el BackOffice.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
+      <c r="E17" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Pte. Recuperación archivo temporal)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="14.4" customHeight="1" s="212">
       <c r="A18" s="147" t="inlineStr">
@@ -2492,10 +2712,54 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B18" s="126" t="n"/>
-      <c r="C18" s="149" t="n"/>
-      <c r="D18" s="32" t="n"/>
-      <c r="E18" s="32" t="n"/>
+      <c r="B18" s="126" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Pte. Entrega archivo definitivo”</t>
+        </is>
+      </c>
+      <c r="C18" s="149" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Pte. Entrega archivo definitivo</t>
+        </is>
+      </c>
+      <c r="D18" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Entrega archivo definitivo", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. ENTREGA ARCH. DEFINITIVO mientras el envío no se ha reexpedido.
+Operativo de Destino: No aplica.
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Anular envío
+Se activa HU-103	Anular envío (Acción)  (Back Office)
+Acciones Generales SIN selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Extraer archivo definitivo
+Se activa la HU-151	 Proceso de Archivo Definitivo
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
+      <c r="E18" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Pte. Entrega archivo definitivo)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="14.4" customHeight="1" s="212">
       <c r="A19" s="147" t="inlineStr">
@@ -2503,10 +2767,43 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B19" s="148" t="n"/>
-      <c r="C19" s="148" t="n"/>
-      <c r="D19" s="32" t="n"/>
-      <c r="E19" s="32" t="n"/>
+      <c r="B19" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Archivo definitivo”</t>
+        </is>
+      </c>
+      <c r="C19" s="148" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Archivo definitivo</t>
+        </is>
+      </c>
+      <c r="D19" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Archivo definitivo", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: ARCHIVO DEFINITIVO mientras el envío no se ha reexpedido.
+Operativo de Destino: No aplica.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
+        </is>
+      </c>
+      <c r="E19" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Archivo definitivo)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="147" t="inlineStr">
@@ -2514,10 +2811,48 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B20" s="148" t="n"/>
-      <c r="C20" s="148" t="n"/>
-      <c r="D20" s="32" t="n"/>
-      <c r="E20" s="32" t="n"/>
+      <c r="B20" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las “Incidencias”</t>
+        </is>
+      </c>
+      <c r="C20" s="148" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Incidencias,</t>
+        </is>
+      </c>
+      <c r="D20" s="32" t="inlineStr">
+        <is>
+          <t>El sistema deberá desplegar un listado donde mostrará las entradas que presentan una incidencia “Abierta”, es decir, los envíos que están en estado “Incidencia”.
+A diferencia de los demás estados cuando se encuentre sobre este deberá aparecer una nueva acción “Cerrar Incidencia”.
+En este estado NO deberá aparecer la acción “Crear Incidencia”.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: INCIDENCIA.
+Operativo de Destino: El operativo destino NO lo podrá ver solo hasta que no se haya incorporado el Reexpedido, cuando se incorpore lo podrá visualizar en INCIDENCIA.
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Cerrar incidencia
+Se Activa la HU-132 Cerrar Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
+      <c r="E20" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Incidencia)
+Incidencia (Estado actual de la última incidencia del envío)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="147" t="inlineStr">
@@ -2525,10 +2860,38 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B21" s="148" t="n"/>
-      <c r="C21" s="148" t="n"/>
-      <c r="D21" s="32" t="n"/>
-      <c r="E21" s="32" t="n"/>
+      <c r="B21" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en estado “Anulado”</t>
+        </is>
+      </c>
+      <c r="C21" s="148" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Anulado</t>
+        </is>
+      </c>
+      <c r="D21" s="32" t="inlineStr">
+        <is>
+          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: TODOS 
+Operativo de Destino: TODOS 
+2. Los envíos en estado “Anulado” SOLO podrán ser vistos por el “BackOffice” de cartería (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
+        </is>
+      </c>
+      <c r="E21" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Anulado)
+Acción (No hay acciones disponibles para este estado)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="147" t="inlineStr">
@@ -2536,10 +2899,38 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B22" s="148" t="n"/>
-      <c r="C22" s="32" t="n"/>
-      <c r="D22" s="32" t="n"/>
-      <c r="E22" s="32" t="n"/>
+      <c r="B22" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en estado “Extraviado”</t>
+        </is>
+      </c>
+      <c r="C22" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Extraviado</t>
+        </is>
+      </c>
+      <c r="D22" s="32" t="inlineStr">
+        <is>
+          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: TODOS 
+Operativo de Destino: TODOS 
+2. Los envíos en estado “Extraviado” SOLO podrán ser vistos por el “BackOffice” de cartería  (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
+        </is>
+      </c>
+      <c r="E22" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Extraviado)
+Acción (No hay acciones disponibles para este estado)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="147" t="inlineStr">
@@ -2547,10 +2938,38 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B23" s="148" t="n"/>
-      <c r="C23" s="126" t="n"/>
-      <c r="D23" s="32" t="n"/>
-      <c r="E23" s="32" t="n"/>
+      <c r="B23" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en estado “Devolución”</t>
+        </is>
+      </c>
+      <c r="C23" s="126" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Devolución</t>
+        </is>
+      </c>
+      <c r="D23" s="32" t="inlineStr">
+        <is>
+          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: TODOS 
+Operativo de Destino: TODOS 
+2. Los envíos en estado “Devolución” SOLO podrán ser vistos por el “BackOffice” de cartería  (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
+3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
+        </is>
+      </c>
+      <c r="E23" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Devolución)
+Acción (No hay acciones disponibles para este estado)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="147" t="inlineStr">
@@ -2558,10 +2977,48 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B24" s="148" t="n"/>
-      <c r="C24" s="32" t="n"/>
-      <c r="D24" s="32" t="n"/>
-      <c r="E24" s="32" t="n"/>
+      <c r="B24" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Pte. Recibir”</t>
+        </is>
+      </c>
+      <c r="C24" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Pte. Recibir</t>
+        </is>
+      </c>
+      <c r="D24" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Recibir", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. REEXPEDIR mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Incorporar Reexpedido
+Se activa HU-119 Incorporar Reexpedido (Entradas) (Back Office)
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
+        </is>
+      </c>
+      <c r="E24" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Pte. Reexpedir)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="147" t="inlineStr">
@@ -2569,10 +3026,52 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B25" s="148" t="n"/>
-      <c r="C25" s="32" t="n"/>
-      <c r="D25" s="32" t="n"/>
-      <c r="E25" s="32" t="n"/>
+      <c r="B25" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Pte. Reexpedir”</t>
+        </is>
+      </c>
+      <c r="C25" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Pte. Reexpedir</t>
+        </is>
+      </c>
+      <c r="D25" s="32" t="inlineStr">
+        <is>
+          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Reexpedir", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: PTE. REEXPEDIR mientras el envío no se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido.
+Acciones Generales CON selección de envíos
+Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
+Acciones que se mostrarán en la Barra dinámica superior:
+Anular envío
+Se activa HU-103	Anular envío (Acción)  (Back Office)
+Confirmar  Reexpedido
+Se activa HU-134	Confirmar Reexpedido 
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
+Editar envío 
+Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
+      <c r="E25" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Pte. Reexpedir)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="147" t="inlineStr">
@@ -2580,10 +3079,50 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B26" s="148" t="n"/>
-      <c r="C26" s="32" t="n"/>
-      <c r="D26" s="32" t="n"/>
-      <c r="E26" s="32" t="n"/>
+      <c r="B26" s="148" t="inlineStr">
+        <is>
+          <t>Visualizar las entradas que se encuentran en “Reexpedido”</t>
+        </is>
+      </c>
+      <c r="C26" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Reexpedido</t>
+        </is>
+      </c>
+      <c r="D26" s="32" t="inlineStr">
+        <is>
+          <t>El sistema deberá desplegar un listado con las entradas que ha “Reexpedido” el operador de la cartería origen, con sus respectivos detalles. 
+Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
+Operativo de Origen: REEXPEDIDO una vez el envío se ha reexpedido.
+Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, RECEPCIONADO una vez el envío se ha incorporado en el operativo de destino.
+Notas: Una vez que el envío ha sido reexpedido por el operador de origen, pasará a estar en estado "Recepcionado" por el operador de destino, y el envío deberá seguir el “flujo de entradas” establecido según la configuración inicial. Es importante considerar que, cuando se registró la entrada y el envío se digitalizó, en este nuevo flujo este paso deberá omitirse para evitar redundancias. Esto asegura que el proceso sea más eficiente y evita la duplicación de registros, permitiendo un seguimiento más claro y preciso de cada envío. Además, se debe garantizar que cualquier omisión de pasos no afecte la integridad de los datos ni la trazabilidad del envío a lo largo de todo su recorrido.
+Es posible que el destinatario cambie el punto de entrega después de la reexpedición del operador de origen. En tal caso, es posible que el operador de destino inicial ya no sea el correcto cuando llegue el reexpedido, por lo que se debería volver a reexpedir al nuevo operador de destino.
+Adicionalmente, se deben considerar las siguientes situaciones:
+Cuando un usuario cambia su punto de entrega a uno gestionado por otro operador, ya sea porque el edificio cambia de operador, el punto de entrega cambia de edificio, el usuario cambia su punto de entrega o el administrador del cliente cambia el punto de entrega del usuario, se deben establecer todos los envíos con estado "Pte. de distribución" y "Recoger en cartería" a "Pte. Reexpedir".
+Al cerrar una ronda, se debe comprobar para todos los envíos no entregados si el destinatario tiene un punto de entrega gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
+Cuando se reincorpora una entrada al circuito físico después de digitalizarse, también se debe comprobar si el destinatario tiene un punto de entrega gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
+Cuando se incorpora un envío reexpedido desde otro operador, se debe verificar si el punto de entrega actual del destinatario está gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
+Acciones individuales Específicas por envío
+Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
+Crear incidencia
+Se Activa la HU-011 Crear Incidencia
+Enviar Mensaje
+Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
+        </is>
+      </c>
+      <c r="E26" s="32" t="inlineStr">
+        <is>
+          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado (Reexpedido)
+Acciones individuales específicas</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="147" t="inlineStr">
@@ -2591,9 +3130,21 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B27" s="148" t="n"/>
-      <c r="C27" s="32" t="n"/>
-      <c r="D27" s="32" t="n"/>
+      <c r="B27" s="148" t="inlineStr">
+        <is>
+          <t>Ver detalle del envío</t>
+        </is>
+      </c>
+      <c r="C27" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” , visualizando el Listado de envíos de cualquier estado, cuando haga clic en un envío en específico,</t>
+        </is>
+      </c>
+      <c r="D27" s="32" t="inlineStr">
+        <is>
+          <t>El sistema mostrará información con el detalle del envío seleccionado. Se Activa la HU-005 Ver el detalle del registro de entrada seleccionado</t>
+        </is>
+      </c>
       <c r="E27" s="32" t="n"/>
     </row>
     <row r="28" ht="16.2" customHeight="1" s="212">
@@ -2602,10 +3153,27 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B28" s="126" t="n"/>
-      <c r="C28" s="32" t="n"/>
-      <c r="D28" s="32" t="n"/>
-      <c r="E28" s="32" t="n"/>
+      <c r="B28" s="126" t="inlineStr">
+        <is>
+          <t>Editar información del envío</t>
+        </is>
+      </c>
+      <c r="C28" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” , visualizando el Listado de envíos de cualquier estado y desee editar la información del registro seleccionado,</t>
+        </is>
+      </c>
+      <c r="D28" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-131 A Editar Envío - Entradas</t>
+        </is>
+      </c>
+      <c r="E28" s="32" t="inlineStr">
+        <is>
+          <t>Botón:
+Editar Envío</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16.2" customHeight="1" s="212">
       <c r="A29" s="147" t="inlineStr">
@@ -2613,10 +3181,27 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B29" s="148" t="n"/>
-      <c r="C29" s="32" t="n"/>
-      <c r="D29" s="32" t="n"/>
-      <c r="E29" s="32" t="n"/>
+      <c r="B29" s="148" t="inlineStr">
+        <is>
+          <t>Acción  “Crear Incidencia”</t>
+        </is>
+      </c>
+      <c r="C29" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado (excepto Incidencia), cuando haga clic en la acción  “Crear Incidencia”</t>
+        </is>
+      </c>
+      <c r="D29" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-011 Crear Incidencia</t>
+        </is>
+      </c>
+      <c r="E29" s="32" t="inlineStr">
+        <is>
+          <t>Acción
+Crear Incidencia</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16.2" customHeight="1" s="212">
       <c r="A30" s="147" t="inlineStr">
@@ -2624,10 +3209,27 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B30" s="148" t="n"/>
-      <c r="C30" s="32" t="n"/>
-      <c r="D30" s="32" t="n"/>
-      <c r="E30" s="32" t="n"/>
+      <c r="B30" s="148" t="inlineStr">
+        <is>
+          <t>Acción  “Enviar Mensaje”</t>
+        </is>
+      </c>
+      <c r="C30" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado, cuando haga clic en la acción “Enviar Mensaje”</t>
+        </is>
+      </c>
+      <c r="D30" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-102 Enviar Mensaje (Acción)</t>
+        </is>
+      </c>
+      <c r="E30" s="32" t="inlineStr">
+        <is>
+          <t>Acción
+Enviar Mensaje</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="16.2" customHeight="1" s="212">
       <c r="A31" s="147" t="inlineStr">
@@ -2635,10 +3237,27 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B31" s="148" t="n"/>
-      <c r="C31" s="32" t="n"/>
-      <c r="D31" s="32" t="n"/>
-      <c r="E31" s="32" t="n"/>
+      <c r="B31" s="148" t="inlineStr">
+        <is>
+          <t>Acción  “Anular envío”</t>
+        </is>
+      </c>
+      <c r="C31" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado, cuando haga clic en la acción “Anular envío”</t>
+        </is>
+      </c>
+      <c r="D31" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-103 Anular envío (Acción)</t>
+        </is>
+      </c>
+      <c r="E31" s="32" t="inlineStr">
+        <is>
+          <t>Acción
+Anular envío</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="16.2" customHeight="1" s="212">
       <c r="A32" s="147" t="inlineStr">
@@ -2646,10 +3265,27 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B32" s="148" t="n"/>
-      <c r="C32" s="32" t="n"/>
-      <c r="D32" s="32" t="n"/>
-      <c r="E32" s="32" t="n"/>
+      <c r="B32" s="148" t="inlineStr">
+        <is>
+          <t>Acción  “Recuperación envío físico”</t>
+        </is>
+      </c>
+      <c r="C32" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos del estado “Archivo temporal”, cuando haga clic en la acción  “Recuperar envío físico”</t>
+        </is>
+      </c>
+      <c r="D32" s="32" t="inlineStr">
+        <is>
+          <t>Se Activa la HU-150 Recuperar Envíos Físicos por el Usuario de BackOffice</t>
+        </is>
+      </c>
+      <c r="E32" s="32" t="inlineStr">
+        <is>
+          <t>Acción
+Recuperar envío físico</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="16.2" customHeight="1" s="212">
       <c r="A33" s="147" t="inlineStr">
@@ -2657,10 +3293,27 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B33" s="148" t="n"/>
-      <c r="C33" s="148" t="n"/>
-      <c r="D33" s="148" t="n"/>
-      <c r="E33" s="32" t="n"/>
+      <c r="B33" s="148" t="inlineStr">
+        <is>
+          <t>Acción  “Cerrar Incidencia”</t>
+        </is>
+      </c>
+      <c r="C33" s="148" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos en estado “Incidencia”, cuando haga clic en la acción “Cerrar Incidencia”</t>
+        </is>
+      </c>
+      <c r="D33" s="148" t="inlineStr">
+        <is>
+          <t>Se Activa la  HU-132 Cerrar Incidencia</t>
+        </is>
+      </c>
+      <c r="E33" s="32" t="inlineStr">
+        <is>
+          <t>Acción
+Cerrar Incidencia</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16.2" customHeight="1" s="212">
       <c r="A34" s="147" t="inlineStr">
@@ -2668,10 +3321,29 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B34" s="148" t="n"/>
-      <c r="C34" s="32" t="n"/>
-      <c r="D34" s="32" t="n"/>
-      <c r="E34" s="150" t="n"/>
+      <c r="B34" s="148" t="inlineStr">
+        <is>
+          <t>Selección de uno o varios registros</t>
+        </is>
+      </c>
+      <c r="C34" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado,
+Cuando requiere seleccionar uno o varios registros para realizar una acción de la “Barra de botones dinámica” sobre el (los) registro(s) seleccionado(s),</t>
+        </is>
+      </c>
+      <c r="D34" s="32" t="inlineStr">
+        <is>
+          <t>El sistema debe mostrar un checklist en cada envío, cada vez que el usuario seleccione un registro en la parte superior de la tabla le mostrará un contador de registros. Ej. “3 registros seleccionados”.
+2024-09-13: Se adiciona lo siguiente para tener en cuenta:
+El sistema debe permitir seleccionar varios registros entre las diferentes páginas del listado, sin perder la selección anterior o posterior.</t>
+        </is>
+      </c>
+      <c r="E34" s="150" t="inlineStr">
+        <is>
+          <t>• Checklist “Seleccionar envío”</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16.2" customHeight="1" s="212">
       <c r="A35" s="147" t="inlineStr">
@@ -2679,10 +3351,27 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B35" s="148" t="n"/>
-      <c r="C35" s="32" t="n"/>
-      <c r="D35" s="32" t="n"/>
-      <c r="E35" s="32" t="n"/>
+      <c r="B35" s="148" t="inlineStr">
+        <is>
+          <t>Seleccionar Todos los registros</t>
+        </is>
+      </c>
+      <c r="C35" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado,
+Cuando requiere seleccionar todos los registros y da clic sobre el checklist “Seleccionar todo” para  realizar una acción de la “Barra de botones dinámica”,</t>
+        </is>
+      </c>
+      <c r="D35" s="32" t="inlineStr">
+        <is>
+          <t>El sistema debe seleccionar todos los registros de la página donde se encuentra, mostrando el número de registros seleccionados.</t>
+        </is>
+      </c>
+      <c r="E35" s="32" t="inlineStr">
+        <is>
+          <t>• Checklist “Seleccionar todo”</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16.2" customHeight="1" s="212">
       <c r="A36" s="147" t="inlineStr">
@@ -2690,10 +3379,33 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B36" s="148" t="n"/>
-      <c r="C36" s="32" t="n"/>
-      <c r="D36" s="32" t="n"/>
-      <c r="E36" s="32" t="n"/>
+      <c r="B36" s="148" t="inlineStr">
+        <is>
+          <t>Activar/Desactivar Celdas</t>
+        </is>
+      </c>
+      <c r="C36" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y desea visualizar más a detalle los registros de entrada,</t>
+        </is>
+      </c>
+      <c r="D36" s="32" t="inlineStr">
+        <is>
+          <t>El sistema permitirá al usuario:
+Activar celdas:
+Al activar esta opción  el sistema expandirá la vista de la tabla para mostrar información secundaria de cada registro de entrada que se está visualizando.
+No se requiere selección de registros específicos, la expansión aplicará a todos los registros visibles en la tabla.
+Desactivar celdas
+Activar la sección "Desactivar Celdas" para regresar a la vista inicial de la tabla. Al presionar sobre esta opción, el sistema ocultará la información secundaria y mostrará nuevamente la vista compacta de la tabla.
+El usuario continuará viendo la misma sección de la tabla que estaba visualizando antes de desactivar la expansión.</t>
+        </is>
+      </c>
+      <c r="E36" s="32" t="inlineStr">
+        <is>
+          <t>Botón:
+Activar Celdas</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16.2" customHeight="1" s="212">
       <c r="A37" s="147" t="inlineStr">
@@ -2701,9 +3413,21 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B37" s="148" t="n"/>
-      <c r="C37" s="32" t="n"/>
-      <c r="D37" s="32" t="n"/>
+      <c r="B37" s="148" t="inlineStr">
+        <is>
+          <t>Información secundaria</t>
+        </is>
+      </c>
+      <c r="C37" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”y desea visualizar la información secundaria de un envío en específico, al pasar el cursor sobre  dicho envío,</t>
+        </is>
+      </c>
+      <c r="D37" s="32" t="inlineStr">
+        <is>
+          <t>El sistema deberá expandir la vista del registro y automáticamente mostrar la información secundaria del envío.</t>
+        </is>
+      </c>
       <c r="E37" s="32" t="n"/>
     </row>
     <row r="38" ht="16.2" customHeight="1" s="212">
@@ -2712,10 +3436,38 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B38" s="148" t="n"/>
-      <c r="C38" s="32" t="n"/>
-      <c r="D38" s="32" t="n"/>
-      <c r="E38" s="32" t="n"/>
+      <c r="B38" s="148" t="inlineStr">
+        <is>
+          <t>Filtros tabla</t>
+        </is>
+      </c>
+      <c r="C38" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” en cualquiera de los estados y presiona sobre Icono filtro (),</t>
+        </is>
+      </c>
+      <c r="D38" s="32" t="inlineStr">
+        <is>
+          <t>Si la sección filtrado está deshabilitada el sistema debe habilitar la sección de filtrado en la tabla. 
+Si la sección filtrado está habilitada el sistema debe deshabilitar la sección de filtrado en la tabla.</t>
+        </is>
+      </c>
+      <c r="E38" s="32" t="inlineStr">
+        <is>
+          <t>Tener en cuenta que esto solo será visible cuando la sección de filtrado esté habilitada.
+Filtros:
+ID GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación
+Estado
+Botones:
+Borrar
+Aplicar</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16.2" customHeight="1" s="212">
       <c r="A39" s="147" t="inlineStr">
@@ -2723,9 +3475,24 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B39" s="148" t="n"/>
-      <c r="C39" s="32" t="n"/>
-      <c r="D39" s="32" t="n"/>
+      <c r="B39" s="148" t="inlineStr">
+        <is>
+          <t>Filtros</t>
+        </is>
+      </c>
+      <c r="C39" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y diligencie alguno de los filtros del panel de filtrado,</t>
+        </is>
+      </c>
+      <c r="D39" s="32" t="inlineStr">
+        <is>
+          <t>Estos deben ser un campo de entrada de texto.
+El sistema solo debe permitir escribir caracteres alfanuméricos.
+Por defecto los campos deben estar vacíos.
+Los filtros de texto por defecto deben ser del tipo "Contains" y ser indistintas las mayúsculas y las minúsculas (Case Insensitive) y a los "acentos"  (a=á=ä=à=â) (Accent Insensitive).</t>
+        </is>
+      </c>
       <c r="E39" s="32" t="n"/>
     </row>
     <row r="40" ht="16.2" customHeight="1" s="212">
@@ -2734,9 +3501,21 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B40" s="148" t="n"/>
-      <c r="C40" s="32" t="n"/>
-      <c r="D40" s="151" t="n"/>
+      <c r="B40" s="148" t="inlineStr">
+        <is>
+          <t>Filtro Estado</t>
+        </is>
+      </c>
+      <c r="C40" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar,  y desee ver los registros por estado,</t>
+        </is>
+      </c>
+      <c r="D40" s="151" t="inlineStr">
+        <is>
+          <t>Por defecto el filtro estará establecido de acuerdo al estado que el usuario ha seleccionado y el usuario NO podrá seleccionar ningún otro estado para filtrar.</t>
+        </is>
+      </c>
       <c r="E40" s="148" t="n"/>
     </row>
     <row r="41" ht="16.2" customHeight="1" s="212">
@@ -2745,10 +3524,28 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B41" s="148" t="n"/>
-      <c r="C41" s="32" t="n"/>
-      <c r="D41" s="151" t="n"/>
-      <c r="E41" s="148" t="n"/>
+      <c r="B41" s="148" t="inlineStr">
+        <is>
+          <t>Aplicar filtros</t>
+        </is>
+      </c>
+      <c r="C41" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar, al  dar clic en el botón “Aplicar”,</t>
+        </is>
+      </c>
+      <c r="D41" s="151" t="inlineStr">
+        <is>
+          <t>El sistema debe mostrar en la tabla los registros.
+Al no encontrar registros debe aparecer el mensaje “No existen registros” en la tabla.</t>
+        </is>
+      </c>
+      <c r="E41" s="148" t="inlineStr">
+        <is>
+          <t>Botón:
+Aplicar</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="16.2" customHeight="1" s="212">
       <c r="A42" s="147" t="inlineStr">
@@ -2756,10 +3553,28 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B42" s="148" t="n"/>
-      <c r="C42" s="148" t="n"/>
-      <c r="D42" s="151" t="n"/>
-      <c r="E42" s="148" t="n"/>
+      <c r="B42" s="148" t="inlineStr">
+        <is>
+          <t>Limpiar filtros</t>
+        </is>
+      </c>
+      <c r="C42" s="148" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar, al  dar clic en el botón “Borrar” o deshabilita la sección de filtrado,</t>
+        </is>
+      </c>
+      <c r="D42" s="151" t="inlineStr">
+        <is>
+          <t>El sistema debe regresar todos los filtros a su estado por defecto.
+En la tabla deben aparecer todos los registros.</t>
+        </is>
+      </c>
+      <c r="E42" s="148" t="inlineStr">
+        <is>
+          <t>Botón:
+Borrar</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="16.2" customHeight="1" s="212">
       <c r="A43" s="147" t="inlineStr">
@@ -2767,10 +3582,27 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B43" s="126" t="n"/>
-      <c r="C43" s="32" t="n"/>
-      <c r="D43" s="32" t="n"/>
-      <c r="E43" s="32" t="n"/>
+      <c r="B43" s="126" t="inlineStr">
+        <is>
+          <t>Exportar información</t>
+        </is>
+      </c>
+      <c r="C43" s="32" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y desea exportar la información visualizada, cuando hace clic en la opción “Acciones de datos” &gt; “Exportar”</t>
+        </is>
+      </c>
+      <c r="D43" s="32" t="inlineStr">
+        <is>
+          <t>El sistema permitirá exportar la información del listado teniendo en cuenta los filtros que se hayan aplicado. Se activa HU-056 Exportación de datos</t>
+        </is>
+      </c>
+      <c r="E43" s="32" t="inlineStr">
+        <is>
+          <t>Botón:
+Exportar</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16.2" customHeight="1" s="212">
       <c r="A44" s="147" t="inlineStr">
@@ -2778,9 +3610,21 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B44" s="126" t="n"/>
-      <c r="C44" s="32" t="n"/>
-      <c r="D44" s="32" t="n"/>
+      <c r="B44" s="126" t="inlineStr">
+        <is>
+          <t>Paginado y Desplazamiento en Listados</t>
+        </is>
+      </c>
+      <c r="C44" s="32" t="inlineStr">
+        <is>
+          <t>Dado que se busca mejorar la visualización de listados en cada estado, cuando el usuario acceda a cualquier lista de estados,</t>
+        </is>
+      </c>
+      <c r="D44" s="32" t="inlineStr">
+        <is>
+          <t>Si la totalidad de los registros no alcanzan a mostrarse en pantalla, la información se mostrará paginada y con barras de desplazamiento. Se activa HU-098  (Paginado de tablas).</t>
+        </is>
+      </c>
       <c r="E44" s="32" t="n"/>
     </row>
     <row r="45" ht="16.2" customHeight="1" s="212">
@@ -17328,8 +18172,8 @@
     <col width="24.33203125" customWidth="1" style="224" min="40" max="40"/>
     <col width="11.44140625" customWidth="1" style="5" min="41" max="41"/>
     <col width="19.21875" customWidth="1" style="5" min="42" max="42"/>
-    <col width="11.44140625" customWidth="1" style="5" min="43" max="49"/>
-    <col width="11.44140625" customWidth="1" style="5" min="50" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="5" min="43" max="51"/>
+    <col width="11.44140625" customWidth="1" style="5" min="52" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="212">
@@ -26146,8 +26990,8 @@
     <col width="106.21875" customWidth="1" style="50" min="10" max="10"/>
     <col width="6.21875" bestFit="1" customWidth="1" style="50" min="11" max="11"/>
     <col width="17.5546875" customWidth="1" style="50" min="12" max="12"/>
-    <col width="11.44140625" customWidth="1" style="50" min="13" max="19"/>
-    <col width="11.44140625" customWidth="1" style="50" min="20" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="50" min="13" max="21"/>
+    <col width="11.44140625" customWidth="1" style="50" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="44">
@@ -30629,8 +31473,8 @@
     <col width="43.33203125" customWidth="1" style="269" min="2" max="2"/>
     <col width="98.33203125" customWidth="1" style="269" min="3" max="3"/>
     <col width="27" customWidth="1" style="269" min="4" max="4"/>
-    <col width="11.44140625" customWidth="1" style="269" min="5" max="11"/>
-    <col width="11.44140625" customWidth="1" style="269" min="12" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="269" min="5" max="13"/>
+    <col width="11.44140625" customWidth="1" style="269" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31068,8 +31912,8 @@
     <col width="15.5546875" customWidth="1" style="269" min="4" max="4"/>
     <col width="24.5546875" bestFit="1" customWidth="1" style="269" min="5" max="5"/>
     <col width="8.6640625" customWidth="1" style="269" min="6" max="6"/>
-    <col width="11.44140625" customWidth="1" style="269" min="7" max="13"/>
-    <col width="11.44140625" customWidth="1" style="269" min="14" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="269" min="7" max="15"/>
+    <col width="11.44140625" customWidth="1" style="269" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Archivos_imp/test.xlsx
+++ b/Archivos_imp/test.xlsx
@@ -2031,10 +2031,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2170,2156 +2170,99 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14.4" customHeight="1" s="212">
-      <c r="A7" s="147" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B7" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas agrupadas por estado</t>
-        </is>
-      </c>
-      <c r="C7" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en el Controlador principal del BackOffice &gt; Módulo Cartería Inteligente &gt; Envíos físicos &gt; “Entradas - BackOffice”</t>
-        </is>
-      </c>
-      <c r="D7" s="152" t="inlineStr">
-        <is>
-          <t>Entonces el sistema:
-Mostrará un listado de “Entradas - BackOffice”  agrupadas mediante un TAG teniendo en cuenta el estado actual del envío. Ver (Tags/Estados entradas)
-Se mostrarán sólo los TAGS que contengan al menos un registro.
-El usuario podrá hacer clic en cualquier estado y el sistema mostrará el listado de envíos que correspondan con el estado seleccionado.
-Para cada TAG se mostrará el conteo de envíos, a excepción de la opción “Todos”.
-En la Ruta de “Miga de pan” se mostrará el TAG donde se encuentra ubicado el usuario.
-En la tabla que despliega los envíos, diferenciar los estados por color.
-Cada envío que se muestre en el listado debe tener opción de selección.
-Dependiendo del estado seleccionado  se mostrarán las acciones disponibles a realizar por el BackOffice. (Ver Acciones envíos de salida).
-La acción “Finalizar ronda” No es una acción que se ejecuta desde la pantalla principal del BackOffice en GIO, es una acción que se dispone y ejecuta desde el dispositivo usado en el proceso de Rondas (recogida y entrega).
-En la “Barra dinámica superior” se debe habilitar la acción Global “Leer Código QR”, que permite leer el QR de uno o más envíos y mostrar información relevante del envío. Se activa la  HU-133	Consulta de envíos por Código QR
-La acción “Leer Código QR” es global y siempre estará activa, independiente del tipo de servicio seleccionado (entrada, salida, correo interno) e independiente del estado seleccionado.</t>
-        </is>
-      </c>
-      <c r="E7" s="152" t="inlineStr">
-        <is>
-          <t>Los TAGs que se visualizará en el menú lateral izquierdo se definen según el estado del envío, así:
-Columnas a mostrar por defecto en cada listado (si el usuario no ha personalizado los campos a mostrar):
-ID GIO: Muestra el “Identificador del envío”.
-Información secundaria: 
-Código QR del envío.
-Tipo de envío:  Muestra el “Tipo de envío”.
-Información secundaria:
-“Creado”: Fecha-hora de creación del envío.
-Remitente: Muestra la información del campo “Remitente” de la entrada.
-Información secundaria: 
-Persona
-Ubicación
-Destinatario:   Cuando el destinatario es un “usuario” muestra  el “Nombre + apellidos” o cuando el destinatario es un “departamento” muestra el “Nombre del Departamento”.
-Información secundaria:
-Nombre del Departamento: cuando el destinatario es un “usuario”, de lo contrario no muestra información.
-Formato de entrega: Muestra el formato de entrega del envío.
-Ubicación: Muestra la información de la ubicación del punto de entrega del destinatario configurado para la entrega. Se deben mostrar los siguientes datos:
-PTOENTREGA.NOMBRE
-Información secundaria:
-PTOENTREGA.CODIGO
-EDIFICIO.NOMBRE
-PTOENTREGA.PLANTA
-PTOENTREGA.UBICACION
-EDIFICIO.POBLACION
-2024-07-16 se adiciona condiciones para la ubicación del destinatario
-Para el punto de entrega (ubicación) del destinatario se debe tener en cuenta el estado actual del envío:
-Si el estado actual del envío se encuentra configurado dentro de los estados de envío que requieren que se guarde el punto de entrega del "Destinatario" en las entregas (entrada, correo interno) al momento de la asignación del estado  [Extraviado, Entregado, Anulado, Archivo Definitivo, Devolución] se debe mostrar el “punto de entrega” que se almacenó en la “Trazabilidad de estados”  que corresponda a dicho estado.  
-Si el estado actual del envío NO se encuentra configurado dentro de los estados que requieren que se guarde el punto de entrega del "Destinatario" se debe mostrar el “punto de entrega” actual del destinatario.
-Nota: estos estados de envío que se configuren como que requieren almacenar el "punto de entrega" deben ser dinámicos, es decir que en cualquier momento deben poder adicionarse/quitarse estados que requieran almacenar este dato. Los estados a tener en cuenta son los configurados para el módulo de cartería inteligente.
-Estado: Muestra el “Estado” actual del envío.
-En información secundaria muestra:
-Fecha y hora en la que se asignó el estado del envío.
-Acción: Muestra las acciones individuales que podrá realizar el usuario dependiendo del estado del envío.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" s="212">
-      <c r="A8" s="147" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B8" s="152" t="inlineStr">
-        <is>
-          <t>Configurar columnas dinamicas</t>
-        </is>
-      </c>
-      <c r="C8" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Entradas - BackOffice” sobre cualquier estados y desea personalizar las columnas del listado al presionar sobre el botón “Columnas”,</t>
-        </is>
-      </c>
-      <c r="D8" s="152" t="inlineStr">
-        <is>
-          <t>Los campos (columnas) que se muestran en el listado serán dinámicos, es decir, el usuario podrá configurar las columnas que desea ver o ocultar en el listado. Se activa HU-204 Configurar Columnas Dinámicas en Listados.</t>
-        </is>
-      </c>
-      <c r="E8" s="152" t="inlineStr">
-        <is>
-          <t>Botón:
-Columnas</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" s="212">
-      <c r="A9" s="147" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B9" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar “Todos” los registros de entradas</t>
-        </is>
-      </c>
-      <c r="C9" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt;  Todos</t>
-        </is>
-      </c>
-      <c r="D9" s="152" t="inlineStr">
-        <is>
-          <t>El sistema mostrará un listado que incluirá todas las entradas.
-En esta opción no se contempla el conteo de envíos. 
-Los envíos en estado “Entregado” que han cumplido el tiempo configurado para archivo  se verán en “Todos”, según lo definido en la HU-130	Configuración de preferencias de Archivo  (Back Office).
-En la tabla que despliega los envíos, diferenciar los estados por color.
-Los envíos en estado “Anulado” podrán ser vistos por el “BackOffice” de cartería en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-130	Configuración de preferencias de Archivo  (Back Office).
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado actual del envío.
-Los envíos en estado “Extraviado” podrán ser vistos por el “BackOffice” en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-Los envíos en estado “Devolución” podrán ser vistos por el “BackOffice” en la sección “Todos”, estos no se verán en un estado aparte en el listado.</t>
-        </is>
-      </c>
-      <c r="E9" s="152" t="inlineStr">
-        <is>
-          <t>ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Todos los estados disponibles)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" s="212">
-      <c r="A10" s="147" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B10" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas en estado “Recepcionado”</t>
-        </is>
-      </c>
-      <c r="C10" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Recepcionado</t>
-        </is>
-      </c>
-      <c r="D10" s="152" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará las entradas con estado “Recepcionado” con sus respectivos detalles. Aunque este estado es instantáneo, se incluye porque, en algunos casos, una entrada puede presentar errores en su proceso de recepción, impidiendo que continúe con el flujo.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: RECEPCIONADO mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, RECEPCIONADO una vez el envío se ha incorporado en el operativo de destino.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E10" s="152" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Recepcionado)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" s="212">
-      <c r="A11" s="147" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="B11" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas “En custodia”</t>
-        </is>
-      </c>
-      <c r="C11" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    En custodia</t>
-        </is>
-      </c>
-      <c r="D11" s="152" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "En custodia", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: EN CUSTODIA mientras el envío no se ha reexpedido.
-Operativo de Destino: EN CUSTODIA una vez el envío se ha incorporado en el operativo de destino.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Anular envío
-Se activa HU-103	Anular envío (Acción)  (Back Office)
-Entrega en Cartería
-Se activa HU-108 Entrega en Cartería - Envíos físicos (Entradas)
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E11" s="152" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (En custodia)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" s="212">
-      <c r="A12" s="147" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="B12" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas  “Pte. Distribución”</t>
-        </is>
-      </c>
-      <c r="C12" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Pte. Distribución</t>
-        </is>
-      </c>
-      <c r="D12" s="152" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Distribución", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Los envíos con método de entrega “En mano”, en “Pto. Entrega” y en estado "Pte. Distribución" de un usuario destinatario que esté "Fuera de oficina" se deberán mostrar en un nuevo TAG "Fuera de oficina" para que el usuario no  visualice el envío junto  con los que sí se tienen que distribuir.  Los envíos con esta característica no se deben mostrar en el tag Pte. Distribución. 
-Nota: La propiedad “Fuera de Oficina” se define en las HU (HU-045 Establecer punto de entrega físico) y (HU-070 Configuración de la solución de Cartería Usuario Cliente )
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. DISTRIBUCIÓN mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. DISTRIBUCIÓN una vez el envío se ha incorporado en el operativo de destino.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Anular envío
-Se activa HU-103	Anular envío (Acción)  (Back Office)
-Entrega en Cartería
-Se activa HU-108 Entrega en Cartería - Envíos físicos (Entradas)
-Acciones Generales SIN selección de envíos
-Antes de la ejecución de la acción no es necesario que el usuario seleccione envíos.
-Acciones que se mostrarán en la Barra dinámica superior:
-Iniciar Ronda
-Permite  al BackOffice iniciar la ronda para realizar la entrega de envíos.
-Se Activa laHU-152 Iniciar Ronda de Recogida - Recogida en mano &amp; En Punto de Entrega
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E12" s="152" t="inlineStr">
-        <is>
-          <t>ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Distribución)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1" s="212">
-      <c r="A13" s="147" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B13" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas  “En distribución”</t>
-        </is>
-      </c>
-      <c r="C13" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    En distribución</t>
-        </is>
-      </c>
-      <c r="D13" s="150" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Retorno circuito físico", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: EN DISTRIBUCIÓN mientras el envío no se ha reexpedido.
-Operativo de Destino: EN DISTRIBUCIÓN una vez el envío se ha incorporado en el operativo de destino.
-Acciones Generales en  Tablet
-Acción que se ejecuta en la tablet 
-Finalizar Ronda
-Permite  al BackOffice finalizar la ronda.
-Se Activa la HU-117 Finalizar ronda 
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
-        </is>
-      </c>
-      <c r="E13" s="150" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (En distribución)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.4" customHeight="1" s="212">
-      <c r="A14" s="147" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="B14" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas en estado “Entregado”</t>
-        </is>
-      </c>
-      <c r="C14" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Entregado</t>
-        </is>
-      </c>
-      <c r="D14" s="32" t="inlineStr">
-        <is>
-          <t>1. El usuario podrá visualizar estas entradas en el TAG "Entregado", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: ENTREGADO mientras el envío no se ha reexpedido.
-Operativo de Destino: ENTREGADO una vez el envío se ha incorporado en el operativo de destino.
-2. En esta sección el sistema debe mostrar las entradas entregadas que aún no han sido archivadas, de acuerdo con la configuración de Archivo establecida para el usuario en la HU-130 Configuración de preferencias de Archivo  (Back Office).
-Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-130 Configuración de preferencias de Archivo  (Back Office).
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office).</t>
-        </is>
-      </c>
-      <c r="E14" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Entregado)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="14.4" customHeight="1" s="212">
-      <c r="A15" s="147" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="B15" s="126" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas  en estado “Digitalizado”</t>
-        </is>
-      </c>
-      <c r="C15" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Digitalizado (Estado virtual)</t>
-        </is>
-      </c>
-      <c r="D15" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Digitalizado", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: DIGITALIZADO mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, DIGITALIZADO una vez el envío se ha incorporado en el operativo de destino.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E15" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Digitalizado)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="14.4" customHeight="1" s="212">
-      <c r="A16" s="147" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B16" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Archivo temporal”</t>
-        </is>
-      </c>
-      <c r="C16" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Archivo temporal</t>
-        </is>
-      </c>
-      <c r="D16" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Archivo temporal", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: ARCHIVO TEMPORAL mientras el envío no se ha reexpedido.
-Operativo de Destino: No aplica.
-Acciones Generales SIN selección de envíos
-Antes de la ejecución de la acción no es necesario que el usuario seleccione envíos.
-Acciones que se mostrarán en la Barra dinámica superior:
-Gestión de archivadores
-Se activa HU-141 Gestionar Archivadores  (Back Office)
-Incorporar archivo definitivo
-2024-08-14 **Se activa HU-151 Proceso de Archivo Definitivo
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E16" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Archivo temporal)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="14.4" customHeight="1" s="212">
-      <c r="A17" s="147" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B17" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Pte. Recuperación archivo temporal”</t>
-        </is>
-      </c>
-      <c r="C17" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt;  para los envíos en estado   Pte. Recuperación archivo temporal</t>
-        </is>
-      </c>
-      <c r="D17" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Recuperación archivo temporal", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. RECUPERACIÓN ARCH. TEMP mientras el envío no se ha reexpedido
-Operativo de Destino: No aplica.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Extraer archivo temporal
-2024-08-14 *Se Activa la HU-150 Recuperar Envíos Físicos por el BackOffice.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E17" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Recuperación archivo temporal)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="14.4" customHeight="1" s="212">
-      <c r="A18" s="147" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B18" s="126" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Pte. Entrega archivo definitivo”</t>
-        </is>
-      </c>
-      <c r="C18" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Pte. Entrega archivo definitivo</t>
-        </is>
-      </c>
-      <c r="D18" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Entrega archivo definitivo", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. ENTREGA ARCH. DEFINITIVO mientras el envío no se ha reexpedido.
-Operativo de Destino: No aplica.
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Anular envío
-Se activa HU-103	Anular envío (Acción)  (Back Office)
-Acciones Generales SIN selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Extraer archivo definitivo
-Se activa la HU-151	 Proceso de Archivo Definitivo
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E18" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Entrega archivo definitivo)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="14.4" customHeight="1" s="212">
-      <c r="A19" s="147" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B19" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Archivo definitivo”</t>
-        </is>
-      </c>
-      <c r="C19" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Archivo definitivo</t>
-        </is>
-      </c>
-      <c r="D19" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Archivo definitivo", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: ARCHIVO DEFINITIVO mientras el envío no se ha reexpedido.
-Operativo de Destino: No aplica.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
-        </is>
-      </c>
-      <c r="E19" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Archivo definitivo)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="147" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B20" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las “Incidencias”</t>
-        </is>
-      </c>
-      <c r="C20" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Incidencias,</t>
-        </is>
-      </c>
-      <c r="D20" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará las entradas que presentan una incidencia “Abierta”, es decir, los envíos que están en estado “Incidencia”.
-A diferencia de los demás estados cuando se encuentre sobre este deberá aparecer una nueva acción “Cerrar Incidencia”.
-En este estado NO deberá aparecer la acción “Crear Incidencia”.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: INCIDENCIA.
-Operativo de Destino: El operativo destino NO lo podrá ver solo hasta que no se haya incorporado el Reexpedido, cuando se incorpore lo podrá visualizar en INCIDENCIA.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Cerrar incidencia
-Se Activa la HU-132 Cerrar Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E20" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Incidencia)
-Incidencia (Estado actual de la última incidencia del envío)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="147" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B21" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en estado “Anulado”</t>
-        </is>
-      </c>
-      <c r="C21" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Anulado</t>
-        </is>
-      </c>
-      <c r="D21" s="32" t="inlineStr">
-        <is>
-          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: TODOS 
-Operativo de Destino: TODOS 
-2. Los envíos en estado “Anulado” SOLO podrán ser vistos por el “BackOffice” de cartería (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
-        </is>
-      </c>
-      <c r="E21" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Anulado)
-Acción (No hay acciones disponibles para este estado)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="147" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B22" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en estado “Extraviado”</t>
-        </is>
-      </c>
-      <c r="C22" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Extraviado</t>
-        </is>
-      </c>
-      <c r="D22" s="32" t="inlineStr">
-        <is>
-          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: TODOS 
-Operativo de Destino: TODOS 
-2. Los envíos en estado “Extraviado” SOLO podrán ser vistos por el “BackOffice” de cartería  (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
-        </is>
-      </c>
-      <c r="E22" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Extraviado)
-Acción (No hay acciones disponibles para este estado)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="147" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B23" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en estado “Devolución”</t>
-        </is>
-      </c>
-      <c r="C23" s="126" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Devolución</t>
-        </is>
-      </c>
-      <c r="D23" s="32" t="inlineStr">
-        <is>
-          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: TODOS 
-Operativo de Destino: TODOS 
-2. Los envíos en estado “Devolución” SOLO podrán ser vistos por el “BackOffice” de cartería  (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
-        </is>
-      </c>
-      <c r="E23" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Devolución)
-Acción (No hay acciones disponibles para este estado)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="147" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B24" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Pte. Recibir”</t>
-        </is>
-      </c>
-      <c r="C24" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Pte. Recibir</t>
-        </is>
-      </c>
-      <c r="D24" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Recibir", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. REEXPEDIR mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Incorporar Reexpedido
-Se activa HU-119 Incorporar Reexpedido (Entradas) (Back Office)
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
-        </is>
-      </c>
-      <c r="E24" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Reexpedir)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="147" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B25" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Pte. Reexpedir”</t>
-        </is>
-      </c>
-      <c r="C25" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Pte. Reexpedir</t>
-        </is>
-      </c>
-      <c r="D25" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Reexpedir", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. REEXPEDIR mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Anular envío
-Se activa HU-103	Anular envío (Acción)  (Back Office)
-Confirmar  Reexpedido
-Se activa HU-134	Confirmar Reexpedido 
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E25" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Reexpedir)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="147" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B26" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Reexpedido”</t>
-        </is>
-      </c>
-      <c r="C26" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Reexpedido</t>
-        </is>
-      </c>
-      <c r="D26" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado con las entradas que ha “Reexpedido” el operador de la cartería origen, con sus respectivos detalles. 
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: REEXPEDIDO una vez el envío se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, RECEPCIONADO una vez el envío se ha incorporado en el operativo de destino.
-Notas: Una vez que el envío ha sido reexpedido por el operador de origen, pasará a estar en estado "Recepcionado" por el operador de destino, y el envío deberá seguir el “flujo de entradas” establecido según la configuración inicial. Es importante considerar que, cuando se registró la entrada y el envío se digitalizó, en este nuevo flujo este paso deberá omitirse para evitar redundancias. Esto asegura que el proceso sea más eficiente y evita la duplicación de registros, permitiendo un seguimiento más claro y preciso de cada envío. Además, se debe garantizar que cualquier omisión de pasos no afecte la integridad de los datos ni la trazabilidad del envío a lo largo de todo su recorrido.
-Es posible que el destinatario cambie el punto de entrega después de la reexpedición del operador de origen. En tal caso, es posible que el operador de destino inicial ya no sea el correcto cuando llegue el reexpedido, por lo que se debería volver a reexpedir al nuevo operador de destino.
-Adicionalmente, se deben considerar las siguientes situaciones:
-Cuando un usuario cambia su punto de entrega a uno gestionado por otro operador, ya sea porque el edificio cambia de operador, el punto de entrega cambia de edificio, el usuario cambia su punto de entrega o el administrador del cliente cambia el punto de entrega del usuario, se deben establecer todos los envíos con estado "Pte. de distribución" y "Recoger en cartería" a "Pte. Reexpedir".
-Al cerrar una ronda, se debe comprobar para todos los envíos no entregados si el destinatario tiene un punto de entrega gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
-Cuando se reincorpora una entrada al circuito físico después de digitalizarse, también se debe comprobar si el destinatario tiene un punto de entrega gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
-Cuando se incorpora un envío reexpedido desde otro operador, se debe verificar si el punto de entrega actual del destinatario está gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
-        </is>
-      </c>
-      <c r="E26" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Reexpedido)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="147" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B27" s="148" t="inlineStr">
-        <is>
-          <t>Ver detalle del envío</t>
-        </is>
-      </c>
-      <c r="C27" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” , visualizando el Listado de envíos de cualquier estado, cuando haga clic en un envío en específico,</t>
-        </is>
-      </c>
-      <c r="D27" s="32" t="inlineStr">
-        <is>
-          <t>El sistema mostrará información con el detalle del envío seleccionado. Se Activa la HU-005 Ver el detalle del registro de entrada seleccionado</t>
-        </is>
-      </c>
-      <c r="E27" s="32" t="n"/>
-    </row>
-    <row r="28" ht="16.2" customHeight="1" s="212">
-      <c r="A28" s="147" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B28" s="126" t="inlineStr">
-        <is>
-          <t>Editar información del envío</t>
-        </is>
-      </c>
-      <c r="C28" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” , visualizando el Listado de envíos de cualquier estado y desee editar la información del registro seleccionado,</t>
-        </is>
-      </c>
-      <c r="D28" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E28" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Editar Envío</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="16.2" customHeight="1" s="212">
-      <c r="A29" s="147" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B29" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Crear Incidencia”</t>
-        </is>
-      </c>
-      <c r="C29" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado (excepto Incidencia), cuando haga clic en la acción  “Crear Incidencia”</t>
-        </is>
-      </c>
-      <c r="D29" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-011 Crear Incidencia</t>
-        </is>
-      </c>
-      <c r="E29" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Crear Incidencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="16.2" customHeight="1" s="212">
-      <c r="A30" s="147" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B30" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Enviar Mensaje”</t>
-        </is>
-      </c>
-      <c r="C30" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado, cuando haga clic en la acción “Enviar Mensaje”</t>
-        </is>
-      </c>
-      <c r="D30" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-102 Enviar Mensaje (Acción)</t>
-        </is>
-      </c>
-      <c r="E30" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Enviar Mensaje</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="16.2" customHeight="1" s="212">
-      <c r="A31" s="147" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B31" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Anular envío”</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado, cuando haga clic en la acción “Anular envío”</t>
-        </is>
-      </c>
-      <c r="D31" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-103 Anular envío (Acción)</t>
-        </is>
-      </c>
-      <c r="E31" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Anular envío</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="16.2" customHeight="1" s="212">
-      <c r="A32" s="147" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B32" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Recuperación envío físico”</t>
-        </is>
-      </c>
-      <c r="C32" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos del estado “Archivo temporal”, cuando haga clic en la acción  “Recuperar envío físico”</t>
-        </is>
-      </c>
-      <c r="D32" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-150 Recuperar Envíos Físicos por el Usuario de BackOffice</t>
-        </is>
-      </c>
-      <c r="E32" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Recuperar envío físico</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="16.2" customHeight="1" s="212">
-      <c r="A33" s="147" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B33" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Cerrar Incidencia”</t>
-        </is>
-      </c>
-      <c r="C33" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos en estado “Incidencia”, cuando haga clic en la acción “Cerrar Incidencia”</t>
-        </is>
-      </c>
-      <c r="D33" s="148" t="inlineStr">
-        <is>
-          <t>Se Activa la  HU-132 Cerrar Incidencia</t>
-        </is>
-      </c>
-      <c r="E33" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Cerrar Incidencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="16.2" customHeight="1" s="212">
-      <c r="A34" s="147" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B34" s="148" t="inlineStr">
-        <is>
-          <t>Selección de uno o varios registros</t>
-        </is>
-      </c>
-      <c r="C34" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado,
-Cuando requiere seleccionar uno o varios registros para realizar una acción de la “Barra de botones dinámica” sobre el (los) registro(s) seleccionado(s),</t>
-        </is>
-      </c>
-      <c r="D34" s="32" t="inlineStr">
-        <is>
-          <t>El sistema debe mostrar un checklist en cada envío, cada vez que el usuario seleccione un registro en la parte superior de la tabla le mostrará un contador de registros. Ej. “3 registros seleccionados”.
-2024-09-13: Se adiciona lo siguiente para tener en cuenta:
-El sistema debe permitir seleccionar varios registros entre las diferentes páginas del listado, sin perder la selección anterior o posterior.</t>
-        </is>
-      </c>
-      <c r="E34" s="150" t="inlineStr">
-        <is>
-          <t>• Checklist “Seleccionar envío”</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="16.2" customHeight="1" s="212">
-      <c r="A35" s="147" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B35" s="148" t="inlineStr">
-        <is>
-          <t>Seleccionar Todos los registros</t>
-        </is>
-      </c>
-      <c r="C35" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado,
-Cuando requiere seleccionar todos los registros y da clic sobre el checklist “Seleccionar todo” para  realizar una acción de la “Barra de botones dinámica”,</t>
-        </is>
-      </c>
-      <c r="D35" s="32" t="inlineStr">
-        <is>
-          <t>El sistema debe seleccionar todos los registros de la página donde se encuentra, mostrando el número de registros seleccionados.</t>
-        </is>
-      </c>
-      <c r="E35" s="32" t="inlineStr">
-        <is>
-          <t>• Checklist “Seleccionar todo”</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="16.2" customHeight="1" s="212">
-      <c r="A36" s="147" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B36" s="148" t="inlineStr">
-        <is>
-          <t>Activar/Desactivar Celdas</t>
-        </is>
-      </c>
-      <c r="C36" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y desea visualizar más a detalle los registros de entrada,</t>
-        </is>
-      </c>
-      <c r="D36" s="32" t="inlineStr">
-        <is>
-          <t>El sistema permitirá al usuario:
-Activar celdas:
-Al activar esta opción  el sistema expandirá la vista de la tabla para mostrar información secundaria de cada registro de entrada que se está visualizando.
-No se requiere selección de registros específicos, la expansión aplicará a todos los registros visibles en la tabla.
-Desactivar celdas
-Activar la sección "Desactivar Celdas" para regresar a la vista inicial de la tabla. Al presionar sobre esta opción, el sistema ocultará la información secundaria y mostrará nuevamente la vista compacta de la tabla.
-El usuario continuará viendo la misma sección de la tabla que estaba visualizando antes de desactivar la expansión.</t>
-        </is>
-      </c>
-      <c r="E36" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Activar Celdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="16.2" customHeight="1" s="212">
-      <c r="A37" s="147" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B37" s="148" t="inlineStr">
-        <is>
-          <t>Información secundaria</t>
-        </is>
-      </c>
-      <c r="C37" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”y desea visualizar la información secundaria de un envío en específico, al pasar el cursor sobre  dicho envío,</t>
-        </is>
-      </c>
-      <c r="D37" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá expandir la vista del registro y automáticamente mostrar la información secundaria del envío.</t>
-        </is>
-      </c>
-      <c r="E37" s="32" t="n"/>
-    </row>
-    <row r="38" ht="16.2" customHeight="1" s="212">
-      <c r="A38" s="147" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B38" s="148" t="inlineStr">
-        <is>
-          <t>Filtros tabla</t>
-        </is>
-      </c>
-      <c r="C38" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” en cualquiera de los estados y presiona sobre Icono filtro (),</t>
-        </is>
-      </c>
-      <c r="D38" s="32" t="inlineStr">
-        <is>
-          <t>Si la sección filtrado está deshabilitada el sistema debe habilitar la sección de filtrado en la tabla. 
-Si la sección filtrado está habilitada el sistema debe deshabilitar la sección de filtrado en la tabla.</t>
-        </is>
-      </c>
-      <c r="E38" s="32" t="inlineStr">
-        <is>
-          <t>Tener en cuenta que esto solo será visible cuando la sección de filtrado esté habilitada.
-Filtros:
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado
-Botones:
-Borrar
-Aplicar</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="16.2" customHeight="1" s="212">
-      <c r="A39" s="147" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B39" s="148" t="inlineStr">
-        <is>
-          <t>Filtros</t>
-        </is>
-      </c>
-      <c r="C39" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y diligencie alguno de los filtros del panel de filtrado,</t>
-        </is>
-      </c>
-      <c r="D39" s="32" t="inlineStr">
-        <is>
-          <t>Estos deben ser un campo de entrada de texto.
-El sistema solo debe permitir escribir caracteres alfanuméricos.
-Por defecto los campos deben estar vacíos.
-Los filtros de texto por defecto deben ser del tipo "Contains" y ser indistintas las mayúsculas y las minúsculas (Case Insensitive) y a los "acentos"  (a=á=ä=à=â) (Accent Insensitive).</t>
-        </is>
-      </c>
-      <c r="E39" s="32" t="n"/>
-    </row>
-    <row r="40" ht="16.2" customHeight="1" s="212">
-      <c r="A40" s="147" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B40" s="148" t="inlineStr">
-        <is>
-          <t>Filtro Estado</t>
-        </is>
-      </c>
-      <c r="C40" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar,  y desee ver los registros por estado,</t>
-        </is>
-      </c>
-      <c r="D40" s="151" t="inlineStr">
-        <is>
-          <t>Por defecto el filtro estará establecido de acuerdo al estado que el usuario ha seleccionado y el usuario NO podrá seleccionar ningún otro estado para filtrar.</t>
-        </is>
-      </c>
-      <c r="E40" s="148" t="n"/>
-    </row>
-    <row r="41" ht="16.2" customHeight="1" s="212">
-      <c r="A41" s="147" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B41" s="148" t="inlineStr">
-        <is>
-          <t>Aplicar filtros</t>
-        </is>
-      </c>
-      <c r="C41" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar, al  dar clic en el botón “Aplicar”,</t>
-        </is>
-      </c>
-      <c r="D41" s="151" t="inlineStr">
-        <is>
-          <t>El sistema debe mostrar en la tabla los registros.
-Al no encontrar registros debe aparecer el mensaje “No existen registros” en la tabla.</t>
-        </is>
-      </c>
-      <c r="E41" s="148" t="inlineStr">
-        <is>
-          <t>Botón:
-Aplicar</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="16.2" customHeight="1" s="212">
-      <c r="A42" s="147" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B42" s="148" t="inlineStr">
-        <is>
-          <t>Limpiar filtros</t>
-        </is>
-      </c>
-      <c r="C42" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar, al  dar clic en el botón “Borrar” o deshabilita la sección de filtrado,</t>
-        </is>
-      </c>
-      <c r="D42" s="151" t="inlineStr">
-        <is>
-          <t>El sistema debe regresar todos los filtros a su estado por defecto.
-En la tabla deben aparecer todos los registros.</t>
-        </is>
-      </c>
-      <c r="E42" s="148" t="inlineStr">
-        <is>
-          <t>Botón:
-Borrar</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="16.2" customHeight="1" s="212">
-      <c r="A43" s="147" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B43" s="126" t="inlineStr">
-        <is>
-          <t>Exportar información</t>
-        </is>
-      </c>
-      <c r="C43" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y desea exportar la información visualizada, cuando hace clic en la opción “Acciones de datos” &gt; “Exportar”</t>
-        </is>
-      </c>
-      <c r="D43" s="32" t="inlineStr">
-        <is>
-          <t>El sistema permitirá exportar la información del listado teniendo en cuenta los filtros que se hayan aplicado. Se activa HU-056 Exportación de datos</t>
-        </is>
-      </c>
-      <c r="E43" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Exportar</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="16.2" customHeight="1" s="212">
-      <c r="A44" s="147" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B44" s="126" t="inlineStr">
-        <is>
-          <t>Paginado y Desplazamiento en Listados</t>
-        </is>
-      </c>
-      <c r="C44" s="32" t="inlineStr">
-        <is>
-          <t>Dado que se busca mejorar la visualización de listados en cada estado, cuando el usuario acceda a cualquier lista de estados,</t>
-        </is>
-      </c>
-      <c r="D44" s="32" t="inlineStr">
-        <is>
-          <t>Si la totalidad de los registros no alcanzan a mostrarse en pantalla, la información se mostrará paginada y con barras de desplazamiento. Se activa HU-098  (Paginado de tablas).</t>
-        </is>
-      </c>
-      <c r="E44" s="32" t="n"/>
-    </row>
-    <row r="45" ht="16.2" customHeight="1" s="212">
-      <c r="A45" s="147" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B45" s="32" t="n"/>
-      <c r="C45" s="32" t="n"/>
-      <c r="D45" s="32" t="n"/>
-      <c r="E45" s="32" t="n"/>
-    </row>
-    <row r="46" ht="16.2" customHeight="1" s="212">
-      <c r="A46" s="147" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B46" s="32" t="n"/>
-      <c r="C46" s="32" t="n"/>
-      <c r="D46" s="32" t="n"/>
-      <c r="E46" s="32" t="n"/>
-    </row>
-    <row r="47" ht="16.2" customHeight="1" s="212">
-      <c r="A47" s="147" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B47" s="32" t="n"/>
-      <c r="C47" s="32" t="n"/>
-      <c r="D47" s="32" t="n"/>
-      <c r="E47" s="32" t="n"/>
-    </row>
-    <row r="48" ht="16.2" customHeight="1" s="212">
-      <c r="A48" s="147" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B48" s="32" t="n"/>
-      <c r="C48" s="32" t="n"/>
-      <c r="D48" s="32" t="n"/>
-      <c r="E48" s="32" t="n"/>
-    </row>
-    <row r="49" ht="16.2" customHeight="1" s="212">
-      <c r="A49" s="147" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B49" s="32" t="n"/>
-      <c r="C49" s="32" t="n"/>
-      <c r="D49" s="32" t="n"/>
-      <c r="E49" s="32" t="n"/>
-    </row>
-    <row r="50" ht="16.2" customHeight="1" s="212">
-      <c r="A50" s="147" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B50" s="148" t="n"/>
-      <c r="C50" s="32" t="n"/>
-      <c r="D50" s="32" t="n"/>
-      <c r="E50" s="32" t="n"/>
-    </row>
-    <row r="51" ht="16.2" customHeight="1" s="212">
-      <c r="A51" s="147" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B51" s="148" t="n"/>
-      <c r="C51" s="32" t="n"/>
-      <c r="D51" s="32" t="n"/>
-      <c r="E51" s="32" t="n"/>
-    </row>
-    <row r="52" ht="16.2" customHeight="1" s="212">
-      <c r="A52" s="147" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B52" s="148" t="n"/>
-      <c r="C52" s="32" t="n"/>
-      <c r="D52" s="32" t="n"/>
-      <c r="E52" s="32" t="n"/>
-    </row>
-    <row r="53" ht="16.2" customHeight="1" s="212">
-      <c r="A53" s="147" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B53" s="148" t="n"/>
-      <c r="C53" s="32" t="n"/>
-      <c r="D53" s="32" t="n"/>
-      <c r="E53" s="32" t="n"/>
-    </row>
-    <row r="54" ht="16.2" customHeight="1" s="212">
-      <c r="A54" s="147" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B54" s="148" t="n"/>
-      <c r="C54" s="32" t="n"/>
-      <c r="D54" s="32" t="n"/>
-      <c r="E54" s="32" t="n"/>
-    </row>
-    <row r="55" ht="16.2" customHeight="1" s="212">
-      <c r="A55" s="147" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B55" s="32" t="n"/>
-      <c r="C55" s="32" t="n"/>
-      <c r="D55" s="32" t="n"/>
-      <c r="E55" s="32" t="n"/>
-    </row>
-    <row r="56" ht="16.2" customHeight="1" s="212">
-      <c r="A56" s="147" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B56" s="32" t="n"/>
-      <c r="C56" s="32" t="n"/>
-      <c r="D56" s="32" t="n"/>
-      <c r="E56" s="32" t="n"/>
-    </row>
-    <row r="57" ht="16.2" customHeight="1" s="212">
-      <c r="A57" s="147" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B57" s="32" t="n"/>
-      <c r="C57" s="32" t="n"/>
-      <c r="D57" s="32" t="n"/>
-      <c r="E57" s="32" t="n"/>
-    </row>
-    <row r="58" ht="16.2" customHeight="1" s="212">
-      <c r="A58" s="147" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B58" s="32" t="n"/>
-      <c r="C58" s="32" t="n"/>
-      <c r="D58" s="32" t="n"/>
-      <c r="E58" s="32" t="n"/>
-    </row>
-    <row r="59" ht="16.2" customHeight="1" s="212">
-      <c r="A59" s="147" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B59" s="32" t="n"/>
-      <c r="C59" s="32" t="n"/>
-      <c r="D59" s="32" t="n"/>
-      <c r="E59" s="32" t="n"/>
-    </row>
-    <row r="60" ht="16.2" customHeight="1" s="212">
-      <c r="A60" s="147" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B60" s="32" t="n"/>
-      <c r="C60" s="32" t="n"/>
-      <c r="D60" s="32" t="n"/>
-      <c r="E60" s="32" t="n"/>
-    </row>
-    <row r="61" ht="16.2" customHeight="1" s="212">
-      <c r="A61" s="147" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B61" s="32" t="n"/>
-      <c r="C61" s="32" t="n"/>
-      <c r="D61" s="32" t="n"/>
-      <c r="E61" s="32" t="n"/>
-    </row>
-    <row r="62" ht="16.2" customHeight="1" s="212">
-      <c r="A62" s="147" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B62" s="32" t="n"/>
-      <c r="C62" s="32" t="n"/>
-      <c r="D62" s="32" t="n"/>
-      <c r="E62" s="32" t="n"/>
-    </row>
-    <row r="63" ht="16.2" customHeight="1" s="212">
-      <c r="A63" s="147" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B63" s="32" t="n"/>
-      <c r="C63" s="32" t="n"/>
-      <c r="D63" s="32" t="n"/>
-      <c r="E63" s="32" t="n"/>
-    </row>
-    <row r="64" ht="16.2" customHeight="1" s="212">
-      <c r="A64" s="147" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B64" s="32" t="n"/>
-      <c r="C64" s="32" t="n"/>
-      <c r="D64" s="32" t="n"/>
-      <c r="E64" s="32" t="n"/>
-    </row>
-    <row r="65" ht="16.2" customHeight="1" s="212">
-      <c r="A65" s="147" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B65" s="32" t="n"/>
-      <c r="C65" s="32" t="n"/>
-      <c r="D65" s="32" t="n"/>
-      <c r="E65" s="32" t="n"/>
-    </row>
-    <row r="66" ht="16.2" customHeight="1" s="212">
-      <c r="A66" s="147" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B66" s="32" t="n"/>
-      <c r="C66" s="32" t="n"/>
-      <c r="D66" s="32" t="n"/>
-      <c r="E66" s="32" t="n"/>
-    </row>
-    <row r="67" ht="16.2" customHeight="1" s="212">
-      <c r="A67" s="147" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B67" s="32" t="n"/>
-      <c r="C67" s="32" t="n"/>
-      <c r="D67" s="32" t="n"/>
-      <c r="E67" s="32" t="n"/>
-    </row>
-    <row r="68" ht="16.2" customHeight="1" s="212">
-      <c r="A68" s="147" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B68" s="32" t="n"/>
-      <c r="C68" s="32" t="n"/>
-      <c r="D68" s="32" t="n"/>
-      <c r="E68" s="32" t="n"/>
-    </row>
-    <row r="69" ht="16.2" customHeight="1" s="212">
-      <c r="A69" s="147" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B69" s="32" t="n"/>
-      <c r="C69" s="32" t="n"/>
-      <c r="D69" s="32" t="n"/>
-      <c r="E69" s="32" t="n"/>
-    </row>
-    <row r="70" ht="16.2" customHeight="1" s="212">
-      <c r="A70" s="147" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B70" s="32" t="n"/>
-      <c r="C70" s="32" t="n"/>
-      <c r="D70" s="32" t="n"/>
-      <c r="E70" s="32" t="n"/>
-    </row>
-    <row r="71" ht="16.2" customHeight="1" s="212">
-      <c r="A71" s="147" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B71" s="32" t="n"/>
-      <c r="C71" s="32" t="n"/>
-      <c r="D71" s="32" t="n"/>
-      <c r="E71" s="32" t="n"/>
-    </row>
-    <row r="72" ht="16.2" customHeight="1" s="212">
-      <c r="A72" s="147" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B72" s="32" t="n"/>
-      <c r="C72" s="32" t="n"/>
-      <c r="D72" s="32" t="n"/>
-      <c r="E72" s="32" t="n"/>
-    </row>
-    <row r="73" ht="16.2" customHeight="1" s="212">
-      <c r="A73" s="147" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B73" s="32" t="n"/>
-      <c r="C73" s="32" t="n"/>
-      <c r="D73" s="32" t="n"/>
-      <c r="E73" s="32" t="n"/>
-    </row>
-    <row r="74" ht="16.2" customHeight="1" s="212">
-      <c r="A74" s="147" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B74" s="32" t="n"/>
-      <c r="C74" s="32" t="n"/>
-      <c r="D74" s="32" t="n"/>
-      <c r="E74" s="32" t="n"/>
-    </row>
-    <row r="75" ht="16.2" customHeight="1" s="212">
-      <c r="A75" s="147" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B75" s="32" t="n"/>
-      <c r="C75" s="32" t="n"/>
-      <c r="D75" s="32" t="n"/>
-      <c r="E75" s="32" t="n"/>
-    </row>
-    <row r="76" ht="16.2" customHeight="1" s="212">
-      <c r="A76" s="147" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B76" s="32" t="n"/>
-      <c r="C76" s="32" t="n"/>
-      <c r="D76" s="32" t="n"/>
-      <c r="E76" s="32" t="n"/>
-    </row>
-    <row r="77" ht="16.2" customHeight="1" s="212">
-      <c r="A77" s="147" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B77" s="32" t="n"/>
-      <c r="C77" s="32" t="n"/>
-      <c r="D77" s="32" t="n"/>
-      <c r="E77" s="32" t="n"/>
-    </row>
-    <row r="78" ht="16.2" customHeight="1" s="212">
-      <c r="A78" s="147" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B78" s="32" t="n"/>
-      <c r="C78" s="32" t="n"/>
-      <c r="D78" s="32" t="n"/>
-      <c r="E78" s="32" t="n"/>
-    </row>
-    <row r="79" ht="16.2" customHeight="1" s="212">
-      <c r="A79" s="147" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B79" s="32" t="n"/>
-      <c r="C79" s="32" t="n"/>
-      <c r="D79" s="32" t="n"/>
-      <c r="E79" s="32" t="n"/>
-    </row>
-    <row r="80" ht="16.2" customHeight="1" s="212">
-      <c r="A80" s="147" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B80" s="32" t="n"/>
-      <c r="C80" s="32" t="n"/>
-      <c r="D80" s="32" t="n"/>
-      <c r="E80" s="32" t="n"/>
-    </row>
-    <row r="81" ht="16.2" customHeight="1" s="212">
-      <c r="A81" s="147" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B81" s="32" t="n"/>
-      <c r="C81" s="32" t="n"/>
-      <c r="D81" s="32" t="n"/>
-      <c r="E81" s="32" t="n"/>
-    </row>
-    <row r="82" ht="16.2" customHeight="1" s="212">
-      <c r="A82" s="147" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B82" s="32" t="n"/>
-      <c r="C82" s="32" t="n"/>
-      <c r="D82" s="32" t="n"/>
-      <c r="E82" s="32" t="n"/>
-    </row>
-    <row r="83" ht="16.2" customHeight="1" s="212">
-      <c r="A83" s="147" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B83" s="32" t="n"/>
-      <c r="C83" s="32" t="n"/>
-      <c r="D83" s="32" t="n"/>
-      <c r="E83" s="32" t="n"/>
-    </row>
-    <row r="84" ht="16.2" customHeight="1" s="212">
-      <c r="A84" s="147" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B84" s="32" t="n"/>
-      <c r="C84" s="32" t="n"/>
-      <c r="D84" s="32" t="n"/>
-      <c r="E84" s="32" t="n"/>
-    </row>
-    <row r="85" ht="16.2" customHeight="1" s="212">
-      <c r="A85" s="147" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B85" s="32" t="n"/>
-      <c r="C85" s="32" t="n"/>
-      <c r="D85" s="32" t="n"/>
-      <c r="E85" s="32" t="n"/>
-    </row>
-    <row r="86" ht="16.2" customHeight="1" s="212">
-      <c r="A86" s="147" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B86" s="32" t="n"/>
-      <c r="C86" s="32" t="n"/>
-      <c r="D86" s="32" t="n"/>
-      <c r="E86" s="32" t="n"/>
-    </row>
-    <row r="87" ht="16.2" customHeight="1" s="212">
-      <c r="A87" s="147" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B87" s="32" t="n"/>
-      <c r="C87" s="32" t="n"/>
-      <c r="D87" s="32" t="n"/>
-      <c r="E87" s="32" t="n"/>
-    </row>
-    <row r="88" ht="16.2" customHeight="1" s="212">
-      <c r="A88" s="147" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B88" s="32" t="n"/>
-      <c r="C88" s="32" t="n"/>
-      <c r="D88" s="32" t="n"/>
-      <c r="E88" s="32" t="n"/>
-    </row>
-    <row r="89" ht="16.2" customHeight="1" s="212">
-      <c r="A89" s="147" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B89" s="32" t="n"/>
-      <c r="C89" s="32" t="n"/>
-      <c r="D89" s="32" t="n"/>
-      <c r="E89" s="32" t="n"/>
-    </row>
-    <row r="90" ht="16.2" customHeight="1" s="212">
-      <c r="A90" s="147" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B90" s="32" t="n"/>
-      <c r="C90" s="32" t="n"/>
-      <c r="D90" s="32" t="n"/>
-      <c r="E90" s="32" t="n"/>
-    </row>
-    <row r="91" ht="16.2" customHeight="1" s="212">
-      <c r="A91" s="147" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B91" s="32" t="n"/>
-      <c r="C91" s="32" t="n"/>
-      <c r="D91" s="32" t="n"/>
-      <c r="E91" s="32" t="n"/>
-    </row>
-    <row r="92" ht="16.2" customHeight="1" s="212">
-      <c r="A92" s="147" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="B92" s="32" t="n"/>
-      <c r="C92" s="32" t="n"/>
-      <c r="D92" s="32" t="n"/>
-      <c r="E92" s="32" t="n"/>
-    </row>
-    <row r="93" ht="16.2" customHeight="1" s="212">
-      <c r="A93" s="147" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="B93" s="32" t="n"/>
-      <c r="C93" s="32" t="n"/>
-      <c r="D93" s="32" t="n"/>
-      <c r="E93" s="32" t="n"/>
-    </row>
-    <row r="94" ht="16.2" customHeight="1" s="212">
-      <c r="A94" s="147" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B94" s="32" t="n"/>
-      <c r="C94" s="32" t="n"/>
-      <c r="D94" s="32" t="n"/>
-      <c r="E94" s="32" t="n"/>
-    </row>
-    <row r="95" ht="16.2" customHeight="1" s="212">
-      <c r="A95" s="147" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="B95" s="32" t="n"/>
-      <c r="C95" s="32" t="n"/>
-      <c r="D95" s="32" t="n"/>
-      <c r="E95" s="32" t="n"/>
-    </row>
-    <row r="96" ht="16.2" customHeight="1" s="212">
-      <c r="A96" s="147" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B96" s="32" t="n"/>
-      <c r="C96" s="32" t="n"/>
-      <c r="D96" s="32" t="n"/>
-      <c r="E96" s="32" t="n"/>
-    </row>
-    <row r="97" ht="16.2" customHeight="1" s="212">
-      <c r="A97" s="147" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B97" s="32" t="n"/>
-      <c r="C97" s="32" t="n"/>
-      <c r="D97" s="32" t="n"/>
-      <c r="E97" s="32" t="n"/>
-    </row>
-    <row r="98" ht="16.2" customHeight="1" s="212">
-      <c r="A98" s="147" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B98" s="32" t="n"/>
-      <c r="C98" s="32" t="n"/>
-      <c r="D98" s="32" t="n"/>
-      <c r="E98" s="32" t="n"/>
-    </row>
-    <row r="99" ht="16.2" customHeight="1" s="212">
-      <c r="A99" s="147" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B99" s="32" t="n"/>
-      <c r="C99" s="32" t="n"/>
-      <c r="D99" s="32" t="n"/>
-      <c r="E99" s="32" t="n"/>
-    </row>
-    <row r="100" ht="16.2" customHeight="1" s="212">
-      <c r="A100" s="147" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B100" s="32" t="n"/>
-      <c r="C100" s="32" t="n"/>
-      <c r="D100" s="32" t="n"/>
-      <c r="E100" s="32" t="n"/>
-    </row>
-    <row r="101" ht="16.2" customHeight="1" s="212">
-      <c r="A101" s="147" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B101" s="32" t="n"/>
-      <c r="C101" s="32" t="n"/>
-      <c r="D101" s="32" t="n"/>
-      <c r="E101" s="32" t="n"/>
-    </row>
-    <row r="102" ht="16.2" customHeight="1" s="212">
-      <c r="A102" s="147" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B102" s="32" t="n"/>
-      <c r="C102" s="32" t="n"/>
-      <c r="D102" s="32" t="n"/>
-      <c r="E102" s="32" t="n"/>
-    </row>
-    <row r="103" ht="16.2" customHeight="1" s="212">
-      <c r="A103" s="147" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B103" s="32" t="n"/>
-      <c r="C103" s="32" t="n"/>
-      <c r="D103" s="32" t="n"/>
-      <c r="E103" s="32" t="n"/>
-    </row>
-    <row r="104" ht="16.2" customHeight="1" s="212">
-      <c r="A104" s="147" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B104" s="32" t="n"/>
-      <c r="C104" s="32" t="n"/>
-      <c r="D104" s="32" t="n"/>
-      <c r="E104" s="32" t="n"/>
-    </row>
-    <row r="105" ht="16.2" customHeight="1" s="212">
-      <c r="A105" s="147" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B105" s="32" t="n"/>
-      <c r="C105" s="32" t="n"/>
-      <c r="D105" s="32" t="n"/>
-      <c r="E105" s="32" t="n"/>
-    </row>
-    <row r="106" ht="16.2" customHeight="1" s="212">
-      <c r="A106" s="147" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B106" s="32" t="n"/>
-      <c r="C106" s="32" t="n"/>
-      <c r="D106" s="32" t="n"/>
-      <c r="E106" s="32" t="n"/>
-    </row>
-    <row r="107" ht="16.2" customHeight="1" s="212">
-      <c r="A107" s="147" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B107" s="32" t="n"/>
-      <c r="C107" s="32" t="n"/>
-      <c r="D107" s="32" t="n"/>
-      <c r="E107" s="32" t="n"/>
-    </row>
+    <row r="7" ht="14.4" customHeight="1" s="212"/>
+    <row r="8" ht="14.4" customHeight="1" s="212"/>
+    <row r="9" ht="14.4" customHeight="1" s="212"/>
+    <row r="10" ht="14.4" customHeight="1" s="212"/>
+    <row r="11" ht="14.4" customHeight="1" s="212"/>
+    <row r="12" ht="14.4" customHeight="1" s="212"/>
+    <row r="13" ht="14.4" customHeight="1" s="212"/>
+    <row r="14" ht="14.4" customHeight="1" s="212"/>
+    <row r="15" ht="14.4" customHeight="1" s="212"/>
+    <row r="16" ht="14.4" customHeight="1" s="212"/>
+    <row r="17" ht="14.4" customHeight="1" s="212"/>
+    <row r="18" ht="14.4" customHeight="1" s="212"/>
+    <row r="19" ht="14.4" customHeight="1" s="212"/>
+    <row r="28" ht="16.2" customHeight="1" s="212"/>
+    <row r="29" ht="16.2" customHeight="1" s="212"/>
+    <row r="30" ht="16.2" customHeight="1" s="212"/>
+    <row r="31" ht="16.2" customHeight="1" s="212"/>
+    <row r="32" ht="16.2" customHeight="1" s="212"/>
+    <row r="33" ht="16.2" customHeight="1" s="212"/>
+    <row r="34" ht="16.2" customHeight="1" s="212"/>
+    <row r="35" ht="16.2" customHeight="1" s="212"/>
+    <row r="36" ht="16.2" customHeight="1" s="212"/>
+    <row r="37" ht="16.2" customHeight="1" s="212"/>
+    <row r="38" ht="16.2" customHeight="1" s="212"/>
+    <row r="39" ht="16.2" customHeight="1" s="212"/>
+    <row r="40" ht="16.2" customHeight="1" s="212"/>
+    <row r="41" ht="16.2" customHeight="1" s="212"/>
+    <row r="42" ht="16.2" customHeight="1" s="212"/>
+    <row r="43" ht="16.2" customHeight="1" s="212"/>
+    <row r="44" ht="16.2" customHeight="1" s="212"/>
+    <row r="45" ht="16.2" customHeight="1" s="212"/>
+    <row r="46" ht="16.2" customHeight="1" s="212"/>
+    <row r="47" ht="16.2" customHeight="1" s="212"/>
+    <row r="48" ht="16.2" customHeight="1" s="212"/>
+    <row r="49" ht="16.2" customHeight="1" s="212"/>
+    <row r="50" ht="16.2" customHeight="1" s="212"/>
+    <row r="51" ht="16.2" customHeight="1" s="212"/>
+    <row r="52" ht="16.2" customHeight="1" s="212"/>
+    <row r="53" ht="16.2" customHeight="1" s="212"/>
+    <row r="54" ht="16.2" customHeight="1" s="212"/>
+    <row r="55" ht="16.2" customHeight="1" s="212"/>
+    <row r="56" ht="16.2" customHeight="1" s="212"/>
+    <row r="57" ht="16.2" customHeight="1" s="212"/>
+    <row r="58" ht="16.2" customHeight="1" s="212"/>
+    <row r="59" ht="16.2" customHeight="1" s="212"/>
+    <row r="60" ht="16.2" customHeight="1" s="212"/>
+    <row r="61" ht="16.2" customHeight="1" s="212"/>
+    <row r="62" ht="16.2" customHeight="1" s="212"/>
+    <row r="63" ht="16.2" customHeight="1" s="212"/>
+    <row r="64" ht="16.2" customHeight="1" s="212"/>
+    <row r="65" ht="16.2" customHeight="1" s="212"/>
+    <row r="66" ht="16.2" customHeight="1" s="212"/>
+    <row r="67" ht="16.2" customHeight="1" s="212"/>
+    <row r="68" ht="16.2" customHeight="1" s="212"/>
+    <row r="69" ht="16.2" customHeight="1" s="212"/>
+    <row r="70" ht="16.2" customHeight="1" s="212"/>
+    <row r="71" ht="16.2" customHeight="1" s="212"/>
+    <row r="72" ht="16.2" customHeight="1" s="212"/>
+    <row r="73" ht="16.2" customHeight="1" s="212"/>
+    <row r="74" ht="16.2" customHeight="1" s="212"/>
+    <row r="75" ht="16.2" customHeight="1" s="212"/>
+    <row r="76" ht="16.2" customHeight="1" s="212"/>
+    <row r="77" ht="16.2" customHeight="1" s="212"/>
+    <row r="78" ht="16.2" customHeight="1" s="212"/>
+    <row r="79" ht="16.2" customHeight="1" s="212"/>
+    <row r="80" ht="16.2" customHeight="1" s="212"/>
+    <row r="81" ht="16.2" customHeight="1" s="212"/>
+    <row r="82" ht="16.2" customHeight="1" s="212"/>
+    <row r="83" ht="16.2" customHeight="1" s="212"/>
+    <row r="84" ht="16.2" customHeight="1" s="212"/>
+    <row r="85" ht="16.2" customHeight="1" s="212"/>
+    <row r="86" ht="16.2" customHeight="1" s="212"/>
+    <row r="87" ht="16.2" customHeight="1" s="212"/>
+    <row r="88" ht="16.2" customHeight="1" s="212"/>
+    <row r="89" ht="16.2" customHeight="1" s="212"/>
+    <row r="90" ht="16.2" customHeight="1" s="212"/>
+    <row r="91" ht="16.2" customHeight="1" s="212"/>
+    <row r="92" ht="16.2" customHeight="1" s="212"/>
+    <row r="93" ht="16.2" customHeight="1" s="212"/>
+    <row r="94" ht="16.2" customHeight="1" s="212"/>
+    <row r="95" ht="16.2" customHeight="1" s="212"/>
+    <row r="96" ht="16.2" customHeight="1" s="212"/>
+    <row r="97" ht="16.2" customHeight="1" s="212"/>
+    <row r="98" ht="16.2" customHeight="1" s="212"/>
+    <row r="99" ht="16.2" customHeight="1" s="212"/>
+    <row r="100" ht="16.2" customHeight="1" s="212"/>
+    <row r="101" ht="16.2" customHeight="1" s="212"/>
+    <row r="102" ht="16.2" customHeight="1" s="212"/>
+    <row r="103" ht="16.2" customHeight="1" s="212"/>
+    <row r="104" ht="16.2" customHeight="1" s="212"/>
+    <row r="105" ht="16.2" customHeight="1" s="212"/>
+    <row r="106" ht="16.2" customHeight="1" s="212"/>
+    <row r="107" ht="16.2" customHeight="1" s="212"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A3"/>
@@ -18172,8 +16115,8 @@
     <col width="24.33203125" customWidth="1" style="224" min="40" max="40"/>
     <col width="11.44140625" customWidth="1" style="5" min="41" max="41"/>
     <col width="19.21875" customWidth="1" style="5" min="42" max="42"/>
-    <col width="11.44140625" customWidth="1" style="5" min="43" max="51"/>
-    <col width="11.44140625" customWidth="1" style="5" min="52" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="5" min="43" max="55"/>
+    <col width="11.44140625" customWidth="1" style="5" min="56" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="212">
@@ -26990,8 +24933,8 @@
     <col width="106.21875" customWidth="1" style="50" min="10" max="10"/>
     <col width="6.21875" bestFit="1" customWidth="1" style="50" min="11" max="11"/>
     <col width="17.5546875" customWidth="1" style="50" min="12" max="12"/>
-    <col width="11.44140625" customWidth="1" style="50" min="13" max="21"/>
-    <col width="11.44140625" customWidth="1" style="50" min="22" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="50" min="13" max="25"/>
+    <col width="11.44140625" customWidth="1" style="50" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="44">
@@ -31473,8 +29416,8 @@
     <col width="43.33203125" customWidth="1" style="269" min="2" max="2"/>
     <col width="98.33203125" customWidth="1" style="269" min="3" max="3"/>
     <col width="27" customWidth="1" style="269" min="4" max="4"/>
-    <col width="11.44140625" customWidth="1" style="269" min="5" max="13"/>
-    <col width="11.44140625" customWidth="1" style="269" min="14" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="269" min="5" max="17"/>
+    <col width="11.44140625" customWidth="1" style="269" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31912,8 +29855,8 @@
     <col width="15.5546875" customWidth="1" style="269" min="4" max="4"/>
     <col width="24.5546875" bestFit="1" customWidth="1" style="269" min="5" max="5"/>
     <col width="8.6640625" customWidth="1" style="269" min="6" max="6"/>
-    <col width="11.44140625" customWidth="1" style="269" min="7" max="15"/>
-    <col width="11.44140625" customWidth="1" style="269" min="16" max="16384"/>
+    <col width="11.44140625" customWidth="1" style="269" min="7" max="19"/>
+    <col width="11.44140625" customWidth="1" style="269" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Archivos_imp/test.xlsx
+++ b/Archivos_imp/test.xlsx
@@ -2031,7 +2031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2171,2155 +2171,326 @@
       </c>
     </row>
     <row r="7" ht="14.4" customHeight="1" s="212">
-      <c r="A7" s="147" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B7" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas agrupadas por estado</t>
-        </is>
-      </c>
-      <c r="C7" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en el Controlador principal del BackOffice &gt; Módulo Cartería Inteligente &gt; Envíos físicos &gt; “Entradas - BackOffice”</t>
-        </is>
-      </c>
-      <c r="D7" s="152" t="inlineStr">
-        <is>
-          <t>Entonces el sistema:
-Mostrará un listado de “Entradas - BackOffice”  agrupadas mediante un TAG teniendo en cuenta el estado actual del envío. Ver (Tags/Estados entradas)
-Se mostrarán sólo los TAGS que contengan al menos un registro.
-El usuario podrá hacer clic en cualquier estado y el sistema mostrará el listado de envíos que correspondan con el estado seleccionado.
-Para cada TAG se mostrará el conteo de envíos, a excepción de la opción “Todos”.
-En la Ruta de “Miga de pan” se mostrará el TAG donde se encuentra ubicado el usuario.
-En la tabla que despliega los envíos, diferenciar los estados por color.
-Cada envío que se muestre en el listado debe tener opción de selección.
-Dependiendo del estado seleccionado  se mostrarán las acciones disponibles a realizar por el BackOffice. (Ver Acciones envíos de salida).
-La acción “Finalizar ronda” No es una acción que se ejecuta desde la pantalla principal del BackOffice en GIO, es una acción que se dispone y ejecuta desde el dispositivo usado en el proceso de Rondas (recogida y entrega).
-En la “Barra dinámica superior” se debe habilitar la acción Global “Leer Código QR”, que permite leer el QR de uno o más envíos y mostrar información relevante del envío. Se activa la  HU-133	Consulta de envíos por Código QR
-La acción “Leer Código QR” es global y siempre estará activa, independiente del tipo de servicio seleccionado (entrada, salida, correo interno) e independiente del estado seleccionado.</t>
-        </is>
-      </c>
-      <c r="E7" s="152" t="inlineStr">
-        <is>
-          <t>Los TAGs que se visualizará en el menú lateral izquierdo se definen según el estado del envío, así:
-Columnas a mostrar por defecto en cada listado (si el usuario no ha personalizado los campos a mostrar):
-ID GIO: Muestra el “Identificador del envío”.
-Información secundaria: 
-Código QR del envío.
-Tipo de envío:  Muestra el “Tipo de envío”.
-Información secundaria:
-“Creado”: Fecha-hora de creación del envío.
-Remitente: Muestra la información del campo “Remitente” de la entrada.
-Información secundaria: 
-Persona
-Ubicación
-Destinatario:   Cuando el destinatario es un “usuario” muestra  el “Nombre + apellidos” o cuando el destinatario es un “departamento” muestra el “Nombre del Departamento”.
-Información secundaria:
-Nombre del Departamento: cuando el destinatario es un “usuario”, de lo contrario no muestra información.
-Formato de entrega: Muestra el formato de entrega del envío.
-Ubicación: Muestra la información de la ubicación del punto de entrega del destinatario configurado para la entrega. Se deben mostrar los siguientes datos:
-PTOENTREGA.NOMBRE
-Información secundaria:
-PTOENTREGA.CODIGO
-EDIFICIO.NOMBRE
-PTOENTREGA.PLANTA
-PTOENTREGA.UBICACION
-EDIFICIO.POBLACION
-2024-07-16 se adiciona condiciones para la ubicación del destinatario
-Para el punto de entrega (ubicación) del destinatario se debe tener en cuenta el estado actual del envío:
-Si el estado actual del envío se encuentra configurado dentro de los estados de envío que requieren que se guarde el punto de entrega del "Destinatario" en las entregas (entrada, correo interno) al momento de la asignación del estado  [Extraviado, Entregado, Anulado, Archivo Definitivo, Devolución] se debe mostrar el “punto de entrega” que se almacenó en la “Trazabilidad de estados”  que corresponda a dicho estado.  
-Si el estado actual del envío NO se encuentra configurado dentro de los estados que requieren que se guarde el punto de entrega del "Destinatario" se debe mostrar el “punto de entrega” actual del destinatario.
-Nota: estos estados de envío que se configuren como que requieren almacenar el "punto de entrega" deben ser dinámicos, es decir que en cualquier momento deben poder adicionarse/quitarse estados que requieran almacenar este dato. Los estados a tener en cuenta son los configurados para el módulo de cartería inteligente.
-Estado: Muestra el “Estado” actual del envío.
-En información secundaria muestra:
-Fecha y hora en la que se asignó el estado del envío.
-Acción: Muestra las acciones individuales que podrá realizar el usuario dependiendo del estado del envío.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" s="212">
-      <c r="A8" s="147" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B8" s="152" t="inlineStr">
-        <is>
-          <t>Configurar columnas dinamicas</t>
-        </is>
-      </c>
-      <c r="C8" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la Pantalla “Entradas - BackOffice” sobre cualquier estados y desea personalizar las columnas del listado al presionar sobre el botón “Columnas”,</t>
-        </is>
-      </c>
-      <c r="D8" s="152" t="inlineStr">
-        <is>
-          <t>Los campos (columnas) que se muestran en el listado serán dinámicos, es decir, el usuario podrá configurar las columnas que desea ver o ocultar en el listado. Se activa HU-204 Configurar Columnas Dinámicas en Listados.</t>
-        </is>
-      </c>
-      <c r="E8" s="152" t="inlineStr">
-        <is>
-          <t>Botón:
-Columnas</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.4" customHeight="1" s="212">
-      <c r="A9" s="147" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B9" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar “Todos” los registros de entradas</t>
-        </is>
-      </c>
-      <c r="C9" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt;  Todos</t>
-        </is>
-      </c>
-      <c r="D9" s="152" t="inlineStr">
-        <is>
-          <t>El sistema mostrará un listado que incluirá todas las entradas.
-En esta opción no se contempla el conteo de envíos. 
-Los envíos en estado “Entregado” que han cumplido el tiempo configurado para archivo  se verán en “Todos”, según lo definido en la HU-130	Configuración de preferencias de Archivo  (Back Office).
-En la tabla que despliega los envíos, diferenciar los estados por color.
-Los envíos en estado “Anulado” podrán ser vistos por el “BackOffice” de cartería en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-130	Configuración de preferencias de Archivo  (Back Office).
-En la “zona activa” donde se muestran los envíos en la columna “Estado” se mostrará el estado actual del envío.
-Los envíos en estado “Extraviado” podrán ser vistos por el “BackOffice” en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-Los envíos en estado “Devolución” podrán ser vistos por el “BackOffice” en la sección “Todos”, estos no se verán en un estado aparte en el listado.</t>
-        </is>
-      </c>
-      <c r="E9" s="152" t="inlineStr">
-        <is>
-          <t>ID GIO
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Listado de  incidencias registradas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “cartería inteligente” y da clic en “Ayuda “ y luego da clic en “Centro de Incidencias”,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>El sistema debe mostrar una interfaz “Centro de Incidencias” donde se listen todas las incidencias registradas en el sistema ya sea que estén “Abiertas” o “Cerradas”, además de información relacionada con el envío.
+Las “incidencias” estarán ordenadas por fecha y hora, desde la más reciente al más antigua en forma descendente.
+Los estados de las incidencias deben diferenciarse por color.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Título interfaz:
+Centro de incidencias
+Tabla columnas por registro:
+Identificador GIO
 Tipo de envío
 Remitente
 Destinatario
 Formato de entrega
-Ubicación
-Estado (Todos los estados disponibles)
-Acciones individuales específicas</t>
+Ubicación entrega
+Estado de la incidencia (Fecha de creación se pone debajo de estado de incidencia)
+Motivo de incidencia
+Paginación de tabla:
+Se activa HU-098 Paginado de tablas
+Otros:
+Exportar CSV ()
+Filtro tabla ()</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" s="212">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Envíos con múltiples incidencias</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cuando un envío en concreto tiene asociadas más de una incidencia,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Se muestra el listado de incidencias pertenecientes al envío, ya sea en estado “Abierta” o “Cerrada”.
+Ejemplo:
+Si un envío tiene 3 incidencias se debe mostrar 3 veces en el listado de las incidencias.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1" s="212">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Detalle de la Incidencia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz "Centro de Incidencias" y da clic en cualquier registro de la tabla,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>El sistema debe mostrar la modal “Detalle de la Incidencia”, en la cual debe aparecer el detalle de la incidencia seleccionada y el detalle del envío. Se activan las siguientes historias según el tipo de servicio que se haya seleccionado (Entradas, Salidas, Correo interno, Envíos digitales):
+Entrada: Se activa la HU-005 Ver el detalle del registro de entrada seleccionado.
+Salida: Se activa la HU-018 Ver detalle de registro de salida seleccionado.
+Correo Interno: Se activa la HU-023 Ver Detalle del Correo Interno Seleccionado.
+Envío Digital: Se activa la HU-034 Ver Detalle del Envío Digital Seleccionado.</t>
         </is>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1" s="212">
-      <c r="A10" s="147" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B10" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas en estado “Recepcionado”</t>
-        </is>
-      </c>
-      <c r="C10" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Recepcionado</t>
-        </is>
-      </c>
-      <c r="D10" s="152" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará las entradas con estado “Recepcionado” con sus respectivos detalles. Aunque este estado es instantáneo, se incluye porque, en algunos casos, una entrada puede presentar errores en su proceso de recepción, impidiendo que continúe con el flujo.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: RECEPCIONADO mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, RECEPCIONADO una vez el envío se ha incorporado en el operativo de destino.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E10" s="152" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Filtros tabla</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz “Centro de Incidencias” y da clic en el icono filtro (),</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Si la función filtrado está deshabilitada el sistema debe habilitar la función de filtrado en la tabla.
+Si la sección filtrado está habilitada el sistema debe deshabilitar la sección de filtrado en la tabla.
+Todos los ítems de filtros que se hacen, se harán con entradas de texto para cada uno.
+Los filtros que se pueden aplicar sobre la tabla son los siguientes:
+Identificador GIO
 Tipo de envío
 Remitente
 Destinatario
 Formato de entrega
-Ubicación
-Estado (Recepcionado)
-Acciones individuales específicas</t>
+Ubicación entrega
+Estado de la incidencia
+Motivo de la incidencia
+Botones:
+Borrar
+Aplicar filtro
+La información que se presenta en la tabla son todas las incidencias que se han creado hasta el momento en la HU-011 Crear incidencia.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tener en cuenta que esto solo será visible cuando la sección de filtrado esté habilitada.</t>
         </is>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1" s="212">
-      <c r="A11" s="147" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="B11" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas “En custodia”</t>
-        </is>
-      </c>
-      <c r="C11" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    En custodia</t>
-        </is>
-      </c>
-      <c r="D11" s="152" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "En custodia", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: EN CUSTODIA mientras el envío no se ha reexpedido.
-Operativo de Destino: EN CUSTODIA una vez el envío se ha incorporado en el operativo de destino.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Anular envío
-Se activa HU-103	Anular envío (Acción)  (Back Office)
-Entrega en Cartería
-Se activa HU-108 Entrega en Cartería - Envíos físicos (Entradas)
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E11" s="152" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Filtros</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla de centro de incidencias y diligencie alguno de los filtros del panel de filtrado,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Estos deben ser un campo de entrada de texto.
+El sistema solo debe permitir escribir caracteres alfanuméricos.
+Por defecto los campos deben estar vacíos.
+Los filtros de texto por defecto deben ser del tipo "Contains" y ser indistintas las mayúsculas y las minúsculas (Case Insensitive) y a los "acentos"  (a=á=ä=à=â) (Accent Insensitive).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customHeight="1" s="212">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Botón: “Aplicar filtro”</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz “Centro de Incidencias” y dio clic en el ícono de  “Filtros”,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>El sistema debe listar los campos que cumplan con el criterio del filtro en la pantalla.
+Si el usuario da clic sobre el botón “Exportar”  se activa la HU-056 Exportación de datos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1" s="212">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Validación de campos de filtros</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre ingresando texto en los campos de los filtros,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>El sistema debe hacer validación en cada uno de los campos y mostrar sugerencias de textos de entrada.
+El sistema debe mostrar al usuario en caso que haya  un error en la entrada del campo de texto</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="14.4" customHeight="1" s="212">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Restablecer “Limpiar”</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cuando el usuario ingrese datos en cualquiera de los campos de la pantalla,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>El sistema deberá limpiar todos los campos de los campos de la pantalla para que el usuario pueda realizar otra búsqueda. 
+Los campos que se deben limpiar son:
+Identificador GIO
 Tipo de envío
 Remitente
 Destinatario
 Formato de entrega
-Ubicación
-Estado (En custodia)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" s="212">
-      <c r="A12" s="147" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="B12" s="152" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas  “Pte. Distribución”</t>
-        </is>
-      </c>
-      <c r="C12" s="152" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Pte. Distribución</t>
-        </is>
-      </c>
-      <c r="D12" s="152" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Distribución", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Los envíos con método de entrega “En mano”, en “Pto. Entrega” y en estado "Pte. Distribución" de un usuario destinatario que esté "Fuera de oficina" se deberán mostrar en un nuevo TAG "Fuera de oficina" para que el usuario no  visualice el envío junto  con los que sí se tienen que distribuir.  Los envíos con esta característica no se deben mostrar en el tag Pte. Distribución. 
-Nota: La propiedad “Fuera de Oficina” se define en las HU (HU-045 Establecer punto de entrega físico) y (HU-070 Configuración de la solución de Cartería Usuario Cliente )
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. DISTRIBUCIÓN mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. DISTRIBUCIÓN una vez el envío se ha incorporado en el operativo de destino.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Anular envío
-Se activa HU-103	Anular envío (Acción)  (Back Office)
-Entrega en Cartería
-Se activa HU-108 Entrega en Cartería - Envíos físicos (Entradas)
-Acciones Generales SIN selección de envíos
-Antes de la ejecución de la acción no es necesario que el usuario seleccione envíos.
-Acciones que se mostrarán en la Barra dinámica superior:
-Iniciar Ronda
-Permite  al BackOffice iniciar la ronda para realizar la entrega de envíos.
-Se Activa laHU-152 Iniciar Ronda de Recogida - Recogida en mano &amp; En Punto de Entrega
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E12" s="152" t="inlineStr">
-        <is>
-          <t>ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Distribución)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1" s="212">
-      <c r="A13" s="147" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B13" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas  “En distribución”</t>
-        </is>
-      </c>
-      <c r="C13" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    En distribución</t>
-        </is>
-      </c>
-      <c r="D13" s="150" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Retorno circuito físico", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: EN DISTRIBUCIÓN mientras el envío no se ha reexpedido.
-Operativo de Destino: EN DISTRIBUCIÓN una vez el envío se ha incorporado en el operativo de destino.
-Acciones Generales en  Tablet
-Acción que se ejecuta en la tablet 
-Finalizar Ronda
-Permite  al BackOffice finalizar la ronda.
-Se Activa la HU-117 Finalizar ronda 
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
-        </is>
-      </c>
-      <c r="E13" s="150" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (En distribución)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.4" customHeight="1" s="212">
-      <c r="A14" s="147" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="B14" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas en estado “Entregado”</t>
-        </is>
-      </c>
-      <c r="C14" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Entregado</t>
-        </is>
-      </c>
-      <c r="D14" s="32" t="inlineStr">
-        <is>
-          <t>1. El usuario podrá visualizar estas entradas en el TAG "Entregado", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: ENTREGADO mientras el envío no se ha reexpedido.
-Operativo de Destino: ENTREGADO una vez el envío se ha incorporado en el operativo de destino.
-2. En esta sección el sistema debe mostrar las entradas entregadas que aún no han sido archivadas, de acuerdo con la configuración de Archivo establecida para el usuario en la HU-130 Configuración de preferencias de Archivo  (Back Office).
-Los envíos en estado “Reexpedido” cuando son entregados en el destino, funcionan con la regla de archivo de los entregados para ir a “Todos”, según lo definido en la HU-130 Configuración de preferencias de Archivo  (Back Office).
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office).</t>
-        </is>
-      </c>
-      <c r="E14" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Entregado)
-Acciones individuales específicas</t>
+Ubicación entrega
+Estado de la incidencia
+Motivo de la incidencia</t>
         </is>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="1" s="212">
-      <c r="A15" s="147" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="B15" s="126" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas  en estado “Digitalizado”</t>
-        </is>
-      </c>
-      <c r="C15" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Digitalizado (Estado virtual)</t>
-        </is>
-      </c>
-      <c r="D15" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Digitalizado", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: DIGITALIZADO mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, DIGITALIZADO una vez el envío se ha incorporado en el operativo de destino.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E15" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Digitalizado)
-Acciones individuales específicas</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paginado de tablas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz “Centro de Incidencias” visualizando el listado de incidencias,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Se activa la HU-098  Paginado de tablas
+*Funcionalidad a contemplar a nivel de Backend</t>
         </is>
       </c>
     </row>
     <row r="16" ht="14.4" customHeight="1" s="212">
-      <c r="A16" s="147" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B16" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Archivo temporal”</t>
-        </is>
-      </c>
-      <c r="C16" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Archivo temporal</t>
-        </is>
-      </c>
-      <c r="D16" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Archivo temporal", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: ARCHIVO TEMPORAL mientras el envío no se ha reexpedido.
-Operativo de Destino: No aplica.
-Acciones Generales SIN selección de envíos
-Antes de la ejecución de la acción no es necesario que el usuario seleccione envíos.
-Acciones que se mostrarán en la Barra dinámica superior:
-Gestión de archivadores
-Se activa HU-141 Gestionar Archivadores  (Back Office)
-Incorporar archivo definitivo
-2024-08-14 **Se activa HU-151 Proceso de Archivo Definitivo
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E16" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Archivo temporal)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="14.4" customHeight="1" s="212">
-      <c r="A17" s="147" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B17" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Pte. Recuperación archivo temporal”</t>
-        </is>
-      </c>
-      <c r="C17" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt;  para los envíos en estado   Pte. Recuperación archivo temporal</t>
-        </is>
-      </c>
-      <c r="D17" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Recuperación archivo temporal", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. RECUPERACIÓN ARCH. TEMP mientras el envío no se ha reexpedido
-Operativo de Destino: No aplica.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Extraer archivo temporal
-2024-08-14 *Se Activa la HU-150 Recuperar Envíos Físicos por el BackOffice.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E17" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Recuperación archivo temporal)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="14.4" customHeight="1" s="212">
-      <c r="A18" s="147" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B18" s="126" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Pte. Entrega archivo definitivo”</t>
-        </is>
-      </c>
-      <c r="C18" s="149" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado    Pte. Entrega archivo definitivo</t>
-        </is>
-      </c>
-      <c r="D18" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Entrega archivo definitivo", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. ENTREGA ARCH. DEFINITIVO mientras el envío no se ha reexpedido.
-Operativo de Destino: No aplica.
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Anular envío
-Se activa HU-103	Anular envío (Acción)  (Back Office)
-Acciones Generales SIN selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Extraer archivo definitivo
-Se activa la HU-151	 Proceso de Archivo Definitivo
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E18" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Entrega archivo definitivo)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="14.4" customHeight="1" s="212">
-      <c r="A19" s="147" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B19" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Archivo definitivo”</t>
-        </is>
-      </c>
-      <c r="C19" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado   Archivo definitivo</t>
-        </is>
-      </c>
-      <c r="D19" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Archivo definitivo", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: ARCHIVO DEFINITIVO mientras el envío no se ha reexpedido.
-Operativo de Destino: No aplica.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
-        </is>
-      </c>
-      <c r="E19" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Archivo definitivo)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="147" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B20" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las “Incidencias”</t>
-        </is>
-      </c>
-      <c r="C20" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Incidencias,</t>
-        </is>
-      </c>
-      <c r="D20" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado donde mostrará las entradas que presentan una incidencia “Abierta”, es decir, los envíos que están en estado “Incidencia”.
-A diferencia de los demás estados cuando se encuentre sobre este deberá aparecer una nueva acción “Cerrar Incidencia”.
-En este estado NO deberá aparecer la acción “Crear Incidencia”.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: INCIDENCIA.
-Operativo de Destino: El operativo destino NO lo podrá ver solo hasta que no se haya incorporado el Reexpedido, cuando se incorpore lo podrá visualizar en INCIDENCIA.
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Cerrar incidencia
-Se Activa la HU-132 Cerrar Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E20" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Incidencia)
-Incidencia (Estado actual de la última incidencia del envío)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="147" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B21" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en estado “Anulado”</t>
-        </is>
-      </c>
-      <c r="C21" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Anulado</t>
-        </is>
-      </c>
-      <c r="D21" s="32" t="inlineStr">
-        <is>
-          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: TODOS 
-Operativo de Destino: TODOS 
-2. Los envíos en estado “Anulado” SOLO podrán ser vistos por el “BackOffice” de cartería (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
-        </is>
-      </c>
-      <c r="E21" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Anulado)
-Acción (No hay acciones disponibles para este estado)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="147" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B22" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en estado “Extraviado”</t>
-        </is>
-      </c>
-      <c r="C22" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Extraviado</t>
-        </is>
-      </c>
-      <c r="D22" s="32" t="inlineStr">
-        <is>
-          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: TODOS 
-Operativo de Destino: TODOS 
-2. Los envíos en estado “Extraviado” SOLO podrán ser vistos por el “BackOffice” de cartería  (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
-        </is>
-      </c>
-      <c r="E22" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Extraviado)
-Acción (No hay acciones disponibles para este estado)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="147" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B23" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en estado “Devolución”</t>
-        </is>
-      </c>
-      <c r="C23" s="126" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; para los envíos en estado  Devolución</t>
-        </is>
-      </c>
-      <c r="D23" s="32" t="inlineStr">
-        <is>
-          <t>1. Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: TODOS 
-Operativo de Destino: TODOS 
-2. Los envíos en estado “Devolución” SOLO podrán ser vistos por el “BackOffice” de cartería  (origen y destino) en la sección “Todos”, estos no se verán en un estado aparte en el listado.
-3. Para los envíos en este estado No se habilitan acciones (Acciones  Generales sin selección de envíos, Acciones  Generales  con selección de envíos, Acciones  individuales Específica por envío)</t>
-        </is>
-      </c>
-      <c r="E23" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Devolución)
-Acción (No hay acciones disponibles para este estado)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="147" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B24" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Pte. Recibir”</t>
-        </is>
-      </c>
-      <c r="C24" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Pte. Recibir</t>
-        </is>
-      </c>
-      <c r="D24" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Recibir", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. REEXPEDIR mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Incorporar Reexpedido
-Se activa HU-119 Incorporar Reexpedido (Entradas) (Back Office)
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
-        </is>
-      </c>
-      <c r="E24" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Reexpedir)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="147" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B25" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Pte. Reexpedir”</t>
-        </is>
-      </c>
-      <c r="C25" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Pte. Reexpedir</t>
-        </is>
-      </c>
-      <c r="D25" s="32" t="inlineStr">
-        <is>
-          <t>El usuario podrá visualizar estas entradas en el TAG "Pte. Reexpedir", ubicado en la barra lateral izquierda de la interfaz, la cual deberá ser visible en el momento que se tenga al menos un registro con un contador de entradas recepcionadas.
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: PTE. REEXPEDIR mientras el envío no se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido.
-Acciones Generales CON selección de envíos
-Antes de la ejecución de la acción es necesario que el usuario pueda “Seleccionar” uno o más envíos. 
-Acciones que se mostrarán en la Barra dinámica superior:
-Anular envío
-Se activa HU-103	Anular envío (Acción)  (Back Office)
-Confirmar  Reexpedido
-Se activa HU-134	Confirmar Reexpedido 
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)
-Editar envío 
-Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E25" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Pte. Reexpedir)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="147" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B26" s="148" t="inlineStr">
-        <is>
-          <t>Visualizar las entradas que se encuentran en “Reexpedido”</t>
-        </is>
-      </c>
-      <c r="C26" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” &gt; Reexpediciones &gt; Reexpedido</t>
-        </is>
-      </c>
-      <c r="D26" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá desplegar un listado con las entradas que ha “Reexpedido” el operador de la cartería origen, con sus respectivos detalles. 
-Las etiquetas o tag en donde el Operativo origen y  destino verán el envío son:
-Operativo de Origen: REEXPEDIDO una vez el envío se ha reexpedido.
-Operativo de Destino: PTE. RECIBIR mientras el envío no se ha reexpedido, RECEPCIONADO una vez el envío se ha incorporado en el operativo de destino.
-Notas: Una vez que el envío ha sido reexpedido por el operador de origen, pasará a estar en estado "Recepcionado" por el operador de destino, y el envío deberá seguir el “flujo de entradas” establecido según la configuración inicial. Es importante considerar que, cuando se registró la entrada y el envío se digitalizó, en este nuevo flujo este paso deberá omitirse para evitar redundancias. Esto asegura que el proceso sea más eficiente y evita la duplicación de registros, permitiendo un seguimiento más claro y preciso de cada envío. Además, se debe garantizar que cualquier omisión de pasos no afecte la integridad de los datos ni la trazabilidad del envío a lo largo de todo su recorrido.
-Es posible que el destinatario cambie el punto de entrega después de la reexpedición del operador de origen. En tal caso, es posible que el operador de destino inicial ya no sea el correcto cuando llegue el reexpedido, por lo que se debería volver a reexpedir al nuevo operador de destino.
-Adicionalmente, se deben considerar las siguientes situaciones:
-Cuando un usuario cambia su punto de entrega a uno gestionado por otro operador, ya sea porque el edificio cambia de operador, el punto de entrega cambia de edificio, el usuario cambia su punto de entrega o el administrador del cliente cambia el punto de entrega del usuario, se deben establecer todos los envíos con estado "Pte. de distribución" y "Recoger en cartería" a "Pte. Reexpedir".
-Al cerrar una ronda, se debe comprobar para todos los envíos no entregados si el destinatario tiene un punto de entrega gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
-Cuando se reincorpora una entrada al circuito físico después de digitalizarse, también se debe comprobar si el destinatario tiene un punto de entrega gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
-Cuando se incorpora un envío reexpedido desde otro operador, se debe verificar si el punto de entrega actual del destinatario está gestionado por otro operador. En caso afirmativo, se pone en "Pte. Reexpedir".
-Acciones individuales Específicas por envío
-Acciones que se mostrarán al lado derecho del envío (No se mostrarán en la barra dinámica):
-Crear incidencia
-Se Activa la HU-011 Crear Incidencia
-Enviar Mensaje
-Se Activa la HU-102 Enviar Mensaje (Acción)  (Back Office)</t>
-        </is>
-      </c>
-      <c r="E26" s="32" t="inlineStr">
-        <is>
-          <t>Campos a mostrar por defecto (si el usuario no ha personalizado los campos a mostrar):
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado (Reexpedido)
-Acciones individuales específicas</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="147" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B27" s="148" t="inlineStr">
-        <is>
-          <t>Ver detalle del envío</t>
-        </is>
-      </c>
-      <c r="C27" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” , visualizando el Listado de envíos de cualquier estado, cuando haga clic en un envío en específico,</t>
-        </is>
-      </c>
-      <c r="D27" s="32" t="inlineStr">
-        <is>
-          <t>El sistema mostrará información con el detalle del envío seleccionado. Se Activa la HU-005 Ver el detalle del registro de entrada seleccionado</t>
-        </is>
-      </c>
-      <c r="E27" s="32" t="n"/>
-    </row>
-    <row r="28" ht="16.2" customHeight="1" s="212">
-      <c r="A28" s="147" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B28" s="126" t="inlineStr">
-        <is>
-          <t>Editar información del envío</t>
-        </is>
-      </c>
-      <c r="C28" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” , visualizando el Listado de envíos de cualquier estado y desee editar la información del registro seleccionado,</t>
-        </is>
-      </c>
-      <c r="D28" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-131 A Editar Envío - Entradas</t>
-        </is>
-      </c>
-      <c r="E28" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Editar Envío</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="16.2" customHeight="1" s="212">
-      <c r="A29" s="147" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B29" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Crear Incidencia”</t>
-        </is>
-      </c>
-      <c r="C29" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado (excepto Incidencia), cuando haga clic en la acción  “Crear Incidencia”</t>
-        </is>
-      </c>
-      <c r="D29" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-011 Crear Incidencia</t>
-        </is>
-      </c>
-      <c r="E29" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Crear Incidencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="16.2" customHeight="1" s="212">
-      <c r="A30" s="147" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B30" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Enviar Mensaje”</t>
-        </is>
-      </c>
-      <c r="C30" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado, cuando haga clic en la acción “Enviar Mensaje”</t>
-        </is>
-      </c>
-      <c r="D30" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-102 Enviar Mensaje (Acción)</t>
-        </is>
-      </c>
-      <c r="E30" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Enviar Mensaje</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="16.2" customHeight="1" s="212">
-      <c r="A31" s="147" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B31" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Anular envío”</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado, cuando haga clic en la acción “Anular envío”</t>
-        </is>
-      </c>
-      <c r="D31" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-103 Anular envío (Acción)</t>
-        </is>
-      </c>
-      <c r="E31" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Anular envío</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="16.2" customHeight="1" s="212">
-      <c r="A32" s="147" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B32" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Recuperación envío físico”</t>
-        </is>
-      </c>
-      <c r="C32" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos del estado “Archivo temporal”, cuando haga clic en la acción  “Recuperar envío físico”</t>
-        </is>
-      </c>
-      <c r="D32" s="32" t="inlineStr">
-        <is>
-          <t>Se Activa la HU-150 Recuperar Envíos Físicos por el Usuario de BackOffice</t>
-        </is>
-      </c>
-      <c r="E32" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Recuperar envío físico</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="16.2" customHeight="1" s="212">
-      <c r="A33" s="147" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B33" s="148" t="inlineStr">
-        <is>
-          <t>Acción  “Cerrar Incidencia”</t>
-        </is>
-      </c>
-      <c r="C33" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos en estado “Incidencia”, cuando haga clic en la acción “Cerrar Incidencia”</t>
-        </is>
-      </c>
-      <c r="D33" s="148" t="inlineStr">
-        <is>
-          <t>Se Activa la  HU-132 Cerrar Incidencia</t>
-        </is>
-      </c>
-      <c r="E33" s="32" t="inlineStr">
-        <is>
-          <t>Acción
-Cerrar Incidencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="16.2" customHeight="1" s="212">
-      <c r="A34" s="147" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B34" s="148" t="inlineStr">
-        <is>
-          <t>Selección de uno o varios registros</t>
-        </is>
-      </c>
-      <c r="C34" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado,
-Cuando requiere seleccionar uno o varios registros para realizar una acción de la “Barra de botones dinámica” sobre el (los) registro(s) seleccionado(s),</t>
-        </is>
-      </c>
-      <c r="D34" s="32" t="inlineStr">
-        <is>
-          <t>El sistema debe mostrar un checklist en cada envío, cada vez que el usuario seleccione un registro en la parte superior de la tabla le mostrará un contador de registros. Ej. “3 registros seleccionados”.
-2024-09-13: Se adiciona lo siguiente para tener en cuenta:
-El sistema debe permitir seleccionar varios registros entre las diferentes páginas del listado, sin perder la selección anterior o posterior.</t>
-        </is>
-      </c>
-      <c r="E34" s="150" t="inlineStr">
-        <is>
-          <t>• Checklist “Seleccionar envío”</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="16.2" customHeight="1" s="212">
-      <c r="A35" s="147" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B35" s="148" t="inlineStr">
-        <is>
-          <t>Seleccionar Todos los registros</t>
-        </is>
-      </c>
-      <c r="C35" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”, visualizando el Listado de envíos de cualquier estado,
-Cuando requiere seleccionar todos los registros y da clic sobre el checklist “Seleccionar todo” para  realizar una acción de la “Barra de botones dinámica”,</t>
-        </is>
-      </c>
-      <c r="D35" s="32" t="inlineStr">
-        <is>
-          <t>El sistema debe seleccionar todos los registros de la página donde se encuentra, mostrando el número de registros seleccionados.</t>
-        </is>
-      </c>
-      <c r="E35" s="32" t="inlineStr">
-        <is>
-          <t>• Checklist “Seleccionar todo”</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="16.2" customHeight="1" s="212">
-      <c r="A36" s="147" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B36" s="148" t="inlineStr">
-        <is>
-          <t>Activar/Desactivar Celdas</t>
-        </is>
-      </c>
-      <c r="C36" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y desea visualizar más a detalle los registros de entrada,</t>
-        </is>
-      </c>
-      <c r="D36" s="32" t="inlineStr">
-        <is>
-          <t>El sistema permitirá al usuario:
-Activar celdas:
-Al activar esta opción  el sistema expandirá la vista de la tabla para mostrar información secundaria de cada registro de entrada que se está visualizando.
-No se requiere selección de registros específicos, la expansión aplicará a todos los registros visibles en la tabla.
-Desactivar celdas
-Activar la sección "Desactivar Celdas" para regresar a la vista inicial de la tabla. Al presionar sobre esta opción, el sistema ocultará la información secundaria y mostrará nuevamente la vista compacta de la tabla.
-El usuario continuará viendo la misma sección de la tabla que estaba visualizando antes de desactivar la expansión.</t>
-        </is>
-      </c>
-      <c r="E36" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Activar Celdas</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="16.2" customHeight="1" s="212">
-      <c r="A37" s="147" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B37" s="148" t="inlineStr">
-        <is>
-          <t>Información secundaria</t>
-        </is>
-      </c>
-      <c r="C37" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice”y desea visualizar la información secundaria de un envío en específico, al pasar el cursor sobre  dicho envío,</t>
-        </is>
-      </c>
-      <c r="D37" s="32" t="inlineStr">
-        <is>
-          <t>El sistema deberá expandir la vista del registro y automáticamente mostrar la información secundaria del envío.</t>
-        </is>
-      </c>
-      <c r="E37" s="32" t="n"/>
-    </row>
-    <row r="38" ht="16.2" customHeight="1" s="212">
-      <c r="A38" s="147" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B38" s="148" t="inlineStr">
-        <is>
-          <t>Filtros tabla</t>
-        </is>
-      </c>
-      <c r="C38" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” en cualquiera de los estados y presiona sobre Icono filtro (),</t>
-        </is>
-      </c>
-      <c r="D38" s="32" t="inlineStr">
-        <is>
-          <t>Si la sección filtrado está deshabilitada el sistema debe habilitar la sección de filtrado en la tabla. 
-Si la sección filtrado está habilitada el sistema debe deshabilitar la sección de filtrado en la tabla.</t>
-        </is>
-      </c>
-      <c r="E38" s="32" t="inlineStr">
-        <is>
-          <t>Tener en cuenta que esto solo será visible cuando la sección de filtrado esté habilitada.
-Filtros:
-ID GIO
-Tipo de envío
-Remitente
-Destinatario
-Formato de entrega
-Ubicación
-Estado
-Botones:
-Borrar
-Aplicar</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="16.2" customHeight="1" s="212">
-      <c r="A39" s="147" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B39" s="148" t="inlineStr">
-        <is>
-          <t>Filtros</t>
-        </is>
-      </c>
-      <c r="C39" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y diligencie alguno de los filtros del panel de filtrado,</t>
-        </is>
-      </c>
-      <c r="D39" s="32" t="inlineStr">
-        <is>
-          <t>Estos deben ser un campo de entrada de texto.
-El sistema solo debe permitir escribir caracteres alfanuméricos.
-Por defecto los campos deben estar vacíos.
-Los filtros de texto por defecto deben ser del tipo "Contains" y ser indistintas las mayúsculas y las minúsculas (Case Insensitive) y a los "acentos"  (a=á=ä=à=â) (Accent Insensitive).</t>
-        </is>
-      </c>
-      <c r="E39" s="32" t="n"/>
-    </row>
-    <row r="40" ht="16.2" customHeight="1" s="212">
-      <c r="A40" s="147" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B40" s="148" t="inlineStr">
-        <is>
-          <t>Filtro Estado</t>
-        </is>
-      </c>
-      <c r="C40" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar,  y desee ver los registros por estado,</t>
-        </is>
-      </c>
-      <c r="D40" s="151" t="inlineStr">
-        <is>
-          <t>Por defecto el filtro estará establecido de acuerdo al estado que el usuario ha seleccionado y el usuario NO podrá seleccionar ningún otro estado para filtrar.</t>
-        </is>
-      </c>
-      <c r="E40" s="148" t="n"/>
-    </row>
-    <row r="41" ht="16.2" customHeight="1" s="212">
-      <c r="A41" s="147" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B41" s="148" t="inlineStr">
-        <is>
-          <t>Aplicar filtros</t>
-        </is>
-      </c>
-      <c r="C41" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar, al  dar clic en el botón “Aplicar”,</t>
-        </is>
-      </c>
-      <c r="D41" s="151" t="inlineStr">
-        <is>
-          <t>El sistema debe mostrar en la tabla los registros.
-Al no encontrar registros debe aparecer el mensaje “No existen registros” en la tabla.</t>
-        </is>
-      </c>
-      <c r="E41" s="148" t="inlineStr">
-        <is>
-          <t>Botón:
-Aplicar</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="16.2" customHeight="1" s="212">
-      <c r="A42" s="147" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B42" s="148" t="inlineStr">
-        <is>
-          <t>Limpiar filtros</t>
-        </is>
-      </c>
-      <c r="C42" s="148" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y ha habilitado el panel de filtrar, al  dar clic en el botón “Borrar” o deshabilita la sección de filtrado,</t>
-        </is>
-      </c>
-      <c r="D42" s="151" t="inlineStr">
-        <is>
-          <t>El sistema debe regresar todos los filtros a su estado por defecto.
-En la tabla deben aparecer todos los registros.</t>
-        </is>
-      </c>
-      <c r="E42" s="148" t="inlineStr">
-        <is>
-          <t>Botón:
-Borrar</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="16.2" customHeight="1" s="212">
-      <c r="A43" s="147" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B43" s="126" t="inlineStr">
-        <is>
-          <t>Exportar información</t>
-        </is>
-      </c>
-      <c r="C43" s="32" t="inlineStr">
-        <is>
-          <t>Dado que el usuario se encuentra en la pantalla “Entradas - BackOffice” y desea exportar la información visualizada, cuando hace clic en la opción “Acciones de datos” &gt; “Exportar”</t>
-        </is>
-      </c>
-      <c r="D43" s="32" t="inlineStr">
-        <is>
-          <t>El sistema permitirá exportar la información del listado teniendo en cuenta los filtros que se hayan aplicado. Se activa HU-056 Exportación de datos</t>
-        </is>
-      </c>
-      <c r="E43" s="32" t="inlineStr">
-        <is>
-          <t>Botón:
-Exportar</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="16.2" customHeight="1" s="212">
-      <c r="A44" s="147" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B44" s="126" t="inlineStr">
-        <is>
-          <t>Paginado y Desplazamiento en Listados</t>
-        </is>
-      </c>
-      <c r="C44" s="32" t="inlineStr">
-        <is>
-          <t>Dado que se busca mejorar la visualización de listados en cada estado, cuando el usuario acceda a cualquier lista de estados,</t>
-        </is>
-      </c>
-      <c r="D44" s="32" t="inlineStr">
-        <is>
-          <t>Si la totalidad de los registros no alcanzan a mostrarse en pantalla, la información se mostrará paginada y con barras de desplazamiento. Se activa HU-098  (Paginado de tablas).</t>
-        </is>
-      </c>
-      <c r="E44" s="32" t="n"/>
-    </row>
-    <row r="45" ht="16.2" customHeight="1" s="212">
-      <c r="A45" s="147" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B45" s="32" t="n"/>
-      <c r="C45" s="32" t="n"/>
-      <c r="D45" s="32" t="n"/>
-      <c r="E45" s="32" t="n"/>
-    </row>
-    <row r="46" ht="16.2" customHeight="1" s="212">
-      <c r="A46" s="147" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B46" s="32" t="n"/>
-      <c r="C46" s="32" t="n"/>
-      <c r="D46" s="32" t="n"/>
-      <c r="E46" s="32" t="n"/>
-    </row>
-    <row r="47" ht="16.2" customHeight="1" s="212">
-      <c r="A47" s="147" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B47" s="32" t="n"/>
-      <c r="C47" s="32" t="n"/>
-      <c r="D47" s="32" t="n"/>
-      <c r="E47" s="32" t="n"/>
-    </row>
-    <row r="48" ht="16.2" customHeight="1" s="212">
-      <c r="A48" s="147" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B48" s="32" t="n"/>
-      <c r="C48" s="32" t="n"/>
-      <c r="D48" s="32" t="n"/>
-      <c r="E48" s="32" t="n"/>
-    </row>
-    <row r="49" ht="16.2" customHeight="1" s="212">
-      <c r="A49" s="147" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B49" s="32" t="n"/>
-      <c r="C49" s="32" t="n"/>
-      <c r="D49" s="32" t="n"/>
-      <c r="E49" s="32" t="n"/>
-    </row>
-    <row r="50" ht="16.2" customHeight="1" s="212">
-      <c r="A50" s="147" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B50" s="148" t="n"/>
-      <c r="C50" s="32" t="n"/>
-      <c r="D50" s="32" t="n"/>
-      <c r="E50" s="32" t="n"/>
-    </row>
-    <row r="51" ht="16.2" customHeight="1" s="212">
-      <c r="A51" s="147" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B51" s="148" t="n"/>
-      <c r="C51" s="32" t="n"/>
-      <c r="D51" s="32" t="n"/>
-      <c r="E51" s="32" t="n"/>
-    </row>
-    <row r="52" ht="16.2" customHeight="1" s="212">
-      <c r="A52" s="147" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B52" s="148" t="n"/>
-      <c r="C52" s="32" t="n"/>
-      <c r="D52" s="32" t="n"/>
-      <c r="E52" s="32" t="n"/>
-    </row>
-    <row r="53" ht="16.2" customHeight="1" s="212">
-      <c r="A53" s="147" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B53" s="148" t="n"/>
-      <c r="C53" s="32" t="n"/>
-      <c r="D53" s="32" t="n"/>
-      <c r="E53" s="32" t="n"/>
-    </row>
-    <row r="54" ht="16.2" customHeight="1" s="212">
-      <c r="A54" s="147" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B54" s="148" t="n"/>
-      <c r="C54" s="32" t="n"/>
-      <c r="D54" s="32" t="n"/>
-      <c r="E54" s="32" t="n"/>
-    </row>
-    <row r="55" ht="16.2" customHeight="1" s="212">
-      <c r="A55" s="147" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B55" s="32" t="n"/>
-      <c r="C55" s="32" t="n"/>
-      <c r="D55" s="32" t="n"/>
-      <c r="E55" s="32" t="n"/>
-    </row>
-    <row r="56" ht="16.2" customHeight="1" s="212">
-      <c r="A56" s="147" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B56" s="32" t="n"/>
-      <c r="C56" s="32" t="n"/>
-      <c r="D56" s="32" t="n"/>
-      <c r="E56" s="32" t="n"/>
-    </row>
-    <row r="57" ht="16.2" customHeight="1" s="212">
-      <c r="A57" s="147" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B57" s="32" t="n"/>
-      <c r="C57" s="32" t="n"/>
-      <c r="D57" s="32" t="n"/>
-      <c r="E57" s="32" t="n"/>
-    </row>
-    <row r="58" ht="16.2" customHeight="1" s="212">
-      <c r="A58" s="147" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B58" s="32" t="n"/>
-      <c r="C58" s="32" t="n"/>
-      <c r="D58" s="32" t="n"/>
-      <c r="E58" s="32" t="n"/>
-    </row>
-    <row r="59" ht="16.2" customHeight="1" s="212">
-      <c r="A59" s="147" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B59" s="32" t="n"/>
-      <c r="C59" s="32" t="n"/>
-      <c r="D59" s="32" t="n"/>
-      <c r="E59" s="32" t="n"/>
-    </row>
-    <row r="60" ht="16.2" customHeight="1" s="212">
-      <c r="A60" s="147" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B60" s="32" t="n"/>
-      <c r="C60" s="32" t="n"/>
-      <c r="D60" s="32" t="n"/>
-      <c r="E60" s="32" t="n"/>
-    </row>
-    <row r="61" ht="16.2" customHeight="1" s="212">
-      <c r="A61" s="147" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B61" s="32" t="n"/>
-      <c r="C61" s="32" t="n"/>
-      <c r="D61" s="32" t="n"/>
-      <c r="E61" s="32" t="n"/>
-    </row>
-    <row r="62" ht="16.2" customHeight="1" s="212">
-      <c r="A62" s="147" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B62" s="32" t="n"/>
-      <c r="C62" s="32" t="n"/>
-      <c r="D62" s="32" t="n"/>
-      <c r="E62" s="32" t="n"/>
-    </row>
-    <row r="63" ht="16.2" customHeight="1" s="212">
-      <c r="A63" s="147" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B63" s="32" t="n"/>
-      <c r="C63" s="32" t="n"/>
-      <c r="D63" s="32" t="n"/>
-      <c r="E63" s="32" t="n"/>
-    </row>
-    <row r="64" ht="16.2" customHeight="1" s="212">
-      <c r="A64" s="147" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B64" s="32" t="n"/>
-      <c r="C64" s="32" t="n"/>
-      <c r="D64" s="32" t="n"/>
-      <c r="E64" s="32" t="n"/>
-    </row>
-    <row r="65" ht="16.2" customHeight="1" s="212">
-      <c r="A65" s="147" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B65" s="32" t="n"/>
-      <c r="C65" s="32" t="n"/>
-      <c r="D65" s="32" t="n"/>
-      <c r="E65" s="32" t="n"/>
-    </row>
-    <row r="66" ht="16.2" customHeight="1" s="212">
-      <c r="A66" s="147" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B66" s="32" t="n"/>
-      <c r="C66" s="32" t="n"/>
-      <c r="D66" s="32" t="n"/>
-      <c r="E66" s="32" t="n"/>
-    </row>
-    <row r="67" ht="16.2" customHeight="1" s="212">
-      <c r="A67" s="147" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B67" s="32" t="n"/>
-      <c r="C67" s="32" t="n"/>
-      <c r="D67" s="32" t="n"/>
-      <c r="E67" s="32" t="n"/>
-    </row>
-    <row r="68" ht="16.2" customHeight="1" s="212">
-      <c r="A68" s="147" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B68" s="32" t="n"/>
-      <c r="C68" s="32" t="n"/>
-      <c r="D68" s="32" t="n"/>
-      <c r="E68" s="32" t="n"/>
-    </row>
-    <row r="69" ht="16.2" customHeight="1" s="212">
-      <c r="A69" s="147" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B69" s="32" t="n"/>
-      <c r="C69" s="32" t="n"/>
-      <c r="D69" s="32" t="n"/>
-      <c r="E69" s="32" t="n"/>
-    </row>
-    <row r="70" ht="16.2" customHeight="1" s="212">
-      <c r="A70" s="147" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B70" s="32" t="n"/>
-      <c r="C70" s="32" t="n"/>
-      <c r="D70" s="32" t="n"/>
-      <c r="E70" s="32" t="n"/>
-    </row>
-    <row r="71" ht="16.2" customHeight="1" s="212">
-      <c r="A71" s="147" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B71" s="32" t="n"/>
-      <c r="C71" s="32" t="n"/>
-      <c r="D71" s="32" t="n"/>
-      <c r="E71" s="32" t="n"/>
-    </row>
-    <row r="72" ht="16.2" customHeight="1" s="212">
-      <c r="A72" s="147" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B72" s="32" t="n"/>
-      <c r="C72" s="32" t="n"/>
-      <c r="D72" s="32" t="n"/>
-      <c r="E72" s="32" t="n"/>
-    </row>
-    <row r="73" ht="16.2" customHeight="1" s="212">
-      <c r="A73" s="147" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B73" s="32" t="n"/>
-      <c r="C73" s="32" t="n"/>
-      <c r="D73" s="32" t="n"/>
-      <c r="E73" s="32" t="n"/>
-    </row>
-    <row r="74" ht="16.2" customHeight="1" s="212">
-      <c r="A74" s="147" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B74" s="32" t="n"/>
-      <c r="C74" s="32" t="n"/>
-      <c r="D74" s="32" t="n"/>
-      <c r="E74" s="32" t="n"/>
-    </row>
-    <row r="75" ht="16.2" customHeight="1" s="212">
-      <c r="A75" s="147" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B75" s="32" t="n"/>
-      <c r="C75" s="32" t="n"/>
-      <c r="D75" s="32" t="n"/>
-      <c r="E75" s="32" t="n"/>
-    </row>
-    <row r="76" ht="16.2" customHeight="1" s="212">
-      <c r="A76" s="147" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B76" s="32" t="n"/>
-      <c r="C76" s="32" t="n"/>
-      <c r="D76" s="32" t="n"/>
-      <c r="E76" s="32" t="n"/>
-    </row>
-    <row r="77" ht="16.2" customHeight="1" s="212">
-      <c r="A77" s="147" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B77" s="32" t="n"/>
-      <c r="C77" s="32" t="n"/>
-      <c r="D77" s="32" t="n"/>
-      <c r="E77" s="32" t="n"/>
-    </row>
-    <row r="78" ht="16.2" customHeight="1" s="212">
-      <c r="A78" s="147" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B78" s="32" t="n"/>
-      <c r="C78" s="32" t="n"/>
-      <c r="D78" s="32" t="n"/>
-      <c r="E78" s="32" t="n"/>
-    </row>
-    <row r="79" ht="16.2" customHeight="1" s="212">
-      <c r="A79" s="147" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B79" s="32" t="n"/>
-      <c r="C79" s="32" t="n"/>
-      <c r="D79" s="32" t="n"/>
-      <c r="E79" s="32" t="n"/>
-    </row>
-    <row r="80" ht="16.2" customHeight="1" s="212">
-      <c r="A80" s="147" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B80" s="32" t="n"/>
-      <c r="C80" s="32" t="n"/>
-      <c r="D80" s="32" t="n"/>
-      <c r="E80" s="32" t="n"/>
-    </row>
-    <row r="81" ht="16.2" customHeight="1" s="212">
-      <c r="A81" s="147" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B81" s="32" t="n"/>
-      <c r="C81" s="32" t="n"/>
-      <c r="D81" s="32" t="n"/>
-      <c r="E81" s="32" t="n"/>
-    </row>
-    <row r="82" ht="16.2" customHeight="1" s="212">
-      <c r="A82" s="147" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B82" s="32" t="n"/>
-      <c r="C82" s="32" t="n"/>
-      <c r="D82" s="32" t="n"/>
-      <c r="E82" s="32" t="n"/>
-    </row>
-    <row r="83" ht="16.2" customHeight="1" s="212">
-      <c r="A83" s="147" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B83" s="32" t="n"/>
-      <c r="C83" s="32" t="n"/>
-      <c r="D83" s="32" t="n"/>
-      <c r="E83" s="32" t="n"/>
-    </row>
-    <row r="84" ht="16.2" customHeight="1" s="212">
-      <c r="A84" s="147" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B84" s="32" t="n"/>
-      <c r="C84" s="32" t="n"/>
-      <c r="D84" s="32" t="n"/>
-      <c r="E84" s="32" t="n"/>
-    </row>
-    <row r="85" ht="16.2" customHeight="1" s="212">
-      <c r="A85" s="147" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B85" s="32" t="n"/>
-      <c r="C85" s="32" t="n"/>
-      <c r="D85" s="32" t="n"/>
-      <c r="E85" s="32" t="n"/>
-    </row>
-    <row r="86" ht="16.2" customHeight="1" s="212">
-      <c r="A86" s="147" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B86" s="32" t="n"/>
-      <c r="C86" s="32" t="n"/>
-      <c r="D86" s="32" t="n"/>
-      <c r="E86" s="32" t="n"/>
-    </row>
-    <row r="87" ht="16.2" customHeight="1" s="212">
-      <c r="A87" s="147" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B87" s="32" t="n"/>
-      <c r="C87" s="32" t="n"/>
-      <c r="D87" s="32" t="n"/>
-      <c r="E87" s="32" t="n"/>
-    </row>
-    <row r="88" ht="16.2" customHeight="1" s="212">
-      <c r="A88" s="147" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B88" s="32" t="n"/>
-      <c r="C88" s="32" t="n"/>
-      <c r="D88" s="32" t="n"/>
-      <c r="E88" s="32" t="n"/>
-    </row>
-    <row r="89" ht="16.2" customHeight="1" s="212">
-      <c r="A89" s="147" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B89" s="32" t="n"/>
-      <c r="C89" s="32" t="n"/>
-      <c r="D89" s="32" t="n"/>
-      <c r="E89" s="32" t="n"/>
-    </row>
-    <row r="90" ht="16.2" customHeight="1" s="212">
-      <c r="A90" s="147" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B90" s="32" t="n"/>
-      <c r="C90" s="32" t="n"/>
-      <c r="D90" s="32" t="n"/>
-      <c r="E90" s="32" t="n"/>
-    </row>
-    <row r="91" ht="16.2" customHeight="1" s="212">
-      <c r="A91" s="147" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B91" s="32" t="n"/>
-      <c r="C91" s="32" t="n"/>
-      <c r="D91" s="32" t="n"/>
-      <c r="E91" s="32" t="n"/>
-    </row>
-    <row r="92" ht="16.2" customHeight="1" s="212">
-      <c r="A92" s="147" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="B92" s="32" t="n"/>
-      <c r="C92" s="32" t="n"/>
-      <c r="D92" s="32" t="n"/>
-      <c r="E92" s="32" t="n"/>
-    </row>
-    <row r="93" ht="16.2" customHeight="1" s="212">
-      <c r="A93" s="147" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="B93" s="32" t="n"/>
-      <c r="C93" s="32" t="n"/>
-      <c r="D93" s="32" t="n"/>
-      <c r="E93" s="32" t="n"/>
-    </row>
-    <row r="94" ht="16.2" customHeight="1" s="212">
-      <c r="A94" s="147" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B94" s="32" t="n"/>
-      <c r="C94" s="32" t="n"/>
-      <c r="D94" s="32" t="n"/>
-      <c r="E94" s="32" t="n"/>
-    </row>
-    <row r="95" ht="16.2" customHeight="1" s="212">
-      <c r="A95" s="147" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="B95" s="32" t="n"/>
-      <c r="C95" s="32" t="n"/>
-      <c r="D95" s="32" t="n"/>
-      <c r="E95" s="32" t="n"/>
-    </row>
-    <row r="96" ht="16.2" customHeight="1" s="212">
-      <c r="A96" s="147" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B96" s="32" t="n"/>
-      <c r="C96" s="32" t="n"/>
-      <c r="D96" s="32" t="n"/>
-      <c r="E96" s="32" t="n"/>
-    </row>
-    <row r="97" ht="16.2" customHeight="1" s="212">
-      <c r="A97" s="147" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B97" s="32" t="n"/>
-      <c r="C97" s="32" t="n"/>
-      <c r="D97" s="32" t="n"/>
-      <c r="E97" s="32" t="n"/>
-    </row>
-    <row r="98" ht="16.2" customHeight="1" s="212">
-      <c r="A98" s="147" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B98" s="32" t="n"/>
-      <c r="C98" s="32" t="n"/>
-      <c r="D98" s="32" t="n"/>
-      <c r="E98" s="32" t="n"/>
-    </row>
-    <row r="99" ht="16.2" customHeight="1" s="212">
-      <c r="A99" s="147" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B99" s="32" t="n"/>
-      <c r="C99" s="32" t="n"/>
-      <c r="D99" s="32" t="n"/>
-      <c r="E99" s="32" t="n"/>
-    </row>
-    <row r="100" ht="16.2" customHeight="1" s="212">
-      <c r="A100" s="147" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B100" s="32" t="n"/>
-      <c r="C100" s="32" t="n"/>
-      <c r="D100" s="32" t="n"/>
-      <c r="E100" s="32" t="n"/>
-    </row>
-    <row r="101" ht="16.2" customHeight="1" s="212">
-      <c r="A101" s="147" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B101" s="32" t="n"/>
-      <c r="C101" s="32" t="n"/>
-      <c r="D101" s="32" t="n"/>
-      <c r="E101" s="32" t="n"/>
-    </row>
-    <row r="102" ht="16.2" customHeight="1" s="212">
-      <c r="A102" s="147" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B102" s="32" t="n"/>
-      <c r="C102" s="32" t="n"/>
-      <c r="D102" s="32" t="n"/>
-      <c r="E102" s="32" t="n"/>
-    </row>
-    <row r="103" ht="16.2" customHeight="1" s="212">
-      <c r="A103" s="147" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B103" s="32" t="n"/>
-      <c r="C103" s="32" t="n"/>
-      <c r="D103" s="32" t="n"/>
-      <c r="E103" s="32" t="n"/>
-    </row>
-    <row r="104" ht="16.2" customHeight="1" s="212">
-      <c r="A104" s="147" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B104" s="32" t="n"/>
-      <c r="C104" s="32" t="n"/>
-      <c r="D104" s="32" t="n"/>
-      <c r="E104" s="32" t="n"/>
-    </row>
-    <row r="105" ht="16.2" customHeight="1" s="212">
-      <c r="A105" s="147" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B105" s="32" t="n"/>
-      <c r="C105" s="32" t="n"/>
-      <c r="D105" s="32" t="n"/>
-      <c r="E105" s="32" t="n"/>
-    </row>
-    <row r="106" ht="16.2" customHeight="1" s="212">
-      <c r="A106" s="147" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B106" s="32" t="n"/>
-      <c r="C106" s="32" t="n"/>
-      <c r="D106" s="32" t="n"/>
-      <c r="E106" s="32" t="n"/>
-    </row>
-    <row r="107" ht="16.2" customHeight="1" s="212">
-      <c r="A107" s="147" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B107" s="32" t="n"/>
-      <c r="C107" s="32" t="n"/>
-      <c r="D107" s="32" t="n"/>
-      <c r="E107" s="32" t="n"/>
-    </row>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Exportar datos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz “Centro de Incidencias” y da clic en el icono “Exportar”,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Se activa la HU-056 Exportación de datos</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Botón: “Exportar”</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="14.4" customHeight="1" s="212"/>
+    <row r="18" ht="14.4" customHeight="1" s="212"/>
+    <row r="19" ht="14.4" customHeight="1" s="212"/>
+    <row r="28" ht="16.2" customHeight="1" s="212"/>
+    <row r="29" ht="16.2" customHeight="1" s="212"/>
+    <row r="30" ht="16.2" customHeight="1" s="212"/>
+    <row r="31" ht="16.2" customHeight="1" s="212"/>
+    <row r="32" ht="16.2" customHeight="1" s="212"/>
+    <row r="33" ht="16.2" customHeight="1" s="212"/>
+    <row r="34" ht="16.2" customHeight="1" s="212"/>
+    <row r="35" ht="16.2" customHeight="1" s="212"/>
+    <row r="36" ht="16.2" customHeight="1" s="212"/>
+    <row r="37" ht="16.2" customHeight="1" s="212"/>
+    <row r="38" ht="16.2" customHeight="1" s="212"/>
+    <row r="39" ht="16.2" customHeight="1" s="212"/>
+    <row r="40" ht="16.2" customHeight="1" s="212"/>
+    <row r="41" ht="16.2" customHeight="1" s="212"/>
+    <row r="42" ht="16.2" customHeight="1" s="212"/>
+    <row r="43" ht="16.2" customHeight="1" s="212"/>
+    <row r="44" ht="16.2" customHeight="1" s="212"/>
+    <row r="45" ht="16.2" customHeight="1" s="212"/>
+    <row r="46" ht="16.2" customHeight="1" s="212"/>
+    <row r="47" ht="16.2" customHeight="1" s="212"/>
+    <row r="48" ht="16.2" customHeight="1" s="212"/>
+    <row r="49" ht="16.2" customHeight="1" s="212"/>
+    <row r="50" ht="16.2" customHeight="1" s="212"/>
+    <row r="51" ht="16.2" customHeight="1" s="212"/>
+    <row r="52" ht="16.2" customHeight="1" s="212"/>
+    <row r="53" ht="16.2" customHeight="1" s="212"/>
+    <row r="54" ht="16.2" customHeight="1" s="212"/>
+    <row r="55" ht="16.2" customHeight="1" s="212"/>
+    <row r="56" ht="16.2" customHeight="1" s="212"/>
+    <row r="57" ht="16.2" customHeight="1" s="212"/>
+    <row r="58" ht="16.2" customHeight="1" s="212"/>
+    <row r="59" ht="16.2" customHeight="1" s="212"/>
+    <row r="60" ht="16.2" customHeight="1" s="212"/>
+    <row r="61" ht="16.2" customHeight="1" s="212"/>
+    <row r="62" ht="16.2" customHeight="1" s="212"/>
+    <row r="63" ht="16.2" customHeight="1" s="212"/>
+    <row r="64" ht="16.2" customHeight="1" s="212"/>
+    <row r="65" ht="16.2" customHeight="1" s="212"/>
+    <row r="66" ht="16.2" customHeight="1" s="212"/>
+    <row r="67" ht="16.2" customHeight="1" s="212"/>
+    <row r="68" ht="16.2" customHeight="1" s="212"/>
+    <row r="69" ht="16.2" customHeight="1" s="212"/>
+    <row r="70" ht="16.2" customHeight="1" s="212"/>
+    <row r="71" ht="16.2" customHeight="1" s="212"/>
+    <row r="72" ht="16.2" customHeight="1" s="212"/>
+    <row r="73" ht="16.2" customHeight="1" s="212"/>
+    <row r="74" ht="16.2" customHeight="1" s="212"/>
+    <row r="75" ht="16.2" customHeight="1" s="212"/>
+    <row r="76" ht="16.2" customHeight="1" s="212"/>
+    <row r="77" ht="16.2" customHeight="1" s="212"/>
+    <row r="78" ht="16.2" customHeight="1" s="212"/>
+    <row r="79" ht="16.2" customHeight="1" s="212"/>
+    <row r="80" ht="16.2" customHeight="1" s="212"/>
+    <row r="81" ht="16.2" customHeight="1" s="212"/>
+    <row r="82" ht="16.2" customHeight="1" s="212"/>
+    <row r="83" ht="16.2" customHeight="1" s="212"/>
+    <row r="84" ht="16.2" customHeight="1" s="212"/>
+    <row r="85" ht="16.2" customHeight="1" s="212"/>
+    <row r="86" ht="16.2" customHeight="1" s="212"/>
+    <row r="87" ht="16.2" customHeight="1" s="212"/>
+    <row r="88" ht="16.2" customHeight="1" s="212"/>
+    <row r="89" ht="16.2" customHeight="1" s="212"/>
+    <row r="90" ht="16.2" customHeight="1" s="212"/>
+    <row r="91" ht="16.2" customHeight="1" s="212"/>
+    <row r="92" ht="16.2" customHeight="1" s="212"/>
+    <row r="93" ht="16.2" customHeight="1" s="212"/>
+    <row r="94" ht="16.2" customHeight="1" s="212"/>
+    <row r="95" ht="16.2" customHeight="1" s="212"/>
+    <row r="96" ht="16.2" customHeight="1" s="212"/>
+    <row r="97" ht="16.2" customHeight="1" s="212"/>
+    <row r="98" ht="16.2" customHeight="1" s="212"/>
+    <row r="99" ht="16.2" customHeight="1" s="212"/>
+    <row r="100" ht="16.2" customHeight="1" s="212"/>
+    <row r="101" ht="16.2" customHeight="1" s="212"/>
+    <row r="102" ht="16.2" customHeight="1" s="212"/>
+    <row r="103" ht="16.2" customHeight="1" s="212"/>
+    <row r="104" ht="16.2" customHeight="1" s="212"/>
+    <row r="105" ht="16.2" customHeight="1" s="212"/>
+    <row r="106" ht="16.2" customHeight="1" s="212"/>
+    <row r="107" ht="16.2" customHeight="1" s="212"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A3"/>

--- a/Archivos_imp/test.xlsx
+++ b/Archivos_imp/test.xlsx
@@ -2031,7 +2031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:E44"/>
@@ -2170,16 +2170,244 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14.4" customHeight="1" s="212"/>
-    <row r="8" ht="14.4" customHeight="1" s="212"/>
-    <row r="9" ht="14.4" customHeight="1" s="212"/>
-    <row r="10" ht="14.4" customHeight="1" s="212"/>
-    <row r="11" ht="14.4" customHeight="1" s="212"/>
-    <row r="12" ht="14.4" customHeight="1" s="212"/>
-    <row r="13" ht="14.4" customHeight="1" s="212"/>
-    <row r="14" ht="14.4" customHeight="1" s="212"/>
-    <row r="15" ht="14.4" customHeight="1" s="212"/>
-    <row r="16" ht="14.4" customHeight="1" s="212"/>
+    <row r="7" ht="14.4" customHeight="1" s="212">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Listado de  incidencias registradas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla “cartería inteligente” y da clic en “Ayuda “ y luego da clic en “Centro de Incidencias”,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>El sistema debe mostrar una interfaz “Centro de Incidencias” donde se listen todas las incidencias registradas en el sistema ya sea que estén “Abiertas” o “Cerradas”, además de información relacionada con el envío.
+Las “incidencias” estarán ordenadas por fecha y hora, desde la más reciente al más antigua en forma descendente.
+Los estados de las incidencias deben diferenciarse por color.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Título interfaz:
+Centro de incidencias
+Tabla columnas por registro:
+Identificador GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación entrega
+Estado de la incidencia (Fecha de creación se pone debajo de estado de incidencia)
+Motivo de incidencia
+Paginación de tabla:
+Se activa HU-098 Paginado de tablas
+Otros:
+Exportar CSV ()
+Filtro tabla ()</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" s="212">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Envíos con múltiples incidencias</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cuando un envío en concreto tiene asociadas más de una incidencia,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Se muestra el listado de incidencias pertenecientes al envío, ya sea en estado “Abierta” o “Cerrada”.
+Ejemplo:
+Si un envío tiene 3 incidencias se debe mostrar 3 veces en el listado de las incidencias.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.4" customHeight="1" s="212">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Detalle de la Incidencia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz "Centro de Incidencias" y da clic en cualquier registro de la tabla,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>El sistema debe mostrar la modal “Detalle de la Incidencia”, en la cual debe aparecer el detalle de la incidencia seleccionada y el detalle del envío. Se activan las siguientes historias según el tipo de servicio que se haya seleccionado (Entradas, Salidas, Correo interno, Envíos digitales):
+Entrada: Se activa la HU-005 Ver el detalle del registro de entrada seleccionado.
+Salida: Se activa la HU-018 Ver detalle de registro de salida seleccionado.
+Correo Interno: Se activa la HU-023 Ver Detalle del Correo Interno Seleccionado.
+Envío Digital: Se activa la HU-034 Ver Detalle del Envío Digital Seleccionado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="14.4" customHeight="1" s="212">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Filtros tabla</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz “Centro de Incidencias” y da clic en el icono filtro (),</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Si la función filtrado está deshabilitada el sistema debe habilitar la función de filtrado en la tabla.
+Si la sección filtrado está habilitada el sistema debe deshabilitar la sección de filtrado en la tabla.
+Todos los ítems de filtros que se hacen, se harán con entradas de texto para cada uno.
+Los filtros que se pueden aplicar sobre la tabla son los siguientes:
+Identificador GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación entrega
+Estado de la incidencia
+Motivo de la incidencia
+Botones:
+Borrar
+Aplicar filtro
+La información que se presenta en la tabla son todas las incidencias que se han creado hasta el momento en la HU-011 Crear incidencia.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tener en cuenta que esto solo será visible cuando la sección de filtrado esté habilitada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="14.4" customHeight="1" s="212">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Filtros</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dado que el usuario se encuentra en la pantalla de centro de incidencias y diligencie alguno de los filtros del panel de filtrado,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Estos deben ser un campo de entrada de texto.
+El sistema solo debe permitir escribir caracteres alfanuméricos.
+Por defecto los campos deben estar vacíos.
+Los filtros de texto por defecto deben ser del tipo "Contains" y ser indistintas las mayúsculas y las minúsculas (Case Insensitive) y a los "acentos"  (a=á=ä=à=â) (Accent Insensitive).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customHeight="1" s="212">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Botón: “Aplicar filtro”</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz “Centro de Incidencias” y dio clic en el ícono de  “Filtros”,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>El sistema debe listar los campos que cumplan con el criterio del filtro en la pantalla.
+Si el usuario da clic sobre el botón “Exportar”  se activa la HU-056 Exportación de datos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1" s="212">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Validación de campos de filtros</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre ingresando texto en los campos de los filtros,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>El sistema debe hacer validación en cada uno de los campos y mostrar sugerencias de textos de entrada.
+El sistema debe mostrar al usuario en caso que haya  un error en la entrada del campo de texto</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="14.4" customHeight="1" s="212">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Restablecer “Limpiar”</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cuando el usuario ingrese datos en cualquiera de los campos de la pantalla,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>El sistema deberá limpiar todos los campos de los campos de la pantalla para que el usuario pueda realizar otra búsqueda. 
+Los campos que se deben limpiar son:
+Identificador GIO
+Tipo de envío
+Remitente
+Destinatario
+Formato de entrega
+Ubicación entrega
+Estado de la incidencia
+Motivo de la incidencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="14.4" customHeight="1" s="212">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paginado de tablas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz “Centro de Incidencias” visualizando el listado de incidencias,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Se activa la HU-098  Paginado de tablas
+*Funcionalidad a contemplar a nivel de Backend</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="14.4" customHeight="1" s="212">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Exportar datos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cuando el usuario se encuentre en la interfaz “Centro de Incidencias” y da clic en el icono “Exportar”,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Se activa la HU-056 Exportación de datos</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Botón: “Exportar”</t>
+        </is>
+      </c>
+    </row>
     <row r="17" ht="14.4" customHeight="1" s="212"/>
     <row r="18" ht="14.4" customHeight="1" s="212"/>
     <row r="19" ht="14.4" customHeight="1" s="212"/>
